--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>League</t>
   </si>
@@ -226,6 +226,9 @@
     <t>Argentinian Copa de la Liga Profesional</t>
   </si>
   <si>
+    <t>Ecuadorian Serie A</t>
+  </si>
+  <si>
     <t>2024-03-28</t>
   </si>
   <si>
@@ -283,6 +286,9 @@
     <t>Instituto</t>
   </si>
   <si>
+    <t>LDU</t>
+  </si>
+  <si>
     <t>Alianza Lima</t>
   </si>
   <si>
@@ -319,94 +325,19 @@
     <t>Argentinos Juniors</t>
   </si>
   <si>
+    <t>Imbabura Sporting Club</t>
+  </si>
+  <si>
     <t>CD Los Chankas</t>
   </si>
   <si>
-    <t>33140790</t>
-  </si>
-  <si>
-    <t>33139440</t>
-  </si>
-  <si>
-    <t>33137995</t>
-  </si>
-  <si>
-    <t>33137994</t>
-  </si>
-  <si>
-    <t>33137997</t>
-  </si>
-  <si>
-    <t>33137996</t>
-  </si>
-  <si>
-    <t>33137998</t>
-  </si>
-  <si>
-    <t>33123972</t>
-  </si>
-  <si>
-    <t>33119897</t>
-  </si>
-  <si>
-    <t>33123978</t>
-  </si>
-  <si>
-    <t>1.226706493</t>
-  </si>
-  <si>
-    <t>1.226690788</t>
-  </si>
-  <si>
-    <t>1.226353059</t>
-  </si>
-  <si>
-    <t>1.226706538</t>
-  </si>
-  <si>
-    <t>1.226690833</t>
-  </si>
-  <si>
-    <t>1.226667116</t>
-  </si>
-  <si>
-    <t>1.226667206</t>
-  </si>
-  <si>
-    <t>1.226667026</t>
-  </si>
-  <si>
-    <t>1.226666837</t>
-  </si>
-  <si>
-    <t>1.226666936</t>
-  </si>
-  <si>
-    <t>1.226413105</t>
-  </si>
-  <si>
-    <t>1.226353069</t>
-  </si>
-  <si>
-    <t>1.226412925</t>
-  </si>
-  <si>
-    <t>1.226706577</t>
-  </si>
-  <si>
-    <t>1.226690872</t>
-  </si>
-  <si>
-    <t>1.226353058</t>
-  </si>
-  <si>
-    <t>1.226706502</t>
-  </si>
-  <si>
-    <t>1.226690797</t>
-  </si>
-  <si>
-    <t>1.226353068</t>
+    <t>33141755</t>
+  </si>
+  <si>
+    <t>1.226722648</t>
+  </si>
+  <si>
+    <t>1.226722693</t>
   </si>
 </sst>
 </file>
@@ -764,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM13"/>
+  <dimension ref="A1:BM14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,28 +903,28 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>1.04</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H2">
         <v>1.04</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J2">
         <v>1.01</v>
@@ -1032,91 +963,91 @@
         <v>1000</v>
       </c>
       <c r="V2">
-        <v>2.4</v>
+        <v>1.03</v>
       </c>
       <c r="W2">
         <v>1000</v>
       </c>
       <c r="X2">
-        <v>2.94</v>
+        <v>1.03</v>
       </c>
       <c r="Y2">
         <v>1000</v>
       </c>
       <c r="Z2">
-        <v>2.96</v>
+        <v>1.03</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>2.64</v>
+        <v>1.03</v>
       </c>
       <c r="AC2">
         <v>1000</v>
       </c>
       <c r="AD2">
-        <v>2.96</v>
+        <v>1.03</v>
       </c>
       <c r="AE2">
         <v>1000</v>
       </c>
       <c r="AF2">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="AG2">
         <v>1000</v>
       </c>
       <c r="AH2">
-        <v>7</v>
+        <v>1.03</v>
       </c>
       <c r="AI2">
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>2.98</v>
+        <v>1.03</v>
       </c>
       <c r="AK2">
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>3.35</v>
+        <v>1.03</v>
       </c>
       <c r="AM2">
         <v>1000</v>
       </c>
       <c r="AN2">
-        <v>7</v>
+        <v>1.03</v>
       </c>
       <c r="AO2">
         <v>1000</v>
       </c>
       <c r="AP2">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>2.92</v>
+        <v>1.03</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="AU2">
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>5.6</v>
+        <v>1.03</v>
       </c>
       <c r="AW2">
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AY2">
         <v>1000</v>
@@ -1169,31 +1100,31 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="G3">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="H3">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="I3">
-        <v>870</v>
+        <v>990</v>
       </c>
       <c r="J3">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="K3">
         <v>950</v>
@@ -1223,7 +1154,7 @@
         <v>1000</v>
       </c>
       <c r="T3">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U3">
         <v>980</v>
@@ -1277,7 +1208,7 @@
         <v>1000</v>
       </c>
       <c r="AL3">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="AM3">
         <v>980</v>
@@ -1336,8 +1267,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>102</v>
+      <c r="BF3">
+        <v>33140790</v>
       </c>
       <c r="BG3">
         <v>7154508</v>
@@ -1348,17 +1279,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>128</v>
+      <c r="BJ3">
+        <v>1.226706493</v>
+      </c>
+      <c r="BK3">
+        <v>1.226706538</v>
+      </c>
+      <c r="BL3">
+        <v>1.226706577</v>
+      </c>
+      <c r="BM3">
+        <v>1.226706502</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1366,28 +1297,28 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>1.04</v>
       </c>
       <c r="G4">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="H4">
         <v>1.04</v>
       </c>
       <c r="I4">
-        <v>870</v>
+        <v>990</v>
       </c>
       <c r="J4">
         <v>1.21</v>
@@ -1474,7 +1405,7 @@
         <v>1000</v>
       </c>
       <c r="AL4">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="AM4">
         <v>980</v>
@@ -1533,8 +1464,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>103</v>
+      <c r="BF4">
+        <v>33139440</v>
       </c>
       <c r="BG4">
         <v>7223889</v>
@@ -1545,17 +1476,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>129</v>
+      <c r="BJ4">
+        <v>1.226690788</v>
+      </c>
+      <c r="BK4">
+        <v>1.226690833</v>
+      </c>
+      <c r="BL4">
+        <v>1.226690872</v>
+      </c>
+      <c r="BM4">
+        <v>1.226690797</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1563,40 +1494,40 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L5">
         <v>1.27</v>
       </c>
       <c r="M5">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="N5">
         <v>1.1</v>
@@ -1605,148 +1536,148 @@
         <v>4.6</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>104</v>
+        <v>1000</v>
+      </c>
+      <c r="BF5">
+        <v>33137995</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>4893592</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>522050</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
-      <c r="BK5" t="s">
-        <v>117</v>
+      <c r="BK5">
+        <v>1.226667116</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1760,40 +1691,40 @@
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L6">
         <v>1.27</v>
       </c>
       <c r="M6">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="N6">
         <v>1.1</v>
@@ -1802,148 +1733,148 @@
         <v>4.6</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>105</v>
+        <v>1000</v>
+      </c>
+      <c r="BF6">
+        <v>33137994</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>522055</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>522044</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ6">
         <v>0</v>
       </c>
-      <c r="BK6" t="s">
-        <v>118</v>
+      <c r="BK6">
+        <v>1.226667206</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -1957,40 +1888,40 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L7">
         <v>1.27</v>
       </c>
       <c r="M7">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="N7">
         <v>1.1</v>
@@ -1999,148 +1930,148 @@
         <v>4.6</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>106</v>
+        <v>1000</v>
+      </c>
+      <c r="BF7">
+        <v>33137997</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>522042</v>
       </c>
       <c r="BH7">
-        <v>0</v>
+        <v>8215986</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ7">
         <v>0</v>
       </c>
-      <c r="BK7" t="s">
-        <v>119</v>
+      <c r="BK7">
+        <v>1.226667026</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2154,190 +2085,190 @@
         <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L8">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="M8">
         <v>1.95</v>
       </c>
       <c r="N8">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O8">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>107</v>
+        <v>1000</v>
+      </c>
+      <c r="BF8">
+        <v>33137996</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>5727549</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>215828</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ8">
         <v>0</v>
       </c>
-      <c r="BK8" t="s">
-        <v>120</v>
+      <c r="BK8">
+        <v>1.226666837</v>
       </c>
       <c r="BL8">
         <v>0</v>
@@ -2351,40 +2282,40 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L9">
         <v>1.27</v>
       </c>
       <c r="M9">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="N9">
         <v>1.1</v>
@@ -2393,148 +2324,148 @@
         <v>4.6</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>108</v>
+        <v>1000</v>
+      </c>
+      <c r="BF9">
+        <v>33137998</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>20089186</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>201275</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ9">
         <v>0</v>
       </c>
-      <c r="BK9" t="s">
-        <v>121</v>
+      <c r="BK9">
+        <v>1.226666936</v>
       </c>
       <c r="BL9">
         <v>0</v>
@@ -2548,190 +2479,190 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L10">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="M10">
-        <v>990</v>
+        <v>3.35</v>
       </c>
       <c r="N10">
-        <v>1.1</v>
+        <v>1.42</v>
       </c>
       <c r="O10">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>109</v>
+        <v>1000</v>
+      </c>
+      <c r="BF10">
+        <v>33123972</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>12104874</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>10778457</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ10">
         <v>0</v>
       </c>
-      <c r="BK10" t="s">
-        <v>122</v>
+      <c r="BK10">
+        <v>1.226413105</v>
       </c>
       <c r="BL10">
         <v>0</v>
@@ -2745,16 +2676,16 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>1.96</v>
@@ -2763,7 +2694,7 @@
         <v>2.18</v>
       </c>
       <c r="H11">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I11">
         <v>5.2</v>
@@ -2772,10 +2703,10 @@
         <v>3.05</v>
       </c>
       <c r="K11">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M11">
         <v>1.72</v>
@@ -2784,7 +2715,7 @@
         <v>2.38</v>
       </c>
       <c r="O11">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="P11">
         <v>2.06</v>
@@ -2811,7 +2742,7 @@
         <v>980</v>
       </c>
       <c r="X11">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Y11">
         <v>980</v>
@@ -2841,7 +2772,7 @@
         <v>980</v>
       </c>
       <c r="AH11">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AI11">
         <v>1000</v>
@@ -2877,7 +2808,7 @@
         <v>980</v>
       </c>
       <c r="AT11">
-        <v>4</v>
+        <v>19.5</v>
       </c>
       <c r="AU11">
         <v>980</v>
@@ -2889,7 +2820,7 @@
         <v>980</v>
       </c>
       <c r="AX11">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AY11">
         <v>1000</v>
@@ -2942,16 +2873,16 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>2.3</v>
@@ -2960,7 +2891,7 @@
         <v>2.64</v>
       </c>
       <c r="H12">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I12">
         <v>4.4</v>
@@ -2969,7 +2900,7 @@
         <v>2.86</v>
       </c>
       <c r="K12">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L12">
         <v>1.49</v>
@@ -2987,13 +2918,13 @@
         <v>2.1</v>
       </c>
       <c r="Q12">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R12">
         <v>1.66</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T12">
         <v>6.4</v>
@@ -3011,10 +2942,10 @@
         <v>18</v>
       </c>
       <c r="Y12">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Z12">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AA12">
         <v>980</v>
@@ -3029,16 +2960,16 @@
         <v>6</v>
       </c>
       <c r="AE12">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AF12">
         <v>12.5</v>
       </c>
       <c r="AG12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AI12">
         <v>980</v>
@@ -3062,55 +2993,55 @@
         <v>980</v>
       </c>
       <c r="AP12">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AQ12">
         <v>980</v>
       </c>
       <c r="AR12">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AS12">
         <v>980</v>
       </c>
       <c r="AT12">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AU12">
         <v>980</v>
       </c>
       <c r="AV12">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AW12">
         <v>980</v>
       </c>
       <c r="AX12">
+        <v>5.4</v>
+      </c>
+      <c r="AY12">
+        <v>980</v>
+      </c>
+      <c r="AZ12">
+        <v>4.9</v>
+      </c>
+      <c r="BA12">
+        <v>980</v>
+      </c>
+      <c r="BB12">
         <v>5.2</v>
       </c>
-      <c r="AY12">
-        <v>980</v>
-      </c>
-      <c r="AZ12">
-        <v>4.7</v>
-      </c>
-      <c r="BA12">
-        <v>980</v>
-      </c>
-      <c r="BB12">
-        <v>5</v>
-      </c>
       <c r="BC12">
         <v>980</v>
       </c>
       <c r="BD12">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>110</v>
+      <c r="BF12">
+        <v>33119897</v>
       </c>
       <c r="BG12">
         <v>897267</v>
@@ -3121,61 +3052,61 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>130</v>
+      <c r="BJ12">
+        <v>1.226353059</v>
+      </c>
+      <c r="BK12">
+        <v>1.226353069</v>
+      </c>
+      <c r="BL12">
+        <v>1.226353058</v>
+      </c>
+      <c r="BM12">
+        <v>1.226353068</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L13">
         <v>1.2</v>
       </c>
       <c r="M13">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="N13">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="O13">
         <v>6.6</v>
@@ -3307,27 +3238,224 @@
         <v>0</v>
       </c>
       <c r="BF13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="BG13">
-        <v>0</v>
+        <v>474678</v>
       </c>
       <c r="BH13">
-        <v>0</v>
+        <v>13638535</v>
       </c>
       <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>106</v>
       </c>
       <c r="BK13" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="BL13">
         <v>0</v>
       </c>
       <c r="BM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1.2</v>
+      </c>
+      <c r="M14">
+        <v>970</v>
+      </c>
+      <c r="N14">
+        <v>1.05</v>
+      </c>
+      <c r="O14">
+        <v>6.6</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>33123978</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>1.226412925</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
   <si>
     <t>League</t>
   </si>
@@ -329,15 +329,6 @@
   </si>
   <si>
     <t>CD Los Chankas</t>
-  </si>
-  <si>
-    <t>33141755</t>
-  </si>
-  <si>
-    <t>1.226722648</t>
-  </si>
-  <si>
-    <t>1.226722693</t>
   </si>
 </sst>
 </file>
@@ -933,7 +924,7 @@
         <v>950</v>
       </c>
       <c r="L2">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M2">
         <v>26</v>
@@ -942,7 +933,7 @@
         <v>1.06</v>
       </c>
       <c r="O2">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="P2">
         <v>1.01</v>
@@ -957,7 +948,7 @@
         <v>1000</v>
       </c>
       <c r="T2">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U2">
         <v>1000</v>
@@ -1112,25 +1103,25 @@
         <v>93</v>
       </c>
       <c r="F3">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="G3">
         <v>1000</v>
       </c>
       <c r="H3">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="I3">
         <v>990</v>
       </c>
       <c r="J3">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="K3">
         <v>950</v>
       </c>
       <c r="L3">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M3">
         <v>30</v>
@@ -1139,7 +1130,7 @@
         <v>1.05</v>
       </c>
       <c r="O3">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="P3">
         <v>1.12</v>
@@ -1327,7 +1318,7 @@
         <v>950</v>
       </c>
       <c r="L4">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M4">
         <v>960</v>
@@ -1336,7 +1327,7 @@
         <v>1.08</v>
       </c>
       <c r="O4">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="P4">
         <v>1.12</v>
@@ -1405,7 +1396,7 @@
         <v>1000</v>
       </c>
       <c r="AL4">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="AM4">
         <v>980</v>
@@ -1506,7 +1497,7 @@
         <v>95</v>
       </c>
       <c r="F5">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="G5">
         <v>980</v>
@@ -1527,7 +1518,7 @@
         <v>1.27</v>
       </c>
       <c r="M5">
-        <v>960</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1.1</v>
@@ -1548,97 +1539,97 @@
         <v>990</v>
       </c>
       <c r="T5">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="U5">
         <v>1000</v>
       </c>
       <c r="V5">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="W5">
         <v>1000</v>
       </c>
       <c r="X5">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="Y5">
         <v>1000</v>
       </c>
       <c r="Z5">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="AA5">
         <v>1000</v>
       </c>
       <c r="AB5">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="AC5">
         <v>1000</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AE5">
         <v>1000</v>
       </c>
       <c r="AF5">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="AG5">
         <v>1000</v>
       </c>
       <c r="AH5">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AI5">
         <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="AK5">
         <v>1000</v>
       </c>
       <c r="AL5">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="AM5">
         <v>1000</v>
       </c>
       <c r="AN5">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="AO5">
         <v>1000</v>
       </c>
       <c r="AP5">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AQ5">
         <v>1000</v>
       </c>
       <c r="AR5">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AU5">
         <v>1000</v>
       </c>
       <c r="AV5">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AW5">
         <v>1000</v>
       </c>
       <c r="AX5">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AY5">
         <v>1000</v>
@@ -1703,19 +1694,19 @@
         <v>96</v>
       </c>
       <c r="F6">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="G6">
         <v>980</v>
       </c>
       <c r="H6">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="I6">
         <v>1000</v>
       </c>
       <c r="J6">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="K6">
         <v>950</v>
@@ -1724,7 +1715,7 @@
         <v>1.27</v>
       </c>
       <c r="M6">
-        <v>960</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1.1</v>
@@ -1745,7 +1736,7 @@
         <v>990</v>
       </c>
       <c r="T6">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U6">
         <v>1000</v>
@@ -1900,19 +1891,19 @@
         <v>97</v>
       </c>
       <c r="F7">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="H7">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="I7">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="J7">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="K7">
         <v>950</v>
@@ -1942,7 +1933,7 @@
         <v>990</v>
       </c>
       <c r="T7">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="U7">
         <v>1000</v>
@@ -2097,34 +2088,34 @@
         <v>98</v>
       </c>
       <c r="F8">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="G8">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="I8">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J8">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="K8">
-        <v>12.5</v>
+        <v>330</v>
       </c>
       <c r="L8">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N8">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="P8">
         <v>1.13</v>
@@ -2139,7 +2130,7 @@
         <v>10.5</v>
       </c>
       <c r="T8">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U8">
         <v>1000</v>
@@ -2315,7 +2306,7 @@
         <v>1.27</v>
       </c>
       <c r="M9">
-        <v>960</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1.1</v>
@@ -2390,7 +2381,7 @@
         <v>1000</v>
       </c>
       <c r="AL9">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="AM9">
         <v>1000</v>
@@ -2402,7 +2393,7 @@
         <v>1000</v>
       </c>
       <c r="AP9">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9">
         <v>1000</v>
@@ -2420,13 +2411,13 @@
         <v>1000</v>
       </c>
       <c r="AV9">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AW9">
         <v>1000</v>
       </c>
       <c r="AX9">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AY9">
         <v>1000</v>
@@ -2509,16 +2500,16 @@
         <v>950</v>
       </c>
       <c r="L10">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="M10">
-        <v>3.35</v>
+        <v>36</v>
       </c>
       <c r="N10">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="O10">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="P10">
         <v>1.12</v>
@@ -2533,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="T10">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="U10">
         <v>980</v>
@@ -2691,7 +2682,7 @@
         <v>1.96</v>
       </c>
       <c r="G11">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H11">
         <v>4.3</v>
@@ -2706,7 +2697,7 @@
         <v>3.4</v>
       </c>
       <c r="L11">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M11">
         <v>1.72</v>
@@ -2715,19 +2706,19 @@
         <v>2.38</v>
       </c>
       <c r="O11">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="P11">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q11">
         <v>2.46</v>
       </c>
       <c r="R11">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S11">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
         <v>7.4</v>
@@ -2748,7 +2739,7 @@
         <v>980</v>
       </c>
       <c r="Z11">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AA11">
         <v>1000</v>
@@ -2757,7 +2748,7 @@
         <v>5.9</v>
       </c>
       <c r="AC11">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD11">
         <v>6.2</v>
@@ -2772,7 +2763,7 @@
         <v>980</v>
       </c>
       <c r="AH11">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AI11">
         <v>1000</v>
@@ -2781,64 +2772,64 @@
         <v>9</v>
       </c>
       <c r="AK11">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AL11">
         <v>9.4</v>
       </c>
       <c r="AM11">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AN11">
+        <v>4.2</v>
+      </c>
+      <c r="AO11">
+        <v>980</v>
+      </c>
+      <c r="AP11">
+        <v>4.3</v>
+      </c>
+      <c r="AQ11">
+        <v>1000</v>
+      </c>
+      <c r="AR11">
+        <v>20</v>
+      </c>
+      <c r="AS11">
+        <v>29</v>
+      </c>
+      <c r="AT11">
         <v>4.1</v>
       </c>
-      <c r="AO11">
-        <v>980</v>
-      </c>
-      <c r="AP11">
-        <v>4.2</v>
-      </c>
-      <c r="AQ11">
-        <v>1000</v>
-      </c>
-      <c r="AR11">
-        <v>4.1</v>
-      </c>
-      <c r="AS11">
-        <v>980</v>
-      </c>
-      <c r="AT11">
-        <v>19.5</v>
-      </c>
       <c r="AU11">
         <v>980</v>
       </c>
       <c r="AV11">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AW11">
         <v>980</v>
       </c>
       <c r="AX11">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AY11">
         <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="BA11">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="BB11">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BC11">
         <v>1000</v>
       </c>
       <c r="BD11">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -2891,10 +2882,10 @@
         <v>2.64</v>
       </c>
       <c r="H12">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I12">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J12">
         <v>2.86</v>
@@ -2903,16 +2894,16 @@
         <v>3.3</v>
       </c>
       <c r="L12">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M12">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="N12">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="O12">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="P12">
         <v>2.1</v>
@@ -2921,22 +2912,22 @@
         <v>2.5</v>
       </c>
       <c r="R12">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S12">
         <v>1.91</v>
       </c>
       <c r="T12">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="U12">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="V12">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W12">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="X12">
         <v>18</v>
@@ -2945,22 +2936,22 @@
         <v>980</v>
       </c>
       <c r="Z12">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AA12">
         <v>980</v>
       </c>
       <c r="AB12">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC12">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AD12">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="AE12">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF12">
         <v>12.5</v>
@@ -2969,7 +2960,7 @@
         <v>21</v>
       </c>
       <c r="AH12">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AI12">
         <v>980</v>
@@ -2993,49 +2984,49 @@
         <v>980</v>
       </c>
       <c r="AP12">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AQ12">
         <v>980</v>
       </c>
       <c r="AR12">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AS12">
         <v>980</v>
       </c>
       <c r="AT12">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AU12">
         <v>980</v>
       </c>
       <c r="AV12">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AW12">
         <v>980</v>
       </c>
       <c r="AX12">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AY12">
         <v>980</v>
       </c>
       <c r="AZ12">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BA12">
         <v>980</v>
       </c>
       <c r="BB12">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="BC12">
         <v>980</v>
       </c>
       <c r="BD12">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3085,31 +3076,31 @@
         <v>1.04</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="H13">
         <v>1.04</v>
       </c>
       <c r="I13">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J13">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="K13">
         <v>950</v>
       </c>
       <c r="L13">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M13">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="N13">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="O13">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3237,8 +3228,8 @@
       <c r="BE13">
         <v>0</v>
       </c>
-      <c r="BF13" t="s">
-        <v>105</v>
+      <c r="BF13">
+        <v>33141755</v>
       </c>
       <c r="BG13">
         <v>474678</v>
@@ -3249,11 +3240,11 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>106</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>107</v>
+      <c r="BJ13">
+        <v>1.226722648</v>
+      </c>
+      <c r="BK13">
+        <v>1.226722693</v>
       </c>
       <c r="BL13">
         <v>0</v>
@@ -3297,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M14">
         <v>970</v>
@@ -3306,7 +3297,7 @@
         <v>1.05</v>
       </c>
       <c r="O14">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="P14">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
@@ -1103,19 +1103,19 @@
         <v>93</v>
       </c>
       <c r="F3">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="G3">
         <v>1000</v>
       </c>
       <c r="H3">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="I3">
         <v>990</v>
       </c>
       <c r="J3">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="K3">
         <v>950</v>
@@ -1497,19 +1497,19 @@
         <v>95</v>
       </c>
       <c r="F5">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="G5">
         <v>980</v>
       </c>
       <c r="H5">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="I5">
         <v>990</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="K5">
         <v>950</v>
@@ -1530,13 +1530,13 @@
         <v>1.12</v>
       </c>
       <c r="Q5">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="R5">
         <v>1.12</v>
       </c>
       <c r="S5">
-        <v>990</v>
+        <v>9.4</v>
       </c>
       <c r="T5">
         <v>1.49</v>
@@ -1694,19 +1694,19 @@
         <v>96</v>
       </c>
       <c r="F6">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="G6">
         <v>980</v>
       </c>
       <c r="H6">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="I6">
         <v>1000</v>
       </c>
       <c r="J6">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="K6">
         <v>950</v>
@@ -1727,13 +1727,13 @@
         <v>1.12</v>
       </c>
       <c r="Q6">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="R6">
         <v>1.12</v>
       </c>
       <c r="S6">
-        <v>990</v>
+        <v>9.4</v>
       </c>
       <c r="T6">
         <v>1.48</v>
@@ -1891,19 +1891,19 @@
         <v>97</v>
       </c>
       <c r="F7">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="G7">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="H7">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="I7">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="J7">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="K7">
         <v>950</v>
@@ -1924,13 +1924,13 @@
         <v>1.12</v>
       </c>
       <c r="Q7">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="R7">
         <v>1.12</v>
       </c>
       <c r="S7">
-        <v>990</v>
+        <v>9.4</v>
       </c>
       <c r="T7">
         <v>1.49</v>
@@ -2094,13 +2094,13 @@
         <v>2.52</v>
       </c>
       <c r="H8">
-        <v>1.04</v>
+        <v>2.9</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J8">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="K8">
         <v>330</v>
@@ -2127,10 +2127,10 @@
         <v>1.13</v>
       </c>
       <c r="S8">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="T8">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="U8">
         <v>1000</v>
@@ -2285,22 +2285,22 @@
         <v>99</v>
       </c>
       <c r="F9">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="G9">
         <v>1000</v>
       </c>
       <c r="H9">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="I9">
         <v>1000</v>
       </c>
       <c r="J9">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="K9">
-        <v>950</v>
+        <v>330</v>
       </c>
       <c r="L9">
         <v>1.27</v>
@@ -2318,13 +2318,13 @@
         <v>1.12</v>
       </c>
       <c r="Q9">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="R9">
         <v>1.12</v>
       </c>
       <c r="S9">
-        <v>990</v>
+        <v>9.4</v>
       </c>
       <c r="T9">
         <v>1.49</v>
@@ -2482,19 +2482,19 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="H10">
-        <v>1.1</v>
+        <v>2.52</v>
       </c>
       <c r="I10">
         <v>980</v>
       </c>
       <c r="J10">
-        <v>1.21</v>
+        <v>2.52</v>
       </c>
       <c r="K10">
         <v>950</v>
@@ -2679,157 +2679,157 @@
         <v>101</v>
       </c>
       <c r="F11">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="G11">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="H11">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I11">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="J11">
         <v>3.05</v>
       </c>
       <c r="K11">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L11">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M11">
         <v>1.72</v>
       </c>
       <c r="N11">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O11">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="P11">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q11">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="R11">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T11">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="U11">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="W11">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="X11">
-        <v>4.2</v>
+        <v>20</v>
       </c>
       <c r="Y11">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z11">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="AA11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB11">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AC11">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11">
         <v>6.2</v>
       </c>
       <c r="AE11">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG11">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AH11">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="AI11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ11">
         <v>9</v>
       </c>
       <c r="AK11">
+        <v>15</v>
+      </c>
+      <c r="AL11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM11">
         <v>13</v>
       </c>
-      <c r="AL11">
-        <v>9.4</v>
-      </c>
-      <c r="AM11">
-        <v>14</v>
-      </c>
       <c r="AN11">
-        <v>4.2</v>
+        <v>17.5</v>
       </c>
       <c r="AO11">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AP11">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="AQ11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR11">
         <v>20</v>
       </c>
       <c r="AS11">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AT11">
-        <v>4.1</v>
+        <v>21</v>
       </c>
       <c r="AU11">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AV11">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="AW11">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AX11">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="AY11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ11">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="BA11">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BB11">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="BC11">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD11">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -2876,28 +2876,28 @@
         <v>102</v>
       </c>
       <c r="F12">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G12">
         <v>2.64</v>
       </c>
       <c r="H12">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I12">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J12">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
         <v>1.5</v>
       </c>
       <c r="M12">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="N12">
         <v>2.56</v>
@@ -2909,10 +2909,10 @@
         <v>2.1</v>
       </c>
       <c r="Q12">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R12">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S12">
         <v>1.91</v>
@@ -2936,7 +2936,7 @@
         <v>980</v>
       </c>
       <c r="Z12">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA12">
         <v>980</v>
@@ -2948,7 +2948,7 @@
         <v>980</v>
       </c>
       <c r="AD12">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AE12">
         <v>7.8</v>
@@ -2960,7 +2960,7 @@
         <v>21</v>
       </c>
       <c r="AH12">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI12">
         <v>980</v>
@@ -2999,7 +2999,7 @@
         <v>5.3</v>
       </c>
       <c r="AU12">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AV12">
         <v>5.7</v>
@@ -3008,7 +3008,7 @@
         <v>980</v>
       </c>
       <c r="AX12">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AY12">
         <v>980</v>
@@ -3020,13 +3020,13 @@
         <v>980</v>
       </c>
       <c r="BB12">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BC12">
         <v>980</v>
       </c>
       <c r="BD12">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3076,16 +3076,16 @@
         <v>1.04</v>
       </c>
       <c r="G13">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="H13">
         <v>1.04</v>
       </c>
       <c r="I13">
-        <v>870</v>
+        <v>990</v>
       </c>
       <c r="J13">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K13">
         <v>950</v>
@@ -3103,130 +3103,130 @@
         <v>4.6</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF13">
         <v>33141755</v>
@@ -3270,28 +3270,28 @@
         <v>104</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L14">
         <v>1.27</v>
       </c>
       <c r="M14">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="N14">
         <v>1.05</v>
@@ -3300,142 +3300,142 @@
         <v>4.6</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF14">
         <v>33123978</v>
       </c>
       <c r="BG14">
-        <v>0</v>
+        <v>219457</v>
       </c>
       <c r="BH14">
-        <v>0</v>
+        <v>65437610</v>
       </c>
       <c r="BI14">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ14">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="298">
   <si>
     <t>League</t>
   </si>
@@ -211,12 +211,18 @@
     <t>IDMercado_Correct_Score</t>
   </si>
   <si>
+    <t>Italian Serie D</t>
+  </si>
+  <si>
     <t>Croatian 2 HNL</t>
   </si>
   <si>
     <t>Romanian Liga II</t>
   </si>
   <si>
+    <t>Bolivian Liga de Futbol Profesional</t>
+  </si>
+  <si>
     <t>Italian Serie C</t>
   </si>
   <si>
@@ -226,18 +232,33 @@
     <t>Argentinian Copa de la Liga Profesional</t>
   </si>
   <si>
+    <t>Venezuelan Primera Division</t>
+  </si>
+  <si>
     <t>Ecuadorian Serie A</t>
   </si>
   <si>
     <t>2024-03-28</t>
   </si>
   <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
     <t>11:30:00</t>
   </si>
   <si>
     <t>14:00:00</t>
   </si>
   <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
     <t>16:45:00</t>
   </si>
   <si>
@@ -253,6 +274,69 @@
     <t>22:00:00</t>
   </si>
   <si>
+    <t>ASD Tau Calcio Altopascio</t>
+  </si>
+  <si>
+    <t>United Riccione</t>
+  </si>
+  <si>
+    <t>Tivoli Calcio</t>
+  </si>
+  <si>
+    <t>SC Cenaia 1969</t>
+  </si>
+  <si>
+    <t>Alma Juventus Fano</t>
+  </si>
+  <si>
+    <t>Vastogirardi</t>
+  </si>
+  <si>
+    <t>ASD Alcione</t>
+  </si>
+  <si>
+    <t>Follonica Gavorrano</t>
+  </si>
+  <si>
+    <t>Reggio Calabria</t>
+  </si>
+  <si>
+    <t>ASD Portici 1906</t>
+  </si>
+  <si>
+    <t>AC Bra</t>
+  </si>
+  <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>ASD San Donato Tavarnelle</t>
+  </si>
+  <si>
+    <t>Sambenedettese</t>
+  </si>
+  <si>
+    <t>Matera</t>
+  </si>
+  <si>
+    <t>ASD Citta di Gallipoli</t>
+  </si>
+  <si>
+    <t>ASD San Luca</t>
+  </si>
+  <si>
+    <t>San Nicolo Notaresco</t>
+  </si>
+  <si>
+    <t>Citta di Varese</t>
+  </si>
+  <si>
+    <t>USD Citta di Fasano</t>
+  </si>
+  <si>
+    <t>Ligorna</t>
+  </si>
+  <si>
     <t>BSK Bijelo Brdo</t>
   </si>
   <si>
@@ -262,36 +346,117 @@
     <t>FC Hunedoara</t>
   </si>
   <si>
+    <t>Grosseto</t>
+  </si>
+  <si>
+    <t>CD Gualberto Villarroel</t>
+  </si>
+  <si>
+    <t>FC Pro Palazzolo</t>
+  </si>
+  <si>
+    <t>Carrarese</t>
+  </si>
+  <si>
+    <t>Padova</t>
+  </si>
+  <si>
     <t>Gubbio</t>
   </si>
   <si>
     <t>Fermana</t>
   </si>
   <si>
-    <t>Padova</t>
-  </si>
-  <si>
-    <t>Carrarese</t>
-  </si>
-  <si>
     <t>Pesaro</t>
   </si>
   <si>
+    <t>Catania</t>
+  </si>
+  <si>
     <t>Deportivo Garcilaso</t>
   </si>
   <si>
     <t>Rosario Central</t>
   </si>
   <si>
+    <t>Deportivo Tachira</t>
+  </si>
+  <si>
+    <t>LDU</t>
+  </si>
+  <si>
+    <t>Blooming Santa Cruz</t>
+  </si>
+  <si>
     <t>Instituto</t>
   </si>
   <si>
-    <t>LDU</t>
-  </si>
-  <si>
     <t>Alianza Lima</t>
   </si>
   <si>
+    <t>Sporting Trestina</t>
+  </si>
+  <si>
+    <t>Termoli</t>
+  </si>
+  <si>
+    <t>Roma City FC</t>
+  </si>
+  <si>
+    <t>US Livorno 1915 SSD</t>
+  </si>
+  <si>
+    <t>ASD Atletico Ascoli</t>
+  </si>
+  <si>
+    <t>FC Matese</t>
+  </si>
+  <si>
+    <t>ASD Vogherese 1919</t>
+  </si>
+  <si>
+    <t>Figline</t>
+  </si>
+  <si>
+    <t>Akragas</t>
+  </si>
+  <si>
+    <t>Citta di Sant Agata</t>
+  </si>
+  <si>
+    <t>USD Lavagnese 1919</t>
+  </si>
+  <si>
+    <t>Fidelis Andria</t>
+  </si>
+  <si>
+    <t>US Pianese</t>
+  </si>
+  <si>
+    <t>SSD Chieti FC 1922</t>
+  </si>
+  <si>
+    <t>Rotonda Calcio</t>
+  </si>
+  <si>
+    <t>USD Palmese 1914</t>
+  </si>
+  <si>
+    <t>Trapani</t>
+  </si>
+  <si>
+    <t>ASD Real Monterotondo</t>
+  </si>
+  <si>
+    <t>ASD Sanremese</t>
+  </si>
+  <si>
+    <t>Team Altamura</t>
+  </si>
+  <si>
+    <t>Calcio Chieri 1955</t>
+  </si>
+  <si>
     <t>NK Sesvete</t>
   </si>
   <si>
@@ -301,34 +466,448 @@
     <t>Gloria Buzau</t>
   </si>
   <si>
+    <t>ASD Mobilieri Ponsacco</t>
+  </si>
+  <si>
+    <t>Always Ready</t>
+  </si>
+  <si>
+    <t>Real Calepina FC</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pergolettese</t>
+  </si>
+  <si>
     <t>Sassari Torres</t>
   </si>
   <si>
     <t>Rimini</t>
   </si>
   <si>
-    <t>Pergolettese</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
     <t>Lucchese</t>
   </si>
   <si>
+    <t>FC Giugliano</t>
+  </si>
+  <si>
     <t>Comerciantes Unidos</t>
   </si>
   <si>
     <t>Barracas Central</t>
   </si>
   <si>
+    <t>Metropolitanos</t>
+  </si>
+  <si>
+    <t>Imbabura Sporting Club</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
-    <t>Imbabura Sporting Club</t>
-  </si>
-  <si>
     <t>CD Los Chankas</t>
+  </si>
+  <si>
+    <t>33143738</t>
+  </si>
+  <si>
+    <t>33143840</t>
+  </si>
+  <si>
+    <t>33143821</t>
+  </si>
+  <si>
+    <t>33143818</t>
+  </si>
+  <si>
+    <t>33143752</t>
+  </si>
+  <si>
+    <t>33143849</t>
+  </si>
+  <si>
+    <t>33143734</t>
+  </si>
+  <si>
+    <t>33143755</t>
+  </si>
+  <si>
+    <t>33143797</t>
+  </si>
+  <si>
+    <t>33143794</t>
+  </si>
+  <si>
+    <t>33143729</t>
+  </si>
+  <si>
+    <t>33143742</t>
+  </si>
+  <si>
+    <t>33143807</t>
+  </si>
+  <si>
+    <t>33143799</t>
+  </si>
+  <si>
+    <t>33143792</t>
+  </si>
+  <si>
+    <t>33143861</t>
+  </si>
+  <si>
+    <t>33143852</t>
+  </si>
+  <si>
+    <t>33143809</t>
+  </si>
+  <si>
+    <t>33143847</t>
+  </si>
+  <si>
+    <t>33143750</t>
+  </si>
+  <si>
+    <t>33143780</t>
+  </si>
+  <si>
+    <t>33143775</t>
+  </si>
+  <si>
+    <t>33144237</t>
+  </si>
+  <si>
+    <t>33143868</t>
+  </si>
+  <si>
+    <t>33138137</t>
+  </si>
+  <si>
+    <t>33143433</t>
+  </si>
+  <si>
+    <t>33144176</t>
+  </si>
+  <si>
+    <t>1.226760220</t>
+  </si>
+  <si>
+    <t>1.226758780</t>
+  </si>
+  <si>
+    <t>1.226758870</t>
+  </si>
+  <si>
+    <t>1.226758960</t>
+  </si>
+  <si>
+    <t>1.226759950</t>
+  </si>
+  <si>
+    <t>1.226758600</t>
+  </si>
+  <si>
+    <t>1.226760310</t>
+  </si>
+  <si>
+    <t>1.226759860</t>
+  </si>
+  <si>
+    <t>1.226759320</t>
+  </si>
+  <si>
+    <t>1.226759410</t>
+  </si>
+  <si>
+    <t>1.226760400</t>
+  </si>
+  <si>
+    <t>1.226760130</t>
+  </si>
+  <si>
+    <t>1.226759140</t>
+  </si>
+  <si>
+    <t>1.226759230</t>
+  </si>
+  <si>
+    <t>1.226759590</t>
+  </si>
+  <si>
+    <t>1.226760623</t>
+  </si>
+  <si>
+    <t>1.226760734</t>
+  </si>
+  <si>
+    <t>1.226759050</t>
+  </si>
+  <si>
+    <t>1.226758690</t>
+  </si>
+  <si>
+    <t>1.226760040</t>
+  </si>
+  <si>
+    <t>1.226759680</t>
+  </si>
+  <si>
+    <t>1.226759770</t>
+  </si>
+  <si>
+    <t>1.226765786</t>
+  </si>
+  <si>
+    <t>1.226760510</t>
+  </si>
+  <si>
+    <t>1.226751219</t>
+  </si>
+  <si>
+    <t>1.226765876</t>
+  </si>
+  <si>
+    <t>1.226760265</t>
+  </si>
+  <si>
+    <t>1.226758825</t>
+  </si>
+  <si>
+    <t>1.226758915</t>
+  </si>
+  <si>
+    <t>1.226759005</t>
+  </si>
+  <si>
+    <t>1.226759995</t>
+  </si>
+  <si>
+    <t>1.226758645</t>
+  </si>
+  <si>
+    <t>1.226760355</t>
+  </si>
+  <si>
+    <t>1.226759905</t>
+  </si>
+  <si>
+    <t>1.226759365</t>
+  </si>
+  <si>
+    <t>1.226759455</t>
+  </si>
+  <si>
+    <t>1.226760445</t>
+  </si>
+  <si>
+    <t>1.226760175</t>
+  </si>
+  <si>
+    <t>1.226759185</t>
+  </si>
+  <si>
+    <t>1.226759275</t>
+  </si>
+  <si>
+    <t>1.226759635</t>
+  </si>
+  <si>
+    <t>1.226760670</t>
+  </si>
+  <si>
+    <t>1.226760781</t>
+  </si>
+  <si>
+    <t>1.226759095</t>
+  </si>
+  <si>
+    <t>1.226758735</t>
+  </si>
+  <si>
+    <t>1.226760085</t>
+  </si>
+  <si>
+    <t>1.226759725</t>
+  </si>
+  <si>
+    <t>1.226759815</t>
+  </si>
+  <si>
+    <t>1.226765831</t>
+  </si>
+  <si>
+    <t>1.226760555</t>
+  </si>
+  <si>
+    <t>1.226667981</t>
+  </si>
+  <si>
+    <t>1.226751264</t>
+  </si>
+  <si>
+    <t>1.226765921</t>
+  </si>
+  <si>
+    <t>1.226760304</t>
+  </si>
+  <si>
+    <t>1.226758864</t>
+  </si>
+  <si>
+    <t>1.226758954</t>
+  </si>
+  <si>
+    <t>1.226759044</t>
+  </si>
+  <si>
+    <t>1.226760034</t>
+  </si>
+  <si>
+    <t>1.226758684</t>
+  </si>
+  <si>
+    <t>1.226760394</t>
+  </si>
+  <si>
+    <t>1.226759944</t>
+  </si>
+  <si>
+    <t>1.226759404</t>
+  </si>
+  <si>
+    <t>1.226759494</t>
+  </si>
+  <si>
+    <t>1.226760484</t>
+  </si>
+  <si>
+    <t>1.226760214</t>
+  </si>
+  <si>
+    <t>1.226759224</t>
+  </si>
+  <si>
+    <t>1.226759314</t>
+  </si>
+  <si>
+    <t>1.226759674</t>
+  </si>
+  <si>
+    <t>1.226760709</t>
+  </si>
+  <si>
+    <t>1.226760820</t>
+  </si>
+  <si>
+    <t>1.226759134</t>
+  </si>
+  <si>
+    <t>1.226758774</t>
+  </si>
+  <si>
+    <t>1.226760124</t>
+  </si>
+  <si>
+    <t>1.226759764</t>
+  </si>
+  <si>
+    <t>1.226759854</t>
+  </si>
+  <si>
+    <t>1.226765870</t>
+  </si>
+  <si>
+    <t>1.226760594</t>
+  </si>
+  <si>
+    <t>1.226751303</t>
+  </si>
+  <si>
+    <t>1.226765960</t>
+  </si>
+  <si>
+    <t>1.226760229</t>
+  </si>
+  <si>
+    <t>1.226758789</t>
+  </si>
+  <si>
+    <t>1.226758879</t>
+  </si>
+  <si>
+    <t>1.226758969</t>
+  </si>
+  <si>
+    <t>1.226759959</t>
+  </si>
+  <si>
+    <t>1.226758609</t>
+  </si>
+  <si>
+    <t>1.226760319</t>
+  </si>
+  <si>
+    <t>1.226759869</t>
+  </si>
+  <si>
+    <t>1.226759329</t>
+  </si>
+  <si>
+    <t>1.226759419</t>
+  </si>
+  <si>
+    <t>1.226760409</t>
+  </si>
+  <si>
+    <t>1.226760139</t>
+  </si>
+  <si>
+    <t>1.226759149</t>
+  </si>
+  <si>
+    <t>1.226759239</t>
+  </si>
+  <si>
+    <t>1.226759599</t>
+  </si>
+  <si>
+    <t>1.226760633</t>
+  </si>
+  <si>
+    <t>1.226760744</t>
+  </si>
+  <si>
+    <t>1.226759059</t>
+  </si>
+  <si>
+    <t>1.226758699</t>
+  </si>
+  <si>
+    <t>1.226760049</t>
+  </si>
+  <si>
+    <t>1.226759689</t>
+  </si>
+  <si>
+    <t>1.226759779</t>
+  </si>
+  <si>
+    <t>1.226765795</t>
+  </si>
+  <si>
+    <t>1.226760519</t>
+  </si>
+  <si>
+    <t>1.226751228</t>
+  </si>
+  <si>
+    <t>1.226765885</t>
   </si>
 </sst>
 </file>
@@ -686,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM14"/>
+  <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,46 +1473,46 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="F2">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="G2">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="H2">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="I2">
-        <v>990</v>
+        <v>870</v>
       </c>
       <c r="J2">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="K2">
         <v>950</v>
       </c>
       <c r="L2">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="M2">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="N2">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="O2">
-        <v>4.6</v>
+        <v>55</v>
       </c>
       <c r="P2">
         <v>1.01</v>
@@ -1061,29 +1640,29 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2">
-        <v>33108555</v>
+      <c r="BF2" t="s">
+        <v>166</v>
       </c>
       <c r="BG2">
-        <v>4940518</v>
+        <v>62221624</v>
       </c>
       <c r="BH2">
-        <v>10748838</v>
+        <v>12104781</v>
       </c>
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2">
-        <v>1.226159127</v>
-      </c>
-      <c r="BK2">
-        <v>1.226159172</v>
-      </c>
-      <c r="BL2">
-        <v>1.226159211</v>
-      </c>
-      <c r="BM2">
-        <v>1.226159136</v>
+      <c r="BJ2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1091,46 +1670,46 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F3">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="H3">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="I3">
-        <v>990</v>
+        <v>870</v>
       </c>
       <c r="J3">
-        <v>1.59</v>
+        <v>1.29</v>
       </c>
       <c r="K3">
         <v>950</v>
       </c>
       <c r="L3">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="M3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="O3">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="P3">
         <v>1.12</v>
@@ -1258,76 +1837,76 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3">
-        <v>33140790</v>
+      <c r="BF3" t="s">
+        <v>167</v>
       </c>
       <c r="BG3">
-        <v>7154508</v>
+        <v>48673116</v>
       </c>
       <c r="BH3">
-        <v>8212487</v>
+        <v>7540671</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3">
-        <v>1.226706493</v>
-      </c>
-      <c r="BK3">
-        <v>1.226706538</v>
-      </c>
-      <c r="BL3">
-        <v>1.226706577</v>
-      </c>
-      <c r="BM3">
-        <v>1.226706502</v>
+      <c r="BJ3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F4">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="G4">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="H4">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="I4">
-        <v>990</v>
+        <v>870</v>
       </c>
       <c r="J4">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="K4">
         <v>950</v>
       </c>
       <c r="L4">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="M4">
-        <v>960</v>
+        <v>29</v>
       </c>
       <c r="N4">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="O4">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="P4">
         <v>1.12</v>
@@ -1342,7 +1921,7 @@
         <v>1000</v>
       </c>
       <c r="T4">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="U4">
         <v>980</v>
@@ -1455,88 +2034,88 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4">
-        <v>33139440</v>
+      <c r="BF4" t="s">
+        <v>168</v>
       </c>
       <c r="BG4">
-        <v>7223889</v>
+        <v>49951757</v>
       </c>
       <c r="BH4">
-        <v>2487031</v>
+        <v>49951760</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4">
-        <v>1.226690788</v>
-      </c>
-      <c r="BK4">
-        <v>1.226690833</v>
-      </c>
-      <c r="BL4">
-        <v>1.226690872</v>
-      </c>
-      <c r="BM4">
-        <v>1.226690797</v>
+      <c r="BJ4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>248</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="F5">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="G5">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="H5">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="I5">
-        <v>990</v>
+        <v>870</v>
       </c>
       <c r="J5">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="K5">
         <v>950</v>
       </c>
       <c r="L5">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N5">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="O5">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="P5">
         <v>1.12</v>
       </c>
       <c r="Q5">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="R5">
         <v>1.12</v>
       </c>
       <c r="S5">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="T5">
         <v>1.49</v>
@@ -1545,91 +2124,91 @@
         <v>1000</v>
       </c>
       <c r="V5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W5">
         <v>1000</v>
       </c>
       <c r="X5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y5">
         <v>1000</v>
       </c>
       <c r="Z5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA5">
         <v>1000</v>
       </c>
       <c r="AB5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AC5">
         <v>1000</v>
       </c>
       <c r="AD5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AE5">
         <v>1000</v>
       </c>
       <c r="AF5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG5">
         <v>1000</v>
       </c>
       <c r="AH5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AI5">
         <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AK5">
         <v>1000</v>
       </c>
       <c r="AL5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AM5">
         <v>1000</v>
       </c>
       <c r="AN5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO5">
         <v>1000</v>
       </c>
       <c r="AP5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ5">
         <v>1000</v>
       </c>
       <c r="AR5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU5">
         <v>1000</v>
       </c>
       <c r="AV5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AW5">
         <v>1000</v>
       </c>
       <c r="AX5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY5">
         <v>1000</v>
@@ -1647,186 +2226,186 @@
         <v>1000</v>
       </c>
       <c r="BD5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5">
-        <v>33137995</v>
+      <c r="BF5" t="s">
+        <v>169</v>
       </c>
       <c r="BG5">
-        <v>4893592</v>
+        <v>62963899</v>
       </c>
       <c r="BH5">
-        <v>522050</v>
+        <v>53573444</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>1.226667116</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
+      <c r="BJ5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="F6">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="G6">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="H6">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J6">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="K6">
         <v>950</v>
       </c>
       <c r="L6">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="N6">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="O6">
-        <v>4.6</v>
+        <v>55</v>
       </c>
       <c r="P6">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="Q6">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="R6">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="S6">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="T6">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="U6">
         <v>1000</v>
       </c>
       <c r="V6">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="W6">
         <v>1000</v>
       </c>
       <c r="X6">
-        <v>2.96</v>
+        <v>1.03</v>
       </c>
       <c r="Y6">
         <v>1000</v>
       </c>
       <c r="Z6">
-        <v>5</v>
+        <v>1.03</v>
       </c>
       <c r="AA6">
         <v>1000</v>
       </c>
       <c r="AB6">
-        <v>2.46</v>
+        <v>1.03</v>
       </c>
       <c r="AC6">
         <v>1000</v>
       </c>
       <c r="AD6">
-        <v>3.95</v>
+        <v>1.03</v>
       </c>
       <c r="AE6">
         <v>1000</v>
       </c>
       <c r="AF6">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="AG6">
         <v>1000</v>
       </c>
       <c r="AH6">
-        <v>4.8</v>
+        <v>1.03</v>
       </c>
       <c r="AI6">
         <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>2.76</v>
+        <v>1.03</v>
       </c>
       <c r="AK6">
         <v>1000</v>
       </c>
       <c r="AL6">
-        <v>4.6</v>
+        <v>1.03</v>
       </c>
       <c r="AM6">
         <v>1000</v>
       </c>
       <c r="AN6">
-        <v>4.3</v>
+        <v>1.03</v>
       </c>
       <c r="AO6">
         <v>1000</v>
       </c>
       <c r="AP6">
-        <v>9.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AQ6">
         <v>1000</v>
       </c>
       <c r="AR6">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="AS6">
         <v>1000</v>
       </c>
       <c r="AT6">
-        <v>7.6</v>
+        <v>1.03</v>
       </c>
       <c r="AU6">
         <v>1000</v>
       </c>
       <c r="AV6">
-        <v>7.8</v>
+        <v>1.03</v>
       </c>
       <c r="AW6">
         <v>1000</v>
       </c>
       <c r="AX6">
-        <v>7.8</v>
+        <v>1.03</v>
       </c>
       <c r="AY6">
         <v>1000</v>
@@ -1844,93 +2423,93 @@
         <v>1000</v>
       </c>
       <c r="BD6">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6">
-        <v>33137994</v>
+      <c r="BF6" t="s">
+        <v>170</v>
       </c>
       <c r="BG6">
-        <v>522055</v>
+        <v>17599367</v>
       </c>
       <c r="BH6">
-        <v>522044</v>
+        <v>60355680</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>1.226667206</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+      <c r="BJ6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F7">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="G7">
-        <v>7.8</v>
+        <v>480</v>
       </c>
       <c r="H7">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="I7">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="J7">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="K7">
         <v>950</v>
       </c>
       <c r="L7">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="M7">
-        <v>960</v>
+        <v>29</v>
       </c>
       <c r="N7">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="O7">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="P7">
         <v>1.12</v>
       </c>
       <c r="Q7">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="R7">
         <v>1.12</v>
       </c>
       <c r="S7">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="T7">
         <v>1.49</v>
@@ -1939,91 +2518,91 @@
         <v>1000</v>
       </c>
       <c r="V7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W7">
         <v>1000</v>
       </c>
       <c r="X7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y7">
         <v>1000</v>
       </c>
       <c r="Z7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA7">
         <v>1000</v>
       </c>
       <c r="AB7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AC7">
         <v>1000</v>
       </c>
       <c r="AD7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AE7">
         <v>1000</v>
       </c>
       <c r="AF7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG7">
         <v>1000</v>
       </c>
       <c r="AH7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AI7">
         <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AK7">
         <v>1000</v>
       </c>
       <c r="AL7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AM7">
         <v>1000</v>
       </c>
       <c r="AN7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO7">
         <v>1000</v>
       </c>
       <c r="AP7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ7">
         <v>1000</v>
       </c>
       <c r="AR7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AS7">
         <v>1000</v>
       </c>
       <c r="AT7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU7">
         <v>1000</v>
       </c>
       <c r="AV7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AW7">
         <v>1000</v>
       </c>
       <c r="AX7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY7">
         <v>1000</v>
@@ -2041,186 +2620,186 @@
         <v>1000</v>
       </c>
       <c r="BD7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7">
-        <v>33137997</v>
+      <c r="BF7" t="s">
+        <v>171</v>
       </c>
       <c r="BG7">
-        <v>522042</v>
+        <v>10857372</v>
       </c>
       <c r="BH7">
-        <v>8215986</v>
+        <v>36656195</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>1.226667026</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
+      <c r="BJ7" t="s">
+        <v>198</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="F8">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="G8">
-        <v>2.52</v>
+        <v>480</v>
       </c>
       <c r="H8">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="I8">
         <v>870</v>
       </c>
       <c r="J8">
-        <v>2.7</v>
+        <v>1.21</v>
       </c>
       <c r="K8">
-        <v>330</v>
+        <v>950</v>
       </c>
       <c r="L8">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="M8">
-        <v>1.9</v>
+        <v>110</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="O8">
-        <v>4.6</v>
+        <v>55</v>
       </c>
       <c r="P8">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="Q8">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="R8">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="S8">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="T8">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U8">
         <v>1000</v>
       </c>
       <c r="V8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W8">
         <v>1000</v>
       </c>
       <c r="X8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y8">
         <v>1000</v>
       </c>
       <c r="Z8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA8">
         <v>1000</v>
       </c>
       <c r="AB8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AC8">
         <v>1000</v>
       </c>
       <c r="AD8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AE8">
         <v>1000</v>
       </c>
       <c r="AF8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG8">
         <v>1000</v>
       </c>
       <c r="AH8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AI8">
         <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AK8">
         <v>1000</v>
       </c>
       <c r="AL8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AM8">
         <v>1000</v>
       </c>
       <c r="AN8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO8">
         <v>1000</v>
       </c>
       <c r="AP8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ8">
         <v>1000</v>
       </c>
       <c r="AR8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AS8">
         <v>1000</v>
       </c>
       <c r="AT8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU8">
         <v>1000</v>
       </c>
       <c r="AV8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AW8">
         <v>1000</v>
       </c>
       <c r="AX8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY8">
         <v>1000</v>
@@ -2238,186 +2817,186 @@
         <v>1000</v>
       </c>
       <c r="BD8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8">
-        <v>33137996</v>
+      <c r="BF8" t="s">
+        <v>172</v>
       </c>
       <c r="BG8">
-        <v>5727549</v>
+        <v>41267368</v>
       </c>
       <c r="BH8">
-        <v>215828</v>
+        <v>62336369</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>1.226666837</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
+      <c r="BJ8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>252</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="F9">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="G9">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="H9">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="I9">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J9">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="K9">
-        <v>330</v>
+        <v>950</v>
       </c>
       <c r="L9">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="N9">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="O9">
-        <v>4.6</v>
+        <v>55</v>
       </c>
       <c r="P9">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="Q9">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="R9">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="S9">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="T9">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U9">
         <v>1000</v>
       </c>
       <c r="V9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W9">
         <v>1000</v>
       </c>
       <c r="X9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y9">
         <v>1000</v>
       </c>
       <c r="Z9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA9">
         <v>1000</v>
       </c>
       <c r="AB9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AC9">
         <v>1000</v>
       </c>
       <c r="AD9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AE9">
         <v>1000</v>
       </c>
       <c r="AF9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG9">
         <v>1000</v>
       </c>
       <c r="AH9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AI9">
         <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AK9">
         <v>1000</v>
       </c>
       <c r="AL9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AM9">
         <v>1000</v>
       </c>
       <c r="AN9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO9">
         <v>1000</v>
       </c>
       <c r="AP9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ9">
         <v>1000</v>
       </c>
       <c r="AR9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AS9">
         <v>1000</v>
       </c>
       <c r="AT9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU9">
         <v>1000</v>
       </c>
       <c r="AV9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AW9">
         <v>1000</v>
       </c>
       <c r="AX9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AY9">
         <v>1000</v>
@@ -2435,663 +3014,663 @@
         <v>1000</v>
       </c>
       <c r="BD9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9">
-        <v>33137998</v>
+      <c r="BF9" t="s">
+        <v>173</v>
       </c>
       <c r="BG9">
-        <v>20089186</v>
+        <v>25390631</v>
       </c>
       <c r="BH9">
-        <v>201275</v>
+        <v>4077805</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>1.226666936</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
+      <c r="BJ9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="F10">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="G10">
-        <v>4.9</v>
+        <v>480</v>
       </c>
       <c r="H10">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="I10">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="J10">
-        <v>2.52</v>
+        <v>1.21</v>
       </c>
       <c r="K10">
         <v>950</v>
       </c>
       <c r="L10">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="N10">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="O10">
-        <v>4.6</v>
+        <v>55</v>
       </c>
       <c r="P10">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="Q10">
         <v>1000</v>
       </c>
       <c r="R10">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="S10">
         <v>1000</v>
       </c>
       <c r="T10">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U10">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="V10">
-        <v>2.34</v>
+        <v>1.03</v>
       </c>
       <c r="W10">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="X10">
-        <v>2.56</v>
+        <v>1.03</v>
       </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>3.15</v>
+        <v>1.03</v>
       </c>
       <c r="AA10">
         <v>1000</v>
       </c>
       <c r="AB10">
-        <v>2.9</v>
+        <v>1.03</v>
       </c>
       <c r="AC10">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD10">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="AE10">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF10">
-        <v>3.8</v>
+        <v>1.03</v>
       </c>
       <c r="AG10">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH10">
-        <v>7.4</v>
+        <v>1.03</v>
       </c>
       <c r="AI10">
         <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>2.78</v>
+        <v>1.03</v>
       </c>
       <c r="AK10">
         <v>1000</v>
       </c>
       <c r="AL10">
-        <v>3.8</v>
+        <v>1.03</v>
       </c>
       <c r="AM10">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN10">
-        <v>4.9</v>
+        <v>1.03</v>
       </c>
       <c r="AO10">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP10">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="AS10">
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>5.7</v>
+        <v>1.03</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>8.6</v>
+        <v>1.03</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>9.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AY10">
         <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BA10">
         <v>1000</v>
       </c>
       <c r="BB10">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BC10">
         <v>1000</v>
       </c>
       <c r="BD10">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10">
-        <v>33123972</v>
+      <c r="BF10" t="s">
+        <v>174</v>
       </c>
       <c r="BG10">
-        <v>12104874</v>
+        <v>10286560</v>
       </c>
       <c r="BH10">
-        <v>10778457</v>
+        <v>8750960</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>1.226413105</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
+      <c r="BJ10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>227</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="F11">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="G11">
-        <v>2.36</v>
+        <v>480</v>
       </c>
       <c r="H11">
-        <v>3.9</v>
+        <v>1.13</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>870</v>
       </c>
       <c r="J11">
-        <v>3.05</v>
+        <v>1.28</v>
       </c>
       <c r="K11">
-        <v>3.35</v>
+        <v>950</v>
       </c>
       <c r="L11">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="M11">
-        <v>1.72</v>
+        <v>110</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="O11">
-        <v>2.8</v>
+        <v>55</v>
       </c>
       <c r="P11">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="Q11">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="R11">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="S11">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="T11">
-        <v>7.2</v>
+        <v>1.45</v>
       </c>
       <c r="U11">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="V11">
-        <v>8.4</v>
+        <v>1.03</v>
       </c>
       <c r="W11">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="X11">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="Y11">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z11">
-        <v>5.6</v>
+        <v>1.03</v>
       </c>
       <c r="AA11">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB11">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="AC11">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD11">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="AE11">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AF11">
-        <v>13</v>
+        <v>1.03</v>
       </c>
       <c r="AG11">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11">
-        <v>5.5</v>
+        <v>1.03</v>
       </c>
       <c r="AI11">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ11">
-        <v>9</v>
+        <v>1.03</v>
       </c>
       <c r="AK11">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL11">
-        <v>8.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AM11">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AN11">
-        <v>17.5</v>
+        <v>1.03</v>
       </c>
       <c r="AO11">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AP11">
-        <v>5.6</v>
+        <v>1.03</v>
       </c>
       <c r="AQ11">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR11">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AS11">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AT11">
-        <v>21</v>
+        <v>1.03</v>
       </c>
       <c r="AU11">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AV11">
-        <v>5.5</v>
+        <v>1.03</v>
       </c>
       <c r="AW11">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AX11">
-        <v>5.7</v>
+        <v>1.03</v>
       </c>
       <c r="AY11">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="BA11">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="BB11">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="BC11">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD11">
-        <v>5.9</v>
+        <v>1.03</v>
       </c>
       <c r="BE11">
         <v>1000</v>
       </c>
-      <c r="BF11">
-        <v>33119921</v>
+      <c r="BF11" t="s">
+        <v>175</v>
       </c>
       <c r="BG11">
-        <v>220949</v>
+        <v>15792473</v>
       </c>
       <c r="BH11">
-        <v>5408226</v>
+        <v>37156159</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11">
-        <v>1.226352735</v>
-      </c>
-      <c r="BK11">
-        <v>1.226352745</v>
-      </c>
-      <c r="BL11">
-        <v>1.226352734</v>
-      </c>
-      <c r="BM11">
-        <v>1.226352744</v>
+      <c r="BJ11" t="s">
+        <v>202</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="F12">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="G12">
-        <v>2.64</v>
+        <v>480</v>
       </c>
       <c r="H12">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="I12">
-        <v>4.1</v>
+        <v>870</v>
       </c>
       <c r="J12">
-        <v>2.9</v>
+        <v>1.21</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>950</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="M12">
-        <v>1.65</v>
+        <v>30</v>
       </c>
       <c r="N12">
-        <v>2.56</v>
+        <v>1.09</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="P12">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="Q12">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="R12">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="S12">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="T12">
-        <v>6.8</v>
+        <v>1.48</v>
       </c>
       <c r="U12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="V12">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="W12">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="X12">
-        <v>18</v>
+        <v>1.03</v>
       </c>
       <c r="Y12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z12">
-        <v>5.8</v>
+        <v>1.03</v>
       </c>
       <c r="AA12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>6.4</v>
+        <v>1.03</v>
       </c>
       <c r="AC12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD12">
-        <v>3.45</v>
+        <v>1.03</v>
       </c>
       <c r="AE12">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AF12">
-        <v>12.5</v>
+        <v>1.03</v>
       </c>
       <c r="AG12">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH12">
-        <v>5.7</v>
+        <v>1.03</v>
       </c>
       <c r="AI12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ12">
-        <v>9.6</v>
+        <v>1.03</v>
       </c>
       <c r="AK12">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL12">
-        <v>9.4</v>
+        <v>1.03</v>
       </c>
       <c r="AM12">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AN12">
-        <v>18.5</v>
+        <v>1.03</v>
       </c>
       <c r="AO12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP12">
-        <v>5.8</v>
+        <v>1.03</v>
       </c>
       <c r="AQ12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR12">
-        <v>5.3</v>
+        <v>1.03</v>
       </c>
       <c r="AS12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT12">
-        <v>5.3</v>
+        <v>1.03</v>
       </c>
       <c r="AU12">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AV12">
-        <v>5.7</v>
+        <v>1.03</v>
       </c>
       <c r="AW12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX12">
-        <v>6</v>
+        <v>1.03</v>
       </c>
       <c r="AY12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="BA12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB12">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="BC12">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD12">
-        <v>3.35</v>
+        <v>1.03</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12">
-        <v>33119897</v>
+      <c r="BF12" t="s">
+        <v>176</v>
       </c>
       <c r="BG12">
-        <v>897267</v>
+        <v>7583275</v>
       </c>
       <c r="BH12">
-        <v>453739</v>
+        <v>10806745</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12">
-        <v>1.226353059</v>
-      </c>
-      <c r="BK12">
-        <v>1.226353069</v>
-      </c>
-      <c r="BL12">
-        <v>1.226353058</v>
-      </c>
-      <c r="BM12">
-        <v>1.226353068</v>
+      <c r="BJ12" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>256</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="F13">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="G13">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="H13">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="I13">
-        <v>990</v>
+        <v>870</v>
       </c>
       <c r="J13">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="K13">
         <v>950</v>
       </c>
       <c r="L13">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="M13">
         <v>110</v>
@@ -3100,7 +3679,7 @@
         <v>1.05</v>
       </c>
       <c r="O13">
-        <v>4.6</v>
+        <v>55</v>
       </c>
       <c r="P13">
         <v>1.12</v>
@@ -3115,97 +3694,97 @@
         <v>1000</v>
       </c>
       <c r="T13">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="U13">
         <v>1000</v>
       </c>
       <c r="V13">
-        <v>2.58</v>
+        <v>1.03</v>
       </c>
       <c r="W13">
         <v>1000</v>
       </c>
       <c r="X13">
-        <v>2.52</v>
+        <v>1.03</v>
       </c>
       <c r="Y13">
         <v>1000</v>
       </c>
       <c r="Z13">
-        <v>3.4</v>
+        <v>1.03</v>
       </c>
       <c r="AA13">
         <v>1000</v>
       </c>
       <c r="AB13">
-        <v>2.44</v>
+        <v>1.03</v>
       </c>
       <c r="AC13">
         <v>1000</v>
       </c>
       <c r="AD13">
-        <v>3.45</v>
+        <v>1.03</v>
       </c>
       <c r="AE13">
         <v>1000</v>
       </c>
       <c r="AF13">
-        <v>3.55</v>
+        <v>1.03</v>
       </c>
       <c r="AG13">
         <v>1000</v>
       </c>
       <c r="AH13">
-        <v>5</v>
+        <v>1.03</v>
       </c>
       <c r="AI13">
         <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>2.82</v>
+        <v>1.03</v>
       </c>
       <c r="AK13">
         <v>1000</v>
       </c>
       <c r="AL13">
-        <v>3.1</v>
+        <v>1.03</v>
       </c>
       <c r="AM13">
         <v>1000</v>
       </c>
       <c r="AN13">
-        <v>7.6</v>
+        <v>1.03</v>
       </c>
       <c r="AO13">
         <v>1000</v>
       </c>
       <c r="AP13">
-        <v>7.6</v>
+        <v>1.03</v>
       </c>
       <c r="AQ13">
         <v>1000</v>
       </c>
       <c r="AR13">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="AS13">
         <v>1000</v>
       </c>
       <c r="AT13">
-        <v>5.8</v>
+        <v>1.03</v>
       </c>
       <c r="AU13">
         <v>1000</v>
       </c>
       <c r="AV13">
-        <v>8</v>
+        <v>1.03</v>
       </c>
       <c r="AW13">
         <v>1000</v>
       </c>
       <c r="AX13">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AY13">
         <v>1000</v>
@@ -3228,76 +3807,76 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13">
-        <v>33141755</v>
+      <c r="BF13" t="s">
+        <v>177</v>
       </c>
       <c r="BG13">
-        <v>474678</v>
+        <v>3265373</v>
       </c>
       <c r="BH13">
-        <v>13638535</v>
+        <v>928539</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13">
-        <v>1.226722648</v>
-      </c>
-      <c r="BK13">
-        <v>1.226722693</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
+      <c r="BJ13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>230</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F14">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>480</v>
       </c>
       <c r="H14">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="I14">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J14">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="K14">
         <v>950</v>
       </c>
       <c r="L14">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="M14">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="N14">
         <v>1.05</v>
       </c>
       <c r="O14">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="P14">
         <v>1.01</v>
@@ -3312,7 +3891,7 @@
         <v>1000</v>
       </c>
       <c r="T14">
-        <v>1.03</v>
+        <v>1.49</v>
       </c>
       <c r="U14">
         <v>1000</v>
@@ -3425,28 +4004,5347 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14">
-        <v>33123978</v>
+      <c r="BF14" t="s">
+        <v>178</v>
       </c>
       <c r="BG14">
-        <v>219457</v>
+        <v>23146035</v>
       </c>
       <c r="BH14">
-        <v>65437610</v>
+        <v>12591505</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>231</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>258</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15">
+        <v>1.01</v>
+      </c>
+      <c r="G15">
+        <v>480</v>
+      </c>
+      <c r="H15">
+        <v>1.01</v>
+      </c>
+      <c r="I15">
+        <v>870</v>
+      </c>
+      <c r="J15">
+        <v>1.21</v>
+      </c>
+      <c r="K15">
+        <v>950</v>
+      </c>
+      <c r="L15">
+        <v>1.2</v>
+      </c>
+      <c r="M15">
+        <v>29</v>
+      </c>
+      <c r="N15">
+        <v>1.05</v>
+      </c>
+      <c r="O15">
+        <v>6.6</v>
+      </c>
+      <c r="P15">
+        <v>1.01</v>
+      </c>
+      <c r="Q15">
+        <v>1000</v>
+      </c>
+      <c r="R15">
+        <v>1.01</v>
+      </c>
+      <c r="S15">
+        <v>1000</v>
+      </c>
+      <c r="T15">
+        <v>1.47</v>
+      </c>
+      <c r="U15">
+        <v>1000</v>
+      </c>
+      <c r="V15">
+        <v>1.03</v>
+      </c>
+      <c r="W15">
+        <v>1000</v>
+      </c>
+      <c r="X15">
+        <v>1.03</v>
+      </c>
+      <c r="Y15">
+        <v>1000</v>
+      </c>
+      <c r="Z15">
+        <v>1.03</v>
+      </c>
+      <c r="AA15">
+        <v>1000</v>
+      </c>
+      <c r="AB15">
+        <v>1.03</v>
+      </c>
+      <c r="AC15">
+        <v>1000</v>
+      </c>
+      <c r="AD15">
+        <v>1.03</v>
+      </c>
+      <c r="AE15">
+        <v>1000</v>
+      </c>
+      <c r="AF15">
+        <v>1.03</v>
+      </c>
+      <c r="AG15">
+        <v>1000</v>
+      </c>
+      <c r="AH15">
+        <v>1.03</v>
+      </c>
+      <c r="AI15">
+        <v>1000</v>
+      </c>
+      <c r="AJ15">
+        <v>1.03</v>
+      </c>
+      <c r="AK15">
+        <v>1000</v>
+      </c>
+      <c r="AL15">
+        <v>1.03</v>
+      </c>
+      <c r="AM15">
+        <v>1000</v>
+      </c>
+      <c r="AN15">
+        <v>1.03</v>
+      </c>
+      <c r="AO15">
+        <v>1000</v>
+      </c>
+      <c r="AP15">
+        <v>1.03</v>
+      </c>
+      <c r="AQ15">
+        <v>1000</v>
+      </c>
+      <c r="AR15">
+        <v>1.03</v>
+      </c>
+      <c r="AS15">
+        <v>1000</v>
+      </c>
+      <c r="AT15">
+        <v>1.03</v>
+      </c>
+      <c r="AU15">
+        <v>1000</v>
+      </c>
+      <c r="AV15">
+        <v>1.03</v>
+      </c>
+      <c r="AW15">
+        <v>1000</v>
+      </c>
+      <c r="AX15">
+        <v>1.03</v>
+      </c>
+      <c r="AY15">
+        <v>1000</v>
+      </c>
+      <c r="AZ15">
+        <v>1.01</v>
+      </c>
+      <c r="BA15">
+        <v>1000</v>
+      </c>
+      <c r="BB15">
+        <v>1.01</v>
+      </c>
+      <c r="BC15">
+        <v>1000</v>
+      </c>
+      <c r="BD15">
+        <v>1.03</v>
+      </c>
+      <c r="BE15">
+        <v>1000</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG15">
+        <v>501199</v>
+      </c>
+      <c r="BH15">
+        <v>64905641</v>
+      </c>
+      <c r="BI15">
+        <v>58805</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>232</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>259</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16">
+        <v>1.03</v>
+      </c>
+      <c r="G16">
+        <v>480</v>
+      </c>
+      <c r="H16">
+        <v>1.15</v>
+      </c>
+      <c r="I16">
+        <v>870</v>
+      </c>
+      <c r="J16">
+        <v>1.28</v>
+      </c>
+      <c r="K16">
+        <v>950</v>
+      </c>
+      <c r="L16">
+        <v>1.11</v>
+      </c>
+      <c r="M16">
+        <v>110</v>
+      </c>
+      <c r="N16">
+        <v>1.05</v>
+      </c>
+      <c r="O16">
+        <v>55</v>
+      </c>
+      <c r="P16">
+        <v>1.12</v>
+      </c>
+      <c r="Q16">
+        <v>1000</v>
+      </c>
+      <c r="R16">
+        <v>1.12</v>
+      </c>
+      <c r="S16">
+        <v>1000</v>
+      </c>
+      <c r="T16">
+        <v>1.48</v>
+      </c>
+      <c r="U16">
+        <v>1000</v>
+      </c>
+      <c r="V16">
+        <v>1.03</v>
+      </c>
+      <c r="W16">
+        <v>1000</v>
+      </c>
+      <c r="X16">
+        <v>1.03</v>
+      </c>
+      <c r="Y16">
+        <v>1000</v>
+      </c>
+      <c r="Z16">
+        <v>1.03</v>
+      </c>
+      <c r="AA16">
+        <v>1000</v>
+      </c>
+      <c r="AB16">
+        <v>1.03</v>
+      </c>
+      <c r="AC16">
+        <v>1000</v>
+      </c>
+      <c r="AD16">
+        <v>1.03</v>
+      </c>
+      <c r="AE16">
+        <v>1000</v>
+      </c>
+      <c r="AF16">
+        <v>1.03</v>
+      </c>
+      <c r="AG16">
+        <v>1000</v>
+      </c>
+      <c r="AH16">
+        <v>1.03</v>
+      </c>
+      <c r="AI16">
+        <v>1000</v>
+      </c>
+      <c r="AJ16">
+        <v>1.03</v>
+      </c>
+      <c r="AK16">
+        <v>1000</v>
+      </c>
+      <c r="AL16">
+        <v>1.03</v>
+      </c>
+      <c r="AM16">
+        <v>1000</v>
+      </c>
+      <c r="AN16">
+        <v>1.03</v>
+      </c>
+      <c r="AO16">
+        <v>1000</v>
+      </c>
+      <c r="AP16">
+        <v>1.03</v>
+      </c>
+      <c r="AQ16">
+        <v>1000</v>
+      </c>
+      <c r="AR16">
+        <v>1.03</v>
+      </c>
+      <c r="AS16">
+        <v>1000</v>
+      </c>
+      <c r="AT16">
+        <v>1.03</v>
+      </c>
+      <c r="AU16">
+        <v>1000</v>
+      </c>
+      <c r="AV16">
+        <v>1.03</v>
+      </c>
+      <c r="AW16">
+        <v>1000</v>
+      </c>
+      <c r="AX16">
+        <v>1.03</v>
+      </c>
+      <c r="AY16">
+        <v>1000</v>
+      </c>
+      <c r="AZ16">
+        <v>1.01</v>
+      </c>
+      <c r="BA16">
+        <v>1000</v>
+      </c>
+      <c r="BB16">
+        <v>1.01</v>
+      </c>
+      <c r="BC16">
+        <v>1000</v>
+      </c>
+      <c r="BD16">
+        <v>1.03</v>
+      </c>
+      <c r="BE16">
+        <v>1000</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG16">
+        <v>5445696</v>
+      </c>
+      <c r="BH16">
+        <v>20681298</v>
+      </c>
+      <c r="BI16">
+        <v>58805</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>260</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17">
+        <v>1.01</v>
+      </c>
+      <c r="G17">
+        <v>480</v>
+      </c>
+      <c r="H17">
+        <v>1.01</v>
+      </c>
+      <c r="I17">
+        <v>870</v>
+      </c>
+      <c r="J17">
+        <v>1.21</v>
+      </c>
+      <c r="K17">
+        <v>950</v>
+      </c>
+      <c r="L17">
+        <v>1.11</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>1.09</v>
+      </c>
+      <c r="O17">
+        <v>55</v>
+      </c>
+      <c r="P17">
+        <v>1.01</v>
+      </c>
+      <c r="Q17">
+        <v>1000</v>
+      </c>
+      <c r="R17">
+        <v>1.01</v>
+      </c>
+      <c r="S17">
+        <v>1000</v>
+      </c>
+      <c r="T17">
+        <v>1.49</v>
+      </c>
+      <c r="U17">
+        <v>1000</v>
+      </c>
+      <c r="V17">
+        <v>1.03</v>
+      </c>
+      <c r="W17">
+        <v>1000</v>
+      </c>
+      <c r="X17">
+        <v>1.03</v>
+      </c>
+      <c r="Y17">
+        <v>1000</v>
+      </c>
+      <c r="Z17">
+        <v>1.03</v>
+      </c>
+      <c r="AA17">
+        <v>1000</v>
+      </c>
+      <c r="AB17">
+        <v>1.03</v>
+      </c>
+      <c r="AC17">
+        <v>1000</v>
+      </c>
+      <c r="AD17">
+        <v>1.03</v>
+      </c>
+      <c r="AE17">
+        <v>1000</v>
+      </c>
+      <c r="AF17">
+        <v>1.03</v>
+      </c>
+      <c r="AG17">
+        <v>1000</v>
+      </c>
+      <c r="AH17">
+        <v>1.03</v>
+      </c>
+      <c r="AI17">
+        <v>1000</v>
+      </c>
+      <c r="AJ17">
+        <v>1.03</v>
+      </c>
+      <c r="AK17">
+        <v>1000</v>
+      </c>
+      <c r="AL17">
+        <v>1.03</v>
+      </c>
+      <c r="AM17">
+        <v>1000</v>
+      </c>
+      <c r="AN17">
+        <v>1.03</v>
+      </c>
+      <c r="AO17">
+        <v>1000</v>
+      </c>
+      <c r="AP17">
+        <v>1.03</v>
+      </c>
+      <c r="AQ17">
+        <v>1000</v>
+      </c>
+      <c r="AR17">
+        <v>1.03</v>
+      </c>
+      <c r="AS17">
+        <v>1000</v>
+      </c>
+      <c r="AT17">
+        <v>1.03</v>
+      </c>
+      <c r="AU17">
+        <v>1000</v>
+      </c>
+      <c r="AV17">
+        <v>1.03</v>
+      </c>
+      <c r="AW17">
+        <v>1000</v>
+      </c>
+      <c r="AX17">
+        <v>1.03</v>
+      </c>
+      <c r="AY17">
+        <v>1000</v>
+      </c>
+      <c r="AZ17">
+        <v>1.01</v>
+      </c>
+      <c r="BA17">
+        <v>1000</v>
+      </c>
+      <c r="BB17">
+        <v>1.01</v>
+      </c>
+      <c r="BC17">
+        <v>1000</v>
+      </c>
+      <c r="BD17">
+        <v>1.03</v>
+      </c>
+      <c r="BE17">
+        <v>1000</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG17">
+        <v>64905981</v>
+      </c>
+      <c r="BH17">
+        <v>52534364</v>
+      </c>
+      <c r="BI17">
+        <v>58805</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>208</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>234</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18">
+        <v>1.01</v>
+      </c>
+      <c r="G18">
+        <v>480</v>
+      </c>
+      <c r="H18">
+        <v>1.01</v>
+      </c>
+      <c r="I18">
+        <v>870</v>
+      </c>
+      <c r="J18">
+        <v>1.21</v>
+      </c>
+      <c r="K18">
+        <v>950</v>
+      </c>
+      <c r="L18">
+        <v>1.07</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <v>1.01</v>
+      </c>
+      <c r="O18">
+        <v>55</v>
+      </c>
+      <c r="P18">
+        <v>1.01</v>
+      </c>
+      <c r="Q18">
+        <v>1000</v>
+      </c>
+      <c r="R18">
+        <v>1.01</v>
+      </c>
+      <c r="S18">
+        <v>1000</v>
+      </c>
+      <c r="T18">
+        <v>1.46</v>
+      </c>
+      <c r="U18">
+        <v>1000</v>
+      </c>
+      <c r="V18">
+        <v>1.03</v>
+      </c>
+      <c r="W18">
+        <v>1000</v>
+      </c>
+      <c r="X18">
+        <v>1.03</v>
+      </c>
+      <c r="Y18">
+        <v>1000</v>
+      </c>
+      <c r="Z18">
+        <v>1.03</v>
+      </c>
+      <c r="AA18">
+        <v>1000</v>
+      </c>
+      <c r="AB18">
+        <v>1.03</v>
+      </c>
+      <c r="AC18">
+        <v>1000</v>
+      </c>
+      <c r="AD18">
+        <v>1.03</v>
+      </c>
+      <c r="AE18">
+        <v>1000</v>
+      </c>
+      <c r="AF18">
+        <v>1.03</v>
+      </c>
+      <c r="AG18">
+        <v>1000</v>
+      </c>
+      <c r="AH18">
+        <v>1.03</v>
+      </c>
+      <c r="AI18">
+        <v>1000</v>
+      </c>
+      <c r="AJ18">
+        <v>1.03</v>
+      </c>
+      <c r="AK18">
+        <v>1000</v>
+      </c>
+      <c r="AL18">
+        <v>1.03</v>
+      </c>
+      <c r="AM18">
+        <v>1000</v>
+      </c>
+      <c r="AN18">
+        <v>1.03</v>
+      </c>
+      <c r="AO18">
+        <v>1000</v>
+      </c>
+      <c r="AP18">
+        <v>1.03</v>
+      </c>
+      <c r="AQ18">
+        <v>1000</v>
+      </c>
+      <c r="AR18">
+        <v>1.03</v>
+      </c>
+      <c r="AS18">
+        <v>1000</v>
+      </c>
+      <c r="AT18">
+        <v>1.03</v>
+      </c>
+      <c r="AU18">
+        <v>1000</v>
+      </c>
+      <c r="AV18">
+        <v>1.03</v>
+      </c>
+      <c r="AW18">
+        <v>1000</v>
+      </c>
+      <c r="AX18">
+        <v>1.03</v>
+      </c>
+      <c r="AY18">
+        <v>1000</v>
+      </c>
+      <c r="AZ18">
+        <v>1.01</v>
+      </c>
+      <c r="BA18">
+        <v>1000</v>
+      </c>
+      <c r="BB18">
+        <v>1.01</v>
+      </c>
+      <c r="BC18">
+        <v>1000</v>
+      </c>
+      <c r="BD18">
+        <v>1.03</v>
+      </c>
+      <c r="BE18">
+        <v>1000</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG18">
+        <v>36562024</v>
+      </c>
+      <c r="BH18">
+        <v>4893594</v>
+      </c>
+      <c r="BI18">
+        <v>58805</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>209</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>235</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19">
+        <v>1.01</v>
+      </c>
+      <c r="G19">
+        <v>480</v>
+      </c>
+      <c r="H19">
+        <v>1.01</v>
+      </c>
+      <c r="I19">
+        <v>870</v>
+      </c>
+      <c r="J19">
+        <v>1.21</v>
+      </c>
+      <c r="K19">
+        <v>950</v>
+      </c>
+      <c r="L19">
+        <v>1.2</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+      <c r="N19">
+        <v>1.04</v>
+      </c>
+      <c r="O19">
+        <v>6.6</v>
+      </c>
+      <c r="P19">
+        <v>1.01</v>
+      </c>
+      <c r="Q19">
+        <v>1000</v>
+      </c>
+      <c r="R19">
+        <v>1.01</v>
+      </c>
+      <c r="S19">
+        <v>1000</v>
+      </c>
+      <c r="T19">
+        <v>1.48</v>
+      </c>
+      <c r="U19">
+        <v>1000</v>
+      </c>
+      <c r="V19">
+        <v>1.03</v>
+      </c>
+      <c r="W19">
+        <v>1000</v>
+      </c>
+      <c r="X19">
+        <v>1.03</v>
+      </c>
+      <c r="Y19">
+        <v>1000</v>
+      </c>
+      <c r="Z19">
+        <v>1.03</v>
+      </c>
+      <c r="AA19">
+        <v>1000</v>
+      </c>
+      <c r="AB19">
+        <v>1.03</v>
+      </c>
+      <c r="AC19">
+        <v>1000</v>
+      </c>
+      <c r="AD19">
+        <v>1.03</v>
+      </c>
+      <c r="AE19">
+        <v>1000</v>
+      </c>
+      <c r="AF19">
+        <v>1.03</v>
+      </c>
+      <c r="AG19">
+        <v>1000</v>
+      </c>
+      <c r="AH19">
+        <v>1.03</v>
+      </c>
+      <c r="AI19">
+        <v>1000</v>
+      </c>
+      <c r="AJ19">
+        <v>1.03</v>
+      </c>
+      <c r="AK19">
+        <v>1000</v>
+      </c>
+      <c r="AL19">
+        <v>1.03</v>
+      </c>
+      <c r="AM19">
+        <v>1000</v>
+      </c>
+      <c r="AN19">
+        <v>1.03</v>
+      </c>
+      <c r="AO19">
+        <v>1000</v>
+      </c>
+      <c r="AP19">
+        <v>1.03</v>
+      </c>
+      <c r="AQ19">
+        <v>1000</v>
+      </c>
+      <c r="AR19">
+        <v>1.03</v>
+      </c>
+      <c r="AS19">
+        <v>1000</v>
+      </c>
+      <c r="AT19">
+        <v>1.03</v>
+      </c>
+      <c r="AU19">
+        <v>1000</v>
+      </c>
+      <c r="AV19">
+        <v>1.03</v>
+      </c>
+      <c r="AW19">
+        <v>1000</v>
+      </c>
+      <c r="AX19">
+        <v>1.03</v>
+      </c>
+      <c r="AY19">
+        <v>1000</v>
+      </c>
+      <c r="AZ19">
+        <v>1.01</v>
+      </c>
+      <c r="BA19">
+        <v>1000</v>
+      </c>
+      <c r="BB19">
+        <v>1.01</v>
+      </c>
+      <c r="BC19">
+        <v>1000</v>
+      </c>
+      <c r="BD19">
+        <v>1.03</v>
+      </c>
+      <c r="BE19">
+        <v>1000</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG19">
+        <v>26053018</v>
+      </c>
+      <c r="BH19">
+        <v>64905056</v>
+      </c>
+      <c r="BI19">
+        <v>58805</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20">
+        <v>1.17</v>
+      </c>
+      <c r="G20">
+        <v>480</v>
+      </c>
+      <c r="H20">
+        <v>1.25</v>
+      </c>
+      <c r="I20">
+        <v>870</v>
+      </c>
+      <c r="J20">
+        <v>1.29</v>
+      </c>
+      <c r="K20">
+        <v>950</v>
+      </c>
+      <c r="L20">
+        <v>1.2</v>
+      </c>
+      <c r="M20">
+        <v>10.5</v>
+      </c>
+      <c r="N20">
+        <v>1.11</v>
+      </c>
+      <c r="O20">
+        <v>6.6</v>
+      </c>
+      <c r="P20">
+        <v>1.12</v>
+      </c>
+      <c r="Q20">
+        <v>1000</v>
+      </c>
+      <c r="R20">
+        <v>1.12</v>
+      </c>
+      <c r="S20">
+        <v>1000</v>
+      </c>
+      <c r="T20">
+        <v>1.49</v>
+      </c>
+      <c r="U20">
+        <v>1000</v>
+      </c>
+      <c r="V20">
+        <v>1.03</v>
+      </c>
+      <c r="W20">
+        <v>1000</v>
+      </c>
+      <c r="X20">
+        <v>1.03</v>
+      </c>
+      <c r="Y20">
+        <v>1000</v>
+      </c>
+      <c r="Z20">
+        <v>1.03</v>
+      </c>
+      <c r="AA20">
+        <v>1000</v>
+      </c>
+      <c r="AB20">
+        <v>1.03</v>
+      </c>
+      <c r="AC20">
+        <v>1000</v>
+      </c>
+      <c r="AD20">
+        <v>1.03</v>
+      </c>
+      <c r="AE20">
+        <v>1000</v>
+      </c>
+      <c r="AF20">
+        <v>1.03</v>
+      </c>
+      <c r="AG20">
+        <v>1000</v>
+      </c>
+      <c r="AH20">
+        <v>1.03</v>
+      </c>
+      <c r="AI20">
+        <v>1000</v>
+      </c>
+      <c r="AJ20">
+        <v>1.03</v>
+      </c>
+      <c r="AK20">
+        <v>1000</v>
+      </c>
+      <c r="AL20">
+        <v>1.03</v>
+      </c>
+      <c r="AM20">
+        <v>1000</v>
+      </c>
+      <c r="AN20">
+        <v>1.03</v>
+      </c>
+      <c r="AO20">
+        <v>1000</v>
+      </c>
+      <c r="AP20">
+        <v>1.03</v>
+      </c>
+      <c r="AQ20">
+        <v>1000</v>
+      </c>
+      <c r="AR20">
+        <v>1.03</v>
+      </c>
+      <c r="AS20">
+        <v>1000</v>
+      </c>
+      <c r="AT20">
+        <v>1.03</v>
+      </c>
+      <c r="AU20">
+        <v>1000</v>
+      </c>
+      <c r="AV20">
+        <v>1.03</v>
+      </c>
+      <c r="AW20">
+        <v>1000</v>
+      </c>
+      <c r="AX20">
+        <v>1.03</v>
+      </c>
+      <c r="AY20">
+        <v>1000</v>
+      </c>
+      <c r="AZ20">
+        <v>1.01</v>
+      </c>
+      <c r="BA20">
+        <v>1000</v>
+      </c>
+      <c r="BB20">
+        <v>1.01</v>
+      </c>
+      <c r="BC20">
+        <v>1000</v>
+      </c>
+      <c r="BD20">
+        <v>1.03</v>
+      </c>
+      <c r="BE20">
+        <v>1000</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG20">
+        <v>37156140</v>
+      </c>
+      <c r="BH20">
+        <v>26955537</v>
+      </c>
+      <c r="BI20">
+        <v>58805</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>237</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>264</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21">
+        <v>1.01</v>
+      </c>
+      <c r="G21">
+        <v>480</v>
+      </c>
+      <c r="H21">
+        <v>1.01</v>
+      </c>
+      <c r="I21">
+        <v>870</v>
+      </c>
+      <c r="J21">
+        <v>1.21</v>
+      </c>
+      <c r="K21">
+        <v>950</v>
+      </c>
+      <c r="L21">
+        <v>1.07</v>
+      </c>
+      <c r="M21">
+        <v>110</v>
+      </c>
+      <c r="N21">
+        <v>1.09</v>
+      </c>
+      <c r="O21">
+        <v>21</v>
+      </c>
+      <c r="P21">
+        <v>1.01</v>
+      </c>
+      <c r="Q21">
+        <v>1000</v>
+      </c>
+      <c r="R21">
+        <v>1.01</v>
+      </c>
+      <c r="S21">
+        <v>1000</v>
+      </c>
+      <c r="T21">
+        <v>1.49</v>
+      </c>
+      <c r="U21">
+        <v>1000</v>
+      </c>
+      <c r="V21">
+        <v>1.03</v>
+      </c>
+      <c r="W21">
+        <v>1000</v>
+      </c>
+      <c r="X21">
+        <v>1.03</v>
+      </c>
+      <c r="Y21">
+        <v>1000</v>
+      </c>
+      <c r="Z21">
+        <v>1.03</v>
+      </c>
+      <c r="AA21">
+        <v>1000</v>
+      </c>
+      <c r="AB21">
+        <v>1.03</v>
+      </c>
+      <c r="AC21">
+        <v>1000</v>
+      </c>
+      <c r="AD21">
+        <v>1.03</v>
+      </c>
+      <c r="AE21">
+        <v>1000</v>
+      </c>
+      <c r="AF21">
+        <v>1.03</v>
+      </c>
+      <c r="AG21">
+        <v>1000</v>
+      </c>
+      <c r="AH21">
+        <v>1.03</v>
+      </c>
+      <c r="AI21">
+        <v>1000</v>
+      </c>
+      <c r="AJ21">
+        <v>1.03</v>
+      </c>
+      <c r="AK21">
+        <v>1000</v>
+      </c>
+      <c r="AL21">
+        <v>1.03</v>
+      </c>
+      <c r="AM21">
+        <v>1000</v>
+      </c>
+      <c r="AN21">
+        <v>1.03</v>
+      </c>
+      <c r="AO21">
+        <v>1000</v>
+      </c>
+      <c r="AP21">
+        <v>1.03</v>
+      </c>
+      <c r="AQ21">
+        <v>1000</v>
+      </c>
+      <c r="AR21">
+        <v>1.03</v>
+      </c>
+      <c r="AS21">
+        <v>1000</v>
+      </c>
+      <c r="AT21">
+        <v>1.03</v>
+      </c>
+      <c r="AU21">
+        <v>1000</v>
+      </c>
+      <c r="AV21">
+        <v>1.03</v>
+      </c>
+      <c r="AW21">
+        <v>1000</v>
+      </c>
+      <c r="AX21">
+        <v>1.03</v>
+      </c>
+      <c r="AY21">
+        <v>1000</v>
+      </c>
+      <c r="AZ21">
+        <v>1.01</v>
+      </c>
+      <c r="BA21">
+        <v>1000</v>
+      </c>
+      <c r="BB21">
+        <v>1.01</v>
+      </c>
+      <c r="BC21">
+        <v>1000</v>
+      </c>
+      <c r="BD21">
+        <v>1.03</v>
+      </c>
+      <c r="BE21">
+        <v>1000</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG21">
+        <v>20366053</v>
+      </c>
+      <c r="BH21">
+        <v>12151861</v>
+      </c>
+      <c r="BI21">
+        <v>58805</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>212</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>238</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>265</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22">
+        <v>1.01</v>
+      </c>
+      <c r="G22">
+        <v>2.1</v>
+      </c>
+      <c r="H22">
+        <v>1.92</v>
+      </c>
+      <c r="I22">
+        <v>870</v>
+      </c>
+      <c r="J22">
+        <v>1.91</v>
+      </c>
+      <c r="K22">
+        <v>950</v>
+      </c>
+      <c r="L22">
+        <v>1.11</v>
+      </c>
+      <c r="M22">
+        <v>9.4</v>
+      </c>
+      <c r="N22">
+        <v>1.12</v>
+      </c>
+      <c r="O22">
+        <v>55</v>
+      </c>
+      <c r="P22">
+        <v>1.01</v>
+      </c>
+      <c r="Q22">
+        <v>1000</v>
+      </c>
+      <c r="R22">
+        <v>1.01</v>
+      </c>
+      <c r="S22">
+        <v>1000</v>
+      </c>
+      <c r="T22">
+        <v>1.4</v>
+      </c>
+      <c r="U22">
+        <v>1000</v>
+      </c>
+      <c r="V22">
+        <v>1.03</v>
+      </c>
+      <c r="W22">
+        <v>1000</v>
+      </c>
+      <c r="X22">
+        <v>1.03</v>
+      </c>
+      <c r="Y22">
+        <v>1000</v>
+      </c>
+      <c r="Z22">
+        <v>1.03</v>
+      </c>
+      <c r="AA22">
+        <v>1000</v>
+      </c>
+      <c r="AB22">
+        <v>1.03</v>
+      </c>
+      <c r="AC22">
+        <v>1000</v>
+      </c>
+      <c r="AD22">
+        <v>1.03</v>
+      </c>
+      <c r="AE22">
+        <v>1000</v>
+      </c>
+      <c r="AF22">
+        <v>1.03</v>
+      </c>
+      <c r="AG22">
+        <v>1000</v>
+      </c>
+      <c r="AH22">
+        <v>1.03</v>
+      </c>
+      <c r="AI22">
+        <v>1000</v>
+      </c>
+      <c r="AJ22">
+        <v>1.03</v>
+      </c>
+      <c r="AK22">
+        <v>1000</v>
+      </c>
+      <c r="AL22">
+        <v>1.03</v>
+      </c>
+      <c r="AM22">
+        <v>1000</v>
+      </c>
+      <c r="AN22">
+        <v>1.03</v>
+      </c>
+      <c r="AO22">
+        <v>1000</v>
+      </c>
+      <c r="AP22">
+        <v>1.03</v>
+      </c>
+      <c r="AQ22">
+        <v>1000</v>
+      </c>
+      <c r="AR22">
+        <v>1.03</v>
+      </c>
+      <c r="AS22">
+        <v>1000</v>
+      </c>
+      <c r="AT22">
+        <v>1.03</v>
+      </c>
+      <c r="AU22">
+        <v>1000</v>
+      </c>
+      <c r="AV22">
+        <v>1.03</v>
+      </c>
+      <c r="AW22">
+        <v>1000</v>
+      </c>
+      <c r="AX22">
+        <v>1.03</v>
+      </c>
+      <c r="AY22">
+        <v>1000</v>
+      </c>
+      <c r="AZ22">
+        <v>1.01</v>
+      </c>
+      <c r="BA22">
+        <v>1000</v>
+      </c>
+      <c r="BB22">
+        <v>1.01</v>
+      </c>
+      <c r="BC22">
+        <v>1000</v>
+      </c>
+      <c r="BD22">
+        <v>1.03</v>
+      </c>
+      <c r="BE22">
+        <v>1000</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG22">
+        <v>14667878</v>
+      </c>
+      <c r="BH22">
+        <v>15812222</v>
+      </c>
+      <c r="BI22">
+        <v>58805</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>213</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>239</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>266</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23">
+        <v>1.08</v>
+      </c>
+      <c r="G23">
+        <v>980</v>
+      </c>
+      <c r="H23">
+        <v>1.08</v>
+      </c>
+      <c r="I23">
+        <v>980</v>
+      </c>
+      <c r="J23">
+        <v>1.03</v>
+      </c>
+      <c r="K23">
+        <v>950</v>
+      </c>
+      <c r="L23">
+        <v>1.27</v>
+      </c>
+      <c r="M23">
+        <v>29</v>
+      </c>
+      <c r="N23">
+        <v>1.05</v>
+      </c>
+      <c r="O23">
+        <v>4.6</v>
+      </c>
+      <c r="P23">
+        <v>1.01</v>
+      </c>
+      <c r="Q23">
+        <v>1000</v>
+      </c>
+      <c r="R23">
+        <v>1.01</v>
+      </c>
+      <c r="S23">
+        <v>1000</v>
+      </c>
+      <c r="T23">
+        <v>1.49</v>
+      </c>
+      <c r="U23">
+        <v>1000</v>
+      </c>
+      <c r="V23">
+        <v>1.01</v>
+      </c>
+      <c r="W23">
+        <v>1000</v>
+      </c>
+      <c r="X23">
+        <v>1.01</v>
+      </c>
+      <c r="Y23">
+        <v>1000</v>
+      </c>
+      <c r="Z23">
+        <v>1.01</v>
+      </c>
+      <c r="AA23">
+        <v>1000</v>
+      </c>
+      <c r="AB23">
+        <v>1.01</v>
+      </c>
+      <c r="AC23">
+        <v>1000</v>
+      </c>
+      <c r="AD23">
+        <v>1.01</v>
+      </c>
+      <c r="AE23">
+        <v>1000</v>
+      </c>
+      <c r="AF23">
+        <v>1.01</v>
+      </c>
+      <c r="AG23">
+        <v>1000</v>
+      </c>
+      <c r="AH23">
+        <v>1.01</v>
+      </c>
+      <c r="AI23">
+        <v>1000</v>
+      </c>
+      <c r="AJ23">
+        <v>1.01</v>
+      </c>
+      <c r="AK23">
+        <v>1000</v>
+      </c>
+      <c r="AL23">
+        <v>1.01</v>
+      </c>
+      <c r="AM23">
+        <v>1000</v>
+      </c>
+      <c r="AN23">
+        <v>1.01</v>
+      </c>
+      <c r="AO23">
+        <v>1000</v>
+      </c>
+      <c r="AP23">
+        <v>1.01</v>
+      </c>
+      <c r="AQ23">
+        <v>1000</v>
+      </c>
+      <c r="AR23">
+        <v>1.01</v>
+      </c>
+      <c r="AS23">
+        <v>1000</v>
+      </c>
+      <c r="AT23">
+        <v>1.01</v>
+      </c>
+      <c r="AU23">
+        <v>1000</v>
+      </c>
+      <c r="AV23">
+        <v>1.01</v>
+      </c>
+      <c r="AW23">
+        <v>1000</v>
+      </c>
+      <c r="AX23">
+        <v>1.01</v>
+      </c>
+      <c r="AY23">
+        <v>1000</v>
+      </c>
+      <c r="AZ23">
+        <v>1.01</v>
+      </c>
+      <c r="BA23">
+        <v>1000</v>
+      </c>
+      <c r="BB23">
+        <v>1.01</v>
+      </c>
+      <c r="BC23">
+        <v>1000</v>
+      </c>
+      <c r="BD23">
+        <v>1.01</v>
+      </c>
+      <c r="BE23">
+        <v>1000</v>
+      </c>
+      <c r="BF23">
+        <v>33108555</v>
+      </c>
+      <c r="BG23">
+        <v>4940518</v>
+      </c>
+      <c r="BH23">
+        <v>10748838</v>
+      </c>
+      <c r="BI23">
+        <v>58805</v>
+      </c>
+      <c r="BJ23">
+        <v>1.226159127</v>
+      </c>
+      <c r="BK23">
+        <v>1.226159172</v>
+      </c>
+      <c r="BL23">
+        <v>1.226159211</v>
+      </c>
+      <c r="BM23">
+        <v>1.226159136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24">
+        <v>1.91</v>
+      </c>
+      <c r="G24">
+        <v>13.5</v>
+      </c>
+      <c r="H24">
+        <v>2.24</v>
+      </c>
+      <c r="I24">
+        <v>870</v>
+      </c>
+      <c r="J24">
+        <v>2.5</v>
+      </c>
+      <c r="K24">
+        <v>950</v>
+      </c>
+      <c r="L24">
+        <v>1.27</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <v>1.05</v>
+      </c>
+      <c r="O24">
+        <v>4.6</v>
+      </c>
+      <c r="P24">
+        <v>1.13</v>
+      </c>
+      <c r="Q24">
+        <v>9.4</v>
+      </c>
+      <c r="R24">
+        <v>1.13</v>
+      </c>
+      <c r="S24">
+        <v>9.4</v>
+      </c>
+      <c r="T24">
+        <v>1.48</v>
+      </c>
+      <c r="U24">
+        <v>980</v>
+      </c>
+      <c r="V24">
+        <v>1.1</v>
+      </c>
+      <c r="W24">
+        <v>980</v>
+      </c>
+      <c r="X24">
+        <v>1.1</v>
+      </c>
+      <c r="Y24">
+        <v>1000</v>
+      </c>
+      <c r="Z24">
+        <v>1.1</v>
+      </c>
+      <c r="AA24">
+        <v>1000</v>
+      </c>
+      <c r="AB24">
+        <v>1.1</v>
+      </c>
+      <c r="AC24">
+        <v>980</v>
+      </c>
+      <c r="AD24">
+        <v>1.1</v>
+      </c>
+      <c r="AE24">
+        <v>980</v>
+      </c>
+      <c r="AF24">
+        <v>1.1</v>
+      </c>
+      <c r="AG24">
+        <v>980</v>
+      </c>
+      <c r="AH24">
+        <v>1.1</v>
+      </c>
+      <c r="AI24">
+        <v>1000</v>
+      </c>
+      <c r="AJ24">
+        <v>1.1</v>
+      </c>
+      <c r="AK24">
+        <v>1000</v>
+      </c>
+      <c r="AL24">
+        <v>1.1</v>
+      </c>
+      <c r="AM24">
+        <v>980</v>
+      </c>
+      <c r="AN24">
+        <v>1.1</v>
+      </c>
+      <c r="AO24">
+        <v>980</v>
+      </c>
+      <c r="AP24">
+        <v>1.1</v>
+      </c>
+      <c r="AQ24">
+        <v>1000</v>
+      </c>
+      <c r="AR24">
+        <v>1.1</v>
+      </c>
+      <c r="AS24">
+        <v>1000</v>
+      </c>
+      <c r="AT24">
+        <v>1.1</v>
+      </c>
+      <c r="AU24">
+        <v>1000</v>
+      </c>
+      <c r="AV24">
+        <v>1.1</v>
+      </c>
+      <c r="AW24">
+        <v>1000</v>
+      </c>
+      <c r="AX24">
+        <v>1.1</v>
+      </c>
+      <c r="AY24">
+        <v>1000</v>
+      </c>
+      <c r="AZ24">
+        <v>1.1</v>
+      </c>
+      <c r="BA24">
+        <v>1000</v>
+      </c>
+      <c r="BB24">
+        <v>1.1</v>
+      </c>
+      <c r="BC24">
+        <v>1000</v>
+      </c>
+      <c r="BD24">
+        <v>1.1</v>
+      </c>
+      <c r="BE24">
+        <v>1000</v>
+      </c>
+      <c r="BF24">
+        <v>33140790</v>
+      </c>
+      <c r="BG24">
+        <v>7154508</v>
+      </c>
+      <c r="BH24">
+        <v>8212487</v>
+      </c>
+      <c r="BI24">
+        <v>58805</v>
+      </c>
+      <c r="BJ24">
+        <v>1.226706493</v>
+      </c>
+      <c r="BK24">
+        <v>1.226706538</v>
+      </c>
+      <c r="BL24">
+        <v>1.226706577</v>
+      </c>
+      <c r="BM24">
+        <v>1.226706502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25">
+        <v>1.04</v>
+      </c>
+      <c r="G25">
+        <v>990</v>
+      </c>
+      <c r="H25">
+        <v>1.04</v>
+      </c>
+      <c r="I25">
+        <v>980</v>
+      </c>
+      <c r="J25">
+        <v>1.21</v>
+      </c>
+      <c r="K25">
+        <v>950</v>
+      </c>
+      <c r="L25">
+        <v>1.27</v>
+      </c>
+      <c r="M25">
+        <v>960</v>
+      </c>
+      <c r="N25">
+        <v>1.09</v>
+      </c>
+      <c r="O25">
+        <v>4.6</v>
+      </c>
+      <c r="P25">
+        <v>1.12</v>
+      </c>
+      <c r="Q25">
+        <v>1000</v>
+      </c>
+      <c r="R25">
+        <v>1.12</v>
+      </c>
+      <c r="S25">
+        <v>1000</v>
+      </c>
+      <c r="T25">
+        <v>1.49</v>
+      </c>
+      <c r="U25">
+        <v>980</v>
+      </c>
+      <c r="V25">
+        <v>1.1</v>
+      </c>
+      <c r="W25">
+        <v>980</v>
+      </c>
+      <c r="X25">
+        <v>1.1</v>
+      </c>
+      <c r="Y25">
+        <v>1000</v>
+      </c>
+      <c r="Z25">
+        <v>1.1</v>
+      </c>
+      <c r="AA25">
+        <v>1000</v>
+      </c>
+      <c r="AB25">
+        <v>1.1</v>
+      </c>
+      <c r="AC25">
+        <v>980</v>
+      </c>
+      <c r="AD25">
+        <v>1.1</v>
+      </c>
+      <c r="AE25">
+        <v>980</v>
+      </c>
+      <c r="AF25">
+        <v>1.1</v>
+      </c>
+      <c r="AG25">
+        <v>980</v>
+      </c>
+      <c r="AH25">
+        <v>1.1</v>
+      </c>
+      <c r="AI25">
+        <v>1000</v>
+      </c>
+      <c r="AJ25">
+        <v>1.1</v>
+      </c>
+      <c r="AK25">
+        <v>1000</v>
+      </c>
+      <c r="AL25">
+        <v>1.1</v>
+      </c>
+      <c r="AM25">
+        <v>980</v>
+      </c>
+      <c r="AN25">
+        <v>1.1</v>
+      </c>
+      <c r="AO25">
+        <v>980</v>
+      </c>
+      <c r="AP25">
+        <v>1.1</v>
+      </c>
+      <c r="AQ25">
+        <v>1000</v>
+      </c>
+      <c r="AR25">
+        <v>1.1</v>
+      </c>
+      <c r="AS25">
+        <v>1000</v>
+      </c>
+      <c r="AT25">
+        <v>1.1</v>
+      </c>
+      <c r="AU25">
+        <v>1000</v>
+      </c>
+      <c r="AV25">
+        <v>1.1</v>
+      </c>
+      <c r="AW25">
+        <v>1000</v>
+      </c>
+      <c r="AX25">
+        <v>1.1</v>
+      </c>
+      <c r="AY25">
+        <v>1000</v>
+      </c>
+      <c r="AZ25">
+        <v>1.1</v>
+      </c>
+      <c r="BA25">
+        <v>1000</v>
+      </c>
+      <c r="BB25">
+        <v>1.1</v>
+      </c>
+      <c r="BC25">
+        <v>1000</v>
+      </c>
+      <c r="BD25">
+        <v>1.1</v>
+      </c>
+      <c r="BE25">
+        <v>1000</v>
+      </c>
+      <c r="BF25">
+        <v>33139440</v>
+      </c>
+      <c r="BG25">
+        <v>7223889</v>
+      </c>
+      <c r="BH25">
+        <v>2487031</v>
+      </c>
+      <c r="BI25">
+        <v>58805</v>
+      </c>
+      <c r="BJ25">
+        <v>1.226690788</v>
+      </c>
+      <c r="BK25">
+        <v>1.226690833</v>
+      </c>
+      <c r="BL25">
+        <v>1.226690872</v>
+      </c>
+      <c r="BM25">
+        <v>1.226690797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26">
+        <v>1.01</v>
+      </c>
+      <c r="G26">
+        <v>480</v>
+      </c>
+      <c r="H26">
+        <v>1.01</v>
+      </c>
+      <c r="I26">
+        <v>870</v>
+      </c>
+      <c r="J26">
+        <v>1.21</v>
+      </c>
+      <c r="K26">
+        <v>950</v>
+      </c>
+      <c r="L26">
+        <v>1.11</v>
+      </c>
+      <c r="M26">
+        <v>110</v>
+      </c>
+      <c r="N26">
+        <v>1.05</v>
+      </c>
+      <c r="O26">
+        <v>26</v>
+      </c>
+      <c r="P26">
+        <v>1.01</v>
+      </c>
+      <c r="Q26">
+        <v>1000</v>
+      </c>
+      <c r="R26">
+        <v>1.01</v>
+      </c>
+      <c r="S26">
+        <v>1000</v>
+      </c>
+      <c r="T26">
+        <v>1.47</v>
+      </c>
+      <c r="U26">
+        <v>1000</v>
+      </c>
+      <c r="V26">
+        <v>1.03</v>
+      </c>
+      <c r="W26">
+        <v>1000</v>
+      </c>
+      <c r="X26">
+        <v>1.03</v>
+      </c>
+      <c r="Y26">
+        <v>1000</v>
+      </c>
+      <c r="Z26">
+        <v>1.03</v>
+      </c>
+      <c r="AA26">
+        <v>1000</v>
+      </c>
+      <c r="AB26">
+        <v>1.03</v>
+      </c>
+      <c r="AC26">
+        <v>1000</v>
+      </c>
+      <c r="AD26">
+        <v>1.03</v>
+      </c>
+      <c r="AE26">
+        <v>1000</v>
+      </c>
+      <c r="AF26">
+        <v>1.03</v>
+      </c>
+      <c r="AG26">
+        <v>1000</v>
+      </c>
+      <c r="AH26">
+        <v>1.03</v>
+      </c>
+      <c r="AI26">
+        <v>1000</v>
+      </c>
+      <c r="AJ26">
+        <v>1.03</v>
+      </c>
+      <c r="AK26">
+        <v>1000</v>
+      </c>
+      <c r="AL26">
+        <v>1.03</v>
+      </c>
+      <c r="AM26">
+        <v>1000</v>
+      </c>
+      <c r="AN26">
+        <v>1.03</v>
+      </c>
+      <c r="AO26">
+        <v>1000</v>
+      </c>
+      <c r="AP26">
+        <v>1.03</v>
+      </c>
+      <c r="AQ26">
+        <v>1000</v>
+      </c>
+      <c r="AR26">
+        <v>1.03</v>
+      </c>
+      <c r="AS26">
+        <v>1000</v>
+      </c>
+      <c r="AT26">
+        <v>1.03</v>
+      </c>
+      <c r="AU26">
+        <v>1000</v>
+      </c>
+      <c r="AV26">
+        <v>1.03</v>
+      </c>
+      <c r="AW26">
+        <v>1000</v>
+      </c>
+      <c r="AX26">
+        <v>1.03</v>
+      </c>
+      <c r="AY26">
+        <v>1000</v>
+      </c>
+      <c r="AZ26">
+        <v>1.01</v>
+      </c>
+      <c r="BA26">
+        <v>1000</v>
+      </c>
+      <c r="BB26">
+        <v>1.01</v>
+      </c>
+      <c r="BC26">
+        <v>1000</v>
+      </c>
+      <c r="BD26">
+        <v>1.03</v>
+      </c>
+      <c r="BE26">
+        <v>1000</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG26">
+        <v>924270</v>
+      </c>
+      <c r="BH26">
+        <v>64905769</v>
+      </c>
+      <c r="BI26">
+        <v>58805</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>240</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27">
+        <v>1.04</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>1.04</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>1.01</v>
+      </c>
+      <c r="K27">
+        <v>950</v>
+      </c>
+      <c r="L27">
+        <v>1.2</v>
+      </c>
+      <c r="M27">
+        <v>55</v>
+      </c>
+      <c r="N27">
+        <v>1.05</v>
+      </c>
+      <c r="O27">
+        <v>6.6</v>
+      </c>
+      <c r="P27">
+        <v>1.01</v>
+      </c>
+      <c r="Q27">
+        <v>1000</v>
+      </c>
+      <c r="R27">
+        <v>1.01</v>
+      </c>
+      <c r="S27">
+        <v>1000</v>
+      </c>
+      <c r="T27">
+        <v>1.48</v>
+      </c>
+      <c r="U27">
+        <v>1000</v>
+      </c>
+      <c r="V27">
+        <v>1.03</v>
+      </c>
+      <c r="W27">
+        <v>1000</v>
+      </c>
+      <c r="X27">
+        <v>1.03</v>
+      </c>
+      <c r="Y27">
+        <v>1000</v>
+      </c>
+      <c r="Z27">
+        <v>1.03</v>
+      </c>
+      <c r="AA27">
+        <v>1000</v>
+      </c>
+      <c r="AB27">
+        <v>1.03</v>
+      </c>
+      <c r="AC27">
+        <v>1000</v>
+      </c>
+      <c r="AD27">
+        <v>1.03</v>
+      </c>
+      <c r="AE27">
+        <v>1000</v>
+      </c>
+      <c r="AF27">
+        <v>1.03</v>
+      </c>
+      <c r="AG27">
+        <v>1000</v>
+      </c>
+      <c r="AH27">
+        <v>1.03</v>
+      </c>
+      <c r="AI27">
+        <v>1000</v>
+      </c>
+      <c r="AJ27">
+        <v>1.03</v>
+      </c>
+      <c r="AK27">
+        <v>1000</v>
+      </c>
+      <c r="AL27">
+        <v>1.03</v>
+      </c>
+      <c r="AM27">
+        <v>1000</v>
+      </c>
+      <c r="AN27">
+        <v>1.03</v>
+      </c>
+      <c r="AO27">
+        <v>1000</v>
+      </c>
+      <c r="AP27">
+        <v>1.03</v>
+      </c>
+      <c r="AQ27">
+        <v>1000</v>
+      </c>
+      <c r="AR27">
+        <v>1.03</v>
+      </c>
+      <c r="AS27">
+        <v>1000</v>
+      </c>
+      <c r="AT27">
+        <v>1.03</v>
+      </c>
+      <c r="AU27">
+        <v>1000</v>
+      </c>
+      <c r="AV27">
+        <v>1.03</v>
+      </c>
+      <c r="AW27">
+        <v>1000</v>
+      </c>
+      <c r="AX27">
+        <v>1.03</v>
+      </c>
+      <c r="AY27">
+        <v>1000</v>
+      </c>
+      <c r="AZ27">
+        <v>1.01</v>
+      </c>
+      <c r="BA27">
+        <v>1000</v>
+      </c>
+      <c r="BB27">
+        <v>1.01</v>
+      </c>
+      <c r="BC27">
+        <v>1000</v>
+      </c>
+      <c r="BD27">
+        <v>1.03</v>
+      </c>
+      <c r="BE27">
+        <v>1000</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG27">
+        <v>61511713</v>
+      </c>
+      <c r="BH27">
+        <v>12198533</v>
+      </c>
+      <c r="BI27">
+        <v>58805</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>268</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28">
+        <v>1.01</v>
+      </c>
+      <c r="G28">
+        <v>480</v>
+      </c>
+      <c r="H28">
+        <v>1.01</v>
+      </c>
+      <c r="I28">
+        <v>870</v>
+      </c>
+      <c r="J28">
+        <v>1.21</v>
+      </c>
+      <c r="K28">
+        <v>950</v>
+      </c>
+      <c r="L28">
+        <v>1.11</v>
+      </c>
+      <c r="M28">
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <v>1.08</v>
+      </c>
+      <c r="O28">
+        <v>30</v>
+      </c>
+      <c r="P28">
+        <v>1.01</v>
+      </c>
+      <c r="Q28">
+        <v>1000</v>
+      </c>
+      <c r="R28">
+        <v>1.01</v>
+      </c>
+      <c r="S28">
+        <v>1000</v>
+      </c>
+      <c r="T28">
+        <v>1.49</v>
+      </c>
+      <c r="U28">
+        <v>1000</v>
+      </c>
+      <c r="V28">
+        <v>1.03</v>
+      </c>
+      <c r="W28">
+        <v>1000</v>
+      </c>
+      <c r="X28">
+        <v>1.03</v>
+      </c>
+      <c r="Y28">
+        <v>1000</v>
+      </c>
+      <c r="Z28">
+        <v>1.03</v>
+      </c>
+      <c r="AA28">
+        <v>1000</v>
+      </c>
+      <c r="AB28">
+        <v>1.03</v>
+      </c>
+      <c r="AC28">
+        <v>1000</v>
+      </c>
+      <c r="AD28">
+        <v>1.03</v>
+      </c>
+      <c r="AE28">
+        <v>1000</v>
+      </c>
+      <c r="AF28">
+        <v>1.03</v>
+      </c>
+      <c r="AG28">
+        <v>1000</v>
+      </c>
+      <c r="AH28">
+        <v>1.03</v>
+      </c>
+      <c r="AI28">
+        <v>1000</v>
+      </c>
+      <c r="AJ28">
+        <v>1.03</v>
+      </c>
+      <c r="AK28">
+        <v>1000</v>
+      </c>
+      <c r="AL28">
+        <v>1.03</v>
+      </c>
+      <c r="AM28">
+        <v>1000</v>
+      </c>
+      <c r="AN28">
+        <v>1.03</v>
+      </c>
+      <c r="AO28">
+        <v>1000</v>
+      </c>
+      <c r="AP28">
+        <v>1.03</v>
+      </c>
+      <c r="AQ28">
+        <v>1000</v>
+      </c>
+      <c r="AR28">
+        <v>1.03</v>
+      </c>
+      <c r="AS28">
+        <v>1000</v>
+      </c>
+      <c r="AT28">
+        <v>1.03</v>
+      </c>
+      <c r="AU28">
+        <v>1000</v>
+      </c>
+      <c r="AV28">
+        <v>1.03</v>
+      </c>
+      <c r="AW28">
+        <v>1000</v>
+      </c>
+      <c r="AX28">
+        <v>1.03</v>
+      </c>
+      <c r="AY28">
+        <v>1000</v>
+      </c>
+      <c r="AZ28">
+        <v>1.01</v>
+      </c>
+      <c r="BA28">
+        <v>1000</v>
+      </c>
+      <c r="BB28">
+        <v>1.01</v>
+      </c>
+      <c r="BC28">
+        <v>1000</v>
+      </c>
+      <c r="BD28">
+        <v>1.03</v>
+      </c>
+      <c r="BE28">
+        <v>1000</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG28">
+        <v>62221459</v>
+      </c>
+      <c r="BH28">
+        <v>36377799</v>
+      </c>
+      <c r="BI28">
+        <v>58805</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>242</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29">
+        <v>1.93</v>
+      </c>
+      <c r="G29">
+        <v>2.18</v>
+      </c>
+      <c r="H29">
+        <v>3.9</v>
+      </c>
+      <c r="I29">
+        <v>5.4</v>
+      </c>
+      <c r="J29">
+        <v>3.1</v>
+      </c>
+      <c r="K29">
+        <v>4.2</v>
+      </c>
+      <c r="L29">
+        <v>1.6</v>
+      </c>
+      <c r="M29">
+        <v>1.81</v>
+      </c>
+      <c r="N29">
+        <v>2.24</v>
+      </c>
+      <c r="O29">
+        <v>2.66</v>
+      </c>
+      <c r="P29">
+        <v>1.96</v>
+      </c>
+      <c r="Q29">
+        <v>2.3</v>
+      </c>
+      <c r="R29">
+        <v>1.76</v>
+      </c>
+      <c r="S29">
+        <v>2.06</v>
+      </c>
+      <c r="T29">
+        <v>3.2</v>
+      </c>
+      <c r="U29">
+        <v>980</v>
+      </c>
+      <c r="V29">
+        <v>3.45</v>
+      </c>
+      <c r="W29">
+        <v>980</v>
+      </c>
+      <c r="X29">
+        <v>3.9</v>
+      </c>
+      <c r="Y29">
+        <v>980</v>
+      </c>
+      <c r="Z29">
+        <v>4.2</v>
+      </c>
+      <c r="AA29">
+        <v>1000</v>
+      </c>
+      <c r="AB29">
+        <v>3.1</v>
+      </c>
+      <c r="AC29">
+        <v>980</v>
+      </c>
+      <c r="AD29">
+        <v>3</v>
+      </c>
+      <c r="AE29">
+        <v>980</v>
+      </c>
+      <c r="AF29">
+        <v>3.7</v>
+      </c>
+      <c r="AG29">
+        <v>980</v>
+      </c>
+      <c r="AH29">
+        <v>4.1</v>
+      </c>
+      <c r="AI29">
+        <v>980</v>
+      </c>
+      <c r="AJ29">
+        <v>3.4</v>
+      </c>
+      <c r="AK29">
+        <v>980</v>
+      </c>
+      <c r="AL29">
+        <v>3.65</v>
+      </c>
+      <c r="AM29">
+        <v>980</v>
+      </c>
+      <c r="AN29">
+        <v>3.8</v>
+      </c>
+      <c r="AO29">
+        <v>980</v>
+      </c>
+      <c r="AP29">
+        <v>4.2</v>
+      </c>
+      <c r="AQ29">
+        <v>1000</v>
+      </c>
+      <c r="AR29">
+        <v>3.85</v>
+      </c>
+      <c r="AS29">
+        <v>980</v>
+      </c>
+      <c r="AT29">
+        <v>3.85</v>
+      </c>
+      <c r="AU29">
+        <v>980</v>
+      </c>
+      <c r="AV29">
+        <v>4.1</v>
+      </c>
+      <c r="AW29">
+        <v>980</v>
+      </c>
+      <c r="AX29">
+        <v>4.2</v>
+      </c>
+      <c r="AY29">
+        <v>1000</v>
+      </c>
+      <c r="AZ29">
+        <v>3.75</v>
+      </c>
+      <c r="BA29">
+        <v>980</v>
+      </c>
+      <c r="BB29">
+        <v>4.2</v>
+      </c>
+      <c r="BC29">
+        <v>1000</v>
+      </c>
+      <c r="BD29">
+        <v>4.3</v>
+      </c>
+      <c r="BE29">
+        <v>1000</v>
+      </c>
+      <c r="BF29">
+        <v>33137996</v>
+      </c>
+      <c r="BG29">
+        <v>5727549</v>
+      </c>
+      <c r="BH29">
+        <v>215828</v>
+      </c>
+      <c r="BI29">
+        <v>58805</v>
+      </c>
+      <c r="BJ29">
         <v>0</v>
       </c>
-      <c r="BK14">
+      <c r="BK29">
+        <v>1.226666837</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30">
+        <v>1.48</v>
+      </c>
+      <c r="G30">
+        <v>1.55</v>
+      </c>
+      <c r="H30">
+        <v>8.6</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>4.6</v>
+      </c>
+      <c r="L30">
+        <v>1.73</v>
+      </c>
+      <c r="M30">
+        <v>1.9</v>
+      </c>
+      <c r="N30">
+        <v>2.12</v>
+      </c>
+      <c r="O30">
+        <v>2.36</v>
+      </c>
+      <c r="P30">
+        <v>2.32</v>
+      </c>
+      <c r="Q30">
+        <v>2.56</v>
+      </c>
+      <c r="R30">
+        <v>1.64</v>
+      </c>
+      <c r="S30">
+        <v>1.75</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30">
+        <v>12.5</v>
+      </c>
+      <c r="V30">
+        <v>6.6</v>
+      </c>
+      <c r="W30">
+        <v>980</v>
+      </c>
+      <c r="X30">
+        <v>3.3</v>
+      </c>
+      <c r="Y30">
+        <v>980</v>
+      </c>
+      <c r="Z30">
+        <v>2.38</v>
+      </c>
+      <c r="AA30">
+        <v>1000</v>
+      </c>
+      <c r="AB30">
+        <v>3.8</v>
+      </c>
+      <c r="AC30">
+        <v>6.6</v>
+      </c>
+      <c r="AD30">
+        <v>4.9</v>
+      </c>
+      <c r="AE30">
+        <v>980</v>
+      </c>
+      <c r="AF30">
+        <v>3.15</v>
+      </c>
+      <c r="AG30">
+        <v>980</v>
+      </c>
+      <c r="AH30">
+        <v>8.6</v>
+      </c>
+      <c r="AI30">
+        <v>1000</v>
+      </c>
+      <c r="AJ30">
+        <v>4.3</v>
+      </c>
+      <c r="AK30">
+        <v>980</v>
+      </c>
+      <c r="AL30">
+        <v>5.2</v>
+      </c>
+      <c r="AM30">
+        <v>980</v>
+      </c>
+      <c r="AN30">
+        <v>3.1</v>
+      </c>
+      <c r="AO30">
+        <v>980</v>
+      </c>
+      <c r="AP30">
+        <v>7</v>
+      </c>
+      <c r="AQ30">
+        <v>1000</v>
+      </c>
+      <c r="AR30">
+        <v>5.6</v>
+      </c>
+      <c r="AS30">
+        <v>980</v>
+      </c>
+      <c r="AT30">
+        <v>6.4</v>
+      </c>
+      <c r="AU30">
+        <v>980</v>
+      </c>
+      <c r="AV30">
+        <v>8</v>
+      </c>
+      <c r="AW30">
+        <v>1000</v>
+      </c>
+      <c r="AX30">
+        <v>2.38</v>
+      </c>
+      <c r="AY30">
+        <v>1000</v>
+      </c>
+      <c r="AZ30">
+        <v>4.5</v>
+      </c>
+      <c r="BA30">
+        <v>980</v>
+      </c>
+      <c r="BB30">
+        <v>2.38</v>
+      </c>
+      <c r="BC30">
+        <v>1000</v>
+      </c>
+      <c r="BD30">
+        <v>9.4</v>
+      </c>
+      <c r="BE30">
+        <v>1000</v>
+      </c>
+      <c r="BF30">
+        <v>33137997</v>
+      </c>
+      <c r="BG30">
+        <v>522042</v>
+      </c>
+      <c r="BH30">
+        <v>8215986</v>
+      </c>
+      <c r="BI30">
+        <v>58805</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>1.226667026</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31">
+        <v>2.7</v>
+      </c>
+      <c r="G31">
+        <v>3.4</v>
+      </c>
+      <c r="H31">
+        <v>2.78</v>
+      </c>
+      <c r="I31">
+        <v>3.45</v>
+      </c>
+      <c r="J31">
+        <v>2.76</v>
+      </c>
+      <c r="K31">
+        <v>3.3</v>
+      </c>
+      <c r="L31">
+        <v>1.48</v>
+      </c>
+      <c r="M31">
+        <v>1.62</v>
+      </c>
+      <c r="N31">
+        <v>2.6</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
+        <v>2.08</v>
+      </c>
+      <c r="Q31">
+        <v>2.4</v>
+      </c>
+      <c r="R31">
+        <v>1.72</v>
+      </c>
+      <c r="S31">
+        <v>1.92</v>
+      </c>
+      <c r="T31">
+        <v>6.6</v>
+      </c>
+      <c r="U31">
+        <v>8.4</v>
+      </c>
+      <c r="V31">
+        <v>7.4</v>
+      </c>
+      <c r="W31">
+        <v>10.5</v>
+      </c>
+      <c r="X31">
+        <v>14.5</v>
+      </c>
+      <c r="Y31">
+        <v>22</v>
+      </c>
+      <c r="Z31">
+        <v>4.5</v>
+      </c>
+      <c r="AA31">
+        <v>980</v>
+      </c>
+      <c r="AB31">
+        <v>7</v>
+      </c>
+      <c r="AC31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD31">
+        <v>6.2</v>
+      </c>
+      <c r="AE31">
+        <v>8.4</v>
+      </c>
+      <c r="AF31">
+        <v>12</v>
+      </c>
+      <c r="AG31">
+        <v>18</v>
+      </c>
+      <c r="AH31">
+        <v>4.5</v>
+      </c>
+      <c r="AI31">
+        <v>980</v>
+      </c>
+      <c r="AJ31">
+        <v>14</v>
+      </c>
+      <c r="AK31">
+        <v>22</v>
+      </c>
+      <c r="AL31">
+        <v>11.5</v>
+      </c>
+      <c r="AM31">
+        <v>17.5</v>
+      </c>
+      <c r="AN31">
+        <v>4.7</v>
+      </c>
+      <c r="AO31">
+        <v>30</v>
+      </c>
+      <c r="AP31">
+        <v>4.6</v>
+      </c>
+      <c r="AQ31">
+        <v>980</v>
+      </c>
+      <c r="AR31">
+        <v>4.5</v>
+      </c>
+      <c r="AS31">
+        <v>980</v>
+      </c>
+      <c r="AT31">
+        <v>4.5</v>
+      </c>
+      <c r="AU31">
+        <v>980</v>
+      </c>
+      <c r="AV31">
+        <v>4.6</v>
+      </c>
+      <c r="AW31">
+        <v>980</v>
+      </c>
+      <c r="AX31">
+        <v>4.7</v>
+      </c>
+      <c r="AY31">
+        <v>980</v>
+      </c>
+      <c r="AZ31">
+        <v>4.5</v>
+      </c>
+      <c r="BA31">
+        <v>980</v>
+      </c>
+      <c r="BB31">
+        <v>4.5</v>
+      </c>
+      <c r="BC31">
+        <v>980</v>
+      </c>
+      <c r="BD31">
+        <v>4.8</v>
+      </c>
+      <c r="BE31">
+        <v>1000</v>
+      </c>
+      <c r="BF31">
+        <v>33137995</v>
+      </c>
+      <c r="BG31">
+        <v>4893592</v>
+      </c>
+      <c r="BH31">
+        <v>522050</v>
+      </c>
+      <c r="BI31">
+        <v>58805</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>1.226667116</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>4.6</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2.2</v>
+      </c>
+      <c r="J32">
+        <v>3.2</v>
+      </c>
+      <c r="K32">
+        <v>3.65</v>
+      </c>
+      <c r="L32">
+        <v>1.63</v>
+      </c>
+      <c r="M32">
+        <v>1.87</v>
+      </c>
+      <c r="N32">
+        <v>2.16</v>
+      </c>
+      <c r="O32">
+        <v>2.58</v>
+      </c>
+      <c r="P32">
+        <v>1.98</v>
+      </c>
+      <c r="Q32">
+        <v>2.16</v>
+      </c>
+      <c r="R32">
+        <v>1.86</v>
+      </c>
+      <c r="S32">
+        <v>2.02</v>
+      </c>
+      <c r="T32">
+        <v>8.6</v>
+      </c>
+      <c r="U32">
+        <v>13</v>
+      </c>
+      <c r="V32">
+        <v>6</v>
+      </c>
+      <c r="W32">
+        <v>9.6</v>
+      </c>
+      <c r="X32">
+        <v>9.6</v>
+      </c>
+      <c r="Y32">
+        <v>14.5</v>
+      </c>
+      <c r="Z32">
+        <v>4.2</v>
+      </c>
+      <c r="AA32">
+        <v>32</v>
+      </c>
+      <c r="AB32">
+        <v>10.5</v>
+      </c>
+      <c r="AC32">
+        <v>16</v>
+      </c>
+      <c r="AD32">
+        <v>6.4</v>
+      </c>
+      <c r="AE32">
+        <v>9.4</v>
+      </c>
+      <c r="AF32">
+        <v>9</v>
+      </c>
+      <c r="AG32">
+        <v>13.5</v>
+      </c>
+      <c r="AH32">
+        <v>4.2</v>
+      </c>
+      <c r="AI32">
+        <v>32</v>
+      </c>
+      <c r="AJ32">
+        <v>21</v>
+      </c>
+      <c r="AK32">
+        <v>980</v>
+      </c>
+      <c r="AL32">
+        <v>14.5</v>
+      </c>
+      <c r="AM32">
+        <v>22</v>
+      </c>
+      <c r="AN32">
+        <v>17.5</v>
+      </c>
+      <c r="AO32">
+        <v>27</v>
+      </c>
+      <c r="AP32">
+        <v>4</v>
+      </c>
+      <c r="AQ32">
+        <v>980</v>
+      </c>
+      <c r="AR32">
+        <v>4.1</v>
+      </c>
+      <c r="AS32">
+        <v>980</v>
+      </c>
+      <c r="AT32">
+        <v>4.1</v>
+      </c>
+      <c r="AU32">
+        <v>980</v>
+      </c>
+      <c r="AV32">
+        <v>4.1</v>
+      </c>
+      <c r="AW32">
+        <v>980</v>
+      </c>
+      <c r="AX32">
+        <v>4.2</v>
+      </c>
+      <c r="AY32">
+        <v>980</v>
+      </c>
+      <c r="AZ32">
+        <v>4.1</v>
+      </c>
+      <c r="BA32">
+        <v>980</v>
+      </c>
+      <c r="BB32">
+        <v>3.65</v>
+      </c>
+      <c r="BC32">
+        <v>25</v>
+      </c>
+      <c r="BD32">
+        <v>4.2</v>
+      </c>
+      <c r="BE32">
+        <v>1000</v>
+      </c>
+      <c r="BF32">
+        <v>33137994</v>
+      </c>
+      <c r="BG32">
+        <v>522055</v>
+      </c>
+      <c r="BH32">
+        <v>522044</v>
+      </c>
+      <c r="BI32">
+        <v>58805</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>1.226667206</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33">
+        <v>3.25</v>
+      </c>
+      <c r="G33">
+        <v>3.6</v>
+      </c>
+      <c r="H33">
+        <v>2.44</v>
+      </c>
+      <c r="I33">
+        <v>2.68</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3.35</v>
+      </c>
+      <c r="L33">
+        <v>1.55</v>
+      </c>
+      <c r="M33">
+        <v>1.67</v>
+      </c>
+      <c r="N33">
+        <v>2.48</v>
+      </c>
+      <c r="O33">
+        <v>2.8</v>
+      </c>
+      <c r="P33">
+        <v>2.08</v>
+      </c>
+      <c r="Q33">
+        <v>2.26</v>
+      </c>
+      <c r="R33">
+        <v>1.79</v>
+      </c>
+      <c r="S33">
+        <v>1.93</v>
+      </c>
+      <c r="T33">
+        <v>7.4</v>
+      </c>
+      <c r="U33">
+        <v>9.4</v>
+      </c>
+      <c r="V33">
+        <v>7.2</v>
+      </c>
+      <c r="W33">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X33">
+        <v>12</v>
+      </c>
+      <c r="Y33">
+        <v>16</v>
+      </c>
+      <c r="Z33">
+        <v>6.6</v>
+      </c>
+      <c r="AA33">
+        <v>980</v>
+      </c>
+      <c r="AB33">
+        <v>8.6</v>
+      </c>
+      <c r="AC33">
+        <v>10.5</v>
+      </c>
+      <c r="AD33">
+        <v>6.2</v>
+      </c>
+      <c r="AE33">
+        <v>7.6</v>
+      </c>
+      <c r="AF33">
+        <v>10.5</v>
+      </c>
+      <c r="AG33">
+        <v>14</v>
+      </c>
+      <c r="AH33">
+        <v>6.4</v>
+      </c>
+      <c r="AI33">
+        <v>980</v>
+      </c>
+      <c r="AJ33">
+        <v>5.9</v>
+      </c>
+      <c r="AK33">
+        <v>980</v>
+      </c>
+      <c r="AL33">
+        <v>12.5</v>
+      </c>
+      <c r="AM33">
+        <v>17</v>
+      </c>
+      <c r="AN33">
+        <v>5.9</v>
+      </c>
+      <c r="AO33">
+        <v>980</v>
+      </c>
+      <c r="AP33">
+        <v>7</v>
+      </c>
+      <c r="AQ33">
+        <v>980</v>
+      </c>
+      <c r="AR33">
+        <v>7</v>
+      </c>
+      <c r="AS33">
+        <v>980</v>
+      </c>
+      <c r="AT33">
+        <v>6.8</v>
+      </c>
+      <c r="AU33">
+        <v>980</v>
+      </c>
+      <c r="AV33">
+        <v>7</v>
+      </c>
+      <c r="AW33">
+        <v>980</v>
+      </c>
+      <c r="AX33">
+        <v>7.4</v>
+      </c>
+      <c r="AY33">
+        <v>980</v>
+      </c>
+      <c r="AZ33">
+        <v>7</v>
+      </c>
+      <c r="BA33">
+        <v>980</v>
+      </c>
+      <c r="BB33">
+        <v>6.4</v>
+      </c>
+      <c r="BC33">
+        <v>980</v>
+      </c>
+      <c r="BD33">
+        <v>7.6</v>
+      </c>
+      <c r="BE33">
+        <v>1000</v>
+      </c>
+      <c r="BF33">
+        <v>33137998</v>
+      </c>
+      <c r="BG33">
+        <v>20089186</v>
+      </c>
+      <c r="BH33">
+        <v>201275</v>
+      </c>
+      <c r="BI33">
+        <v>58805</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>1.226666936</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1.2</v>
+      </c>
+      <c r="M34">
+        <v>1000</v>
+      </c>
+      <c r="N34">
+        <v>1.01</v>
+      </c>
+      <c r="O34">
+        <v>6.6</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>243</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35">
+        <v>1.64</v>
+      </c>
+      <c r="G35">
+        <v>2.1</v>
+      </c>
+      <c r="H35">
+        <v>4.8</v>
+      </c>
+      <c r="I35">
+        <v>1000</v>
+      </c>
+      <c r="J35">
+        <v>3.2</v>
+      </c>
+      <c r="K35">
+        <v>950</v>
+      </c>
+      <c r="L35">
+        <v>1.27</v>
+      </c>
+      <c r="M35">
+        <v>55</v>
+      </c>
+      <c r="N35">
+        <v>1.1</v>
+      </c>
+      <c r="O35">
+        <v>4.6</v>
+      </c>
+      <c r="P35">
+        <v>1.12</v>
+      </c>
+      <c r="Q35">
+        <v>1000</v>
+      </c>
+      <c r="R35">
+        <v>1.12</v>
+      </c>
+      <c r="S35">
+        <v>1000</v>
+      </c>
+      <c r="T35">
+        <v>1.39</v>
+      </c>
+      <c r="U35">
+        <v>980</v>
+      </c>
+      <c r="V35">
+        <v>2.34</v>
+      </c>
+      <c r="W35">
+        <v>980</v>
+      </c>
+      <c r="X35">
+        <v>2.56</v>
+      </c>
+      <c r="Y35">
+        <v>1000</v>
+      </c>
+      <c r="Z35">
+        <v>3.15</v>
+      </c>
+      <c r="AA35">
+        <v>1000</v>
+      </c>
+      <c r="AB35">
+        <v>2.9</v>
+      </c>
+      <c r="AC35">
+        <v>980</v>
+      </c>
+      <c r="AD35">
+        <v>4</v>
+      </c>
+      <c r="AE35">
+        <v>980</v>
+      </c>
+      <c r="AF35">
+        <v>3.8</v>
+      </c>
+      <c r="AG35">
+        <v>980</v>
+      </c>
+      <c r="AH35">
+        <v>7.4</v>
+      </c>
+      <c r="AI35">
+        <v>1000</v>
+      </c>
+      <c r="AJ35">
+        <v>2.78</v>
+      </c>
+      <c r="AK35">
+        <v>1000</v>
+      </c>
+      <c r="AL35">
+        <v>3.8</v>
+      </c>
+      <c r="AM35">
+        <v>980</v>
+      </c>
+      <c r="AN35">
+        <v>4.9</v>
+      </c>
+      <c r="AO35">
+        <v>980</v>
+      </c>
+      <c r="AP35">
+        <v>6.2</v>
+      </c>
+      <c r="AQ35">
+        <v>1000</v>
+      </c>
+      <c r="AR35">
+        <v>4</v>
+      </c>
+      <c r="AS35">
+        <v>1000</v>
+      </c>
+      <c r="AT35">
+        <v>5.7</v>
+      </c>
+      <c r="AU35">
+        <v>1000</v>
+      </c>
+      <c r="AV35">
+        <v>8.6</v>
+      </c>
+      <c r="AW35">
+        <v>1000</v>
+      </c>
+      <c r="AX35">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY35">
+        <v>1000</v>
+      </c>
+      <c r="AZ35">
+        <v>1.1</v>
+      </c>
+      <c r="BA35">
+        <v>1000</v>
+      </c>
+      <c r="BB35">
+        <v>1.1</v>
+      </c>
+      <c r="BC35">
+        <v>1000</v>
+      </c>
+      <c r="BD35">
+        <v>1.1</v>
+      </c>
+      <c r="BE35">
+        <v>1000</v>
+      </c>
+      <c r="BF35">
+        <v>33123972</v>
+      </c>
+      <c r="BG35">
+        <v>12104874</v>
+      </c>
+      <c r="BH35">
+        <v>10778457</v>
+      </c>
+      <c r="BI35">
+        <v>58805</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>1.226413105</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36">
+        <v>2.2</v>
+      </c>
+      <c r="G36">
+        <v>2.4</v>
+      </c>
+      <c r="H36">
+        <v>3.7</v>
+      </c>
+      <c r="I36">
+        <v>4.1</v>
+      </c>
+      <c r="J36">
+        <v>2.94</v>
+      </c>
+      <c r="K36">
+        <v>3.3</v>
+      </c>
+      <c r="L36">
+        <v>1.54</v>
+      </c>
+      <c r="M36">
+        <v>1.64</v>
+      </c>
+      <c r="N36">
+        <v>2.56</v>
+      </c>
+      <c r="O36">
+        <v>2.86</v>
+      </c>
+      <c r="P36">
+        <v>2.04</v>
+      </c>
+      <c r="Q36">
+        <v>2.44</v>
+      </c>
+      <c r="R36">
+        <v>1.69</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>7.4</v>
+      </c>
+      <c r="U36">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V36">
+        <v>9</v>
+      </c>
+      <c r="W36">
+        <v>11.5</v>
+      </c>
+      <c r="X36">
+        <v>21</v>
+      </c>
+      <c r="Y36">
+        <v>30</v>
+      </c>
+      <c r="Z36">
+        <v>6.2</v>
+      </c>
+      <c r="AA36">
+        <v>980</v>
+      </c>
+      <c r="AB36">
+        <v>6.8</v>
+      </c>
+      <c r="AC36">
+        <v>8</v>
+      </c>
+      <c r="AD36">
+        <v>6.4</v>
+      </c>
+      <c r="AE36">
+        <v>8</v>
+      </c>
+      <c r="AF36">
+        <v>14</v>
+      </c>
+      <c r="AG36">
+        <v>18.5</v>
+      </c>
+      <c r="AH36">
+        <v>6</v>
+      </c>
+      <c r="AI36">
+        <v>75</v>
+      </c>
+      <c r="AJ36">
+        <v>10.5</v>
+      </c>
+      <c r="AK36">
+        <v>15.5</v>
+      </c>
+      <c r="AL36">
+        <v>10</v>
+      </c>
+      <c r="AM36">
+        <v>13.5</v>
+      </c>
+      <c r="AN36">
+        <v>19.5</v>
+      </c>
+      <c r="AO36">
+        <v>29</v>
+      </c>
+      <c r="AP36">
+        <v>6.2</v>
+      </c>
+      <c r="AQ36">
+        <v>980</v>
+      </c>
+      <c r="AR36">
+        <v>22</v>
+      </c>
+      <c r="AS36">
+        <v>38</v>
+      </c>
+      <c r="AT36">
+        <v>5.9</v>
+      </c>
+      <c r="AU36">
+        <v>40</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>980</v>
+      </c>
+      <c r="AX36">
+        <v>6.4</v>
+      </c>
+      <c r="AY36">
+        <v>980</v>
+      </c>
+      <c r="AZ36">
+        <v>5.6</v>
+      </c>
+      <c r="BA36">
+        <v>36</v>
+      </c>
+      <c r="BB36">
+        <v>6.2</v>
+      </c>
+      <c r="BC36">
+        <v>980</v>
+      </c>
+      <c r="BD36">
+        <v>6.6</v>
+      </c>
+      <c r="BE36">
+        <v>1000</v>
+      </c>
+      <c r="BF36">
+        <v>33119921</v>
+      </c>
+      <c r="BG36">
+        <v>220949</v>
+      </c>
+      <c r="BH36">
+        <v>5408226</v>
+      </c>
+      <c r="BI36">
+        <v>58805</v>
+      </c>
+      <c r="BJ36">
+        <v>1.226352735</v>
+      </c>
+      <c r="BK36">
+        <v>1.226352745</v>
+      </c>
+      <c r="BL36">
+        <v>1.226352734</v>
+      </c>
+      <c r="BM36">
+        <v>1.226352744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37">
+        <v>1.86</v>
+      </c>
+      <c r="G37">
+        <v>2.6</v>
+      </c>
+      <c r="H37">
+        <v>3.9</v>
+      </c>
+      <c r="I37">
+        <v>9.6</v>
+      </c>
+      <c r="J37">
+        <v>2.8</v>
+      </c>
+      <c r="K37">
+        <v>4.9</v>
+      </c>
+      <c r="L37">
+        <v>1.4</v>
+      </c>
+      <c r="M37">
+        <v>2.04</v>
+      </c>
+      <c r="N37">
+        <v>1.96</v>
+      </c>
+      <c r="O37">
+        <v>3.5</v>
+      </c>
+      <c r="P37">
+        <v>1.12</v>
+      </c>
+      <c r="Q37">
+        <v>970</v>
+      </c>
+      <c r="R37">
+        <v>1.12</v>
+      </c>
+      <c r="S37">
+        <v>970</v>
+      </c>
+      <c r="T37">
+        <v>1.48</v>
+      </c>
+      <c r="U37">
+        <v>980</v>
+      </c>
+      <c r="V37">
+        <v>1.1</v>
+      </c>
+      <c r="W37">
+        <v>980</v>
+      </c>
+      <c r="X37">
+        <v>1.1</v>
+      </c>
+      <c r="Y37">
+        <v>1000</v>
+      </c>
+      <c r="Z37">
+        <v>1.1</v>
+      </c>
+      <c r="AA37">
+        <v>1000</v>
+      </c>
+      <c r="AB37">
+        <v>1.1</v>
+      </c>
+      <c r="AC37">
+        <v>980</v>
+      </c>
+      <c r="AD37">
+        <v>1.1</v>
+      </c>
+      <c r="AE37">
+        <v>980</v>
+      </c>
+      <c r="AF37">
+        <v>1.1</v>
+      </c>
+      <c r="AG37">
+        <v>980</v>
+      </c>
+      <c r="AH37">
+        <v>1.1</v>
+      </c>
+      <c r="AI37">
+        <v>1000</v>
+      </c>
+      <c r="AJ37">
+        <v>1.1</v>
+      </c>
+      <c r="AK37">
+        <v>1000</v>
+      </c>
+      <c r="AL37">
+        <v>1.1</v>
+      </c>
+      <c r="AM37">
+        <v>980</v>
+      </c>
+      <c r="AN37">
+        <v>1.1</v>
+      </c>
+      <c r="AO37">
+        <v>980</v>
+      </c>
+      <c r="AP37">
+        <v>1.1</v>
+      </c>
+      <c r="AQ37">
+        <v>1000</v>
+      </c>
+      <c r="AR37">
+        <v>1.1</v>
+      </c>
+      <c r="AS37">
+        <v>1000</v>
+      </c>
+      <c r="AT37">
+        <v>1.1</v>
+      </c>
+      <c r="AU37">
+        <v>1000</v>
+      </c>
+      <c r="AV37">
+        <v>1.1</v>
+      </c>
+      <c r="AW37">
+        <v>1000</v>
+      </c>
+      <c r="AX37">
+        <v>1.1</v>
+      </c>
+      <c r="AY37">
+        <v>1000</v>
+      </c>
+      <c r="AZ37">
+        <v>1.1</v>
+      </c>
+      <c r="BA37">
+        <v>1000</v>
+      </c>
+      <c r="BB37">
+        <v>1.1</v>
+      </c>
+      <c r="BC37">
+        <v>1000</v>
+      </c>
+      <c r="BD37">
+        <v>1.1</v>
+      </c>
+      <c r="BE37">
+        <v>1000</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG37">
+        <v>712865</v>
+      </c>
+      <c r="BH37">
+        <v>8761113</v>
+      </c>
+      <c r="BI37">
+        <v>58805</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>244</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>270</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38">
+        <v>1.27</v>
+      </c>
+      <c r="G38">
+        <v>1.33</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>18.5</v>
+      </c>
+      <c r="J38">
+        <v>5.1</v>
+      </c>
+      <c r="K38">
+        <v>7.4</v>
+      </c>
+      <c r="L38">
+        <v>2.16</v>
+      </c>
+      <c r="M38">
+        <v>2.42</v>
+      </c>
+      <c r="N38">
+        <v>1.71</v>
+      </c>
+      <c r="O38">
+        <v>1.86</v>
+      </c>
+      <c r="P38">
+        <v>2.28</v>
+      </c>
+      <c r="Q38">
+        <v>2.5</v>
+      </c>
+      <c r="R38">
+        <v>1.66</v>
+      </c>
+      <c r="S38">
+        <v>1.79</v>
+      </c>
+      <c r="T38">
+        <v>4.5</v>
+      </c>
+      <c r="U38">
+        <v>980</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+      <c r="W38">
+        <v>980</v>
+      </c>
+      <c r="X38">
+        <v>3.35</v>
+      </c>
+      <c r="Y38">
+        <v>980</v>
+      </c>
+      <c r="Z38">
+        <v>3.4</v>
+      </c>
+      <c r="AA38">
+        <v>1000</v>
+      </c>
+      <c r="AB38">
+        <v>3.4</v>
+      </c>
+      <c r="AC38">
+        <v>980</v>
+      </c>
+      <c r="AD38">
+        <v>4.2</v>
+      </c>
+      <c r="AE38">
+        <v>980</v>
+      </c>
+      <c r="AF38">
+        <v>5.2</v>
+      </c>
+      <c r="AG38">
+        <v>980</v>
+      </c>
+      <c r="AH38">
+        <v>5.5</v>
+      </c>
+      <c r="AI38">
+        <v>1000</v>
+      </c>
+      <c r="AJ38">
+        <v>3.2</v>
+      </c>
+      <c r="AK38">
+        <v>980</v>
+      </c>
+      <c r="AL38">
+        <v>3.95</v>
+      </c>
+      <c r="AM38">
+        <v>980</v>
+      </c>
+      <c r="AN38">
+        <v>5</v>
+      </c>
+      <c r="AO38">
+        <v>980</v>
+      </c>
+      <c r="AP38">
+        <v>5.5</v>
+      </c>
+      <c r="AQ38">
+        <v>1000</v>
+      </c>
+      <c r="AR38">
+        <v>3.75</v>
+      </c>
+      <c r="AS38">
+        <v>11.5</v>
+      </c>
+      <c r="AT38">
+        <v>4.3</v>
+      </c>
+      <c r="AU38">
+        <v>980</v>
+      </c>
+      <c r="AV38">
+        <v>5.1</v>
+      </c>
+      <c r="AW38">
+        <v>980</v>
+      </c>
+      <c r="AX38">
+        <v>5.5</v>
+      </c>
+      <c r="AY38">
+        <v>1000</v>
+      </c>
+      <c r="AZ38">
+        <v>2.9</v>
+      </c>
+      <c r="BA38">
+        <v>6</v>
+      </c>
+      <c r="BB38">
+        <v>3.4</v>
+      </c>
+      <c r="BC38">
+        <v>1000</v>
+      </c>
+      <c r="BD38">
+        <v>5.6</v>
+      </c>
+      <c r="BE38">
+        <v>1000</v>
+      </c>
+      <c r="BF38">
+        <v>33141755</v>
+      </c>
+      <c r="BG38">
+        <v>474678</v>
+      </c>
+      <c r="BH38">
+        <v>13638535</v>
+      </c>
+      <c r="BI38">
+        <v>58805</v>
+      </c>
+      <c r="BJ38">
+        <v>1.226722648</v>
+      </c>
+      <c r="BK38">
+        <v>1.226722693</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39">
+        <v>1.04</v>
+      </c>
+      <c r="G39">
+        <v>2.46</v>
+      </c>
+      <c r="H39">
+        <v>1.68</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+      <c r="J39">
+        <v>1.68</v>
+      </c>
+      <c r="K39">
+        <v>950</v>
+      </c>
+      <c r="L39">
+        <v>1.2</v>
+      </c>
+      <c r="M39">
+        <v>36</v>
+      </c>
+      <c r="N39">
+        <v>1.03</v>
+      </c>
+      <c r="O39">
+        <v>6.6</v>
+      </c>
+      <c r="P39">
+        <v>1.01</v>
+      </c>
+      <c r="Q39">
+        <v>1000</v>
+      </c>
+      <c r="R39">
+        <v>1.01</v>
+      </c>
+      <c r="S39">
+        <v>1000</v>
+      </c>
+      <c r="T39">
+        <v>1.49</v>
+      </c>
+      <c r="U39">
+        <v>1000</v>
+      </c>
+      <c r="V39">
+        <v>1.03</v>
+      </c>
+      <c r="W39">
+        <v>1000</v>
+      </c>
+      <c r="X39">
+        <v>1.03</v>
+      </c>
+      <c r="Y39">
+        <v>1000</v>
+      </c>
+      <c r="Z39">
+        <v>1.03</v>
+      </c>
+      <c r="AA39">
+        <v>1000</v>
+      </c>
+      <c r="AB39">
+        <v>1.03</v>
+      </c>
+      <c r="AC39">
+        <v>1000</v>
+      </c>
+      <c r="AD39">
+        <v>1.03</v>
+      </c>
+      <c r="AE39">
+        <v>1000</v>
+      </c>
+      <c r="AF39">
+        <v>1.03</v>
+      </c>
+      <c r="AG39">
+        <v>1000</v>
+      </c>
+      <c r="AH39">
+        <v>1.03</v>
+      </c>
+      <c r="AI39">
+        <v>1000</v>
+      </c>
+      <c r="AJ39">
+        <v>1.03</v>
+      </c>
+      <c r="AK39">
+        <v>1000</v>
+      </c>
+      <c r="AL39">
+        <v>1.03</v>
+      </c>
+      <c r="AM39">
+        <v>1000</v>
+      </c>
+      <c r="AN39">
+        <v>1.03</v>
+      </c>
+      <c r="AO39">
+        <v>1000</v>
+      </c>
+      <c r="AP39">
+        <v>1.03</v>
+      </c>
+      <c r="AQ39">
+        <v>1000</v>
+      </c>
+      <c r="AR39">
+        <v>1.03</v>
+      </c>
+      <c r="AS39">
+        <v>1000</v>
+      </c>
+      <c r="AT39">
+        <v>1.03</v>
+      </c>
+      <c r="AU39">
+        <v>1000</v>
+      </c>
+      <c r="AV39">
+        <v>1.03</v>
+      </c>
+      <c r="AW39">
+        <v>1000</v>
+      </c>
+      <c r="AX39">
+        <v>1.03</v>
+      </c>
+      <c r="AY39">
+        <v>1000</v>
+      </c>
+      <c r="AZ39">
+        <v>1.01</v>
+      </c>
+      <c r="BA39">
+        <v>1000</v>
+      </c>
+      <c r="BB39">
+        <v>1.01</v>
+      </c>
+      <c r="BC39">
+        <v>1000</v>
+      </c>
+      <c r="BD39">
+        <v>1.03</v>
+      </c>
+      <c r="BE39">
+        <v>1000</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG39">
+        <v>10259108</v>
+      </c>
+      <c r="BH39">
+        <v>893608</v>
+      </c>
+      <c r="BI39">
+        <v>58805</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>218</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>271</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40">
+        <v>2.3</v>
+      </c>
+      <c r="G40">
+        <v>2.52</v>
+      </c>
+      <c r="H40">
+        <v>3.5</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>2.96</v>
+      </c>
+      <c r="K40">
+        <v>3.15</v>
+      </c>
+      <c r="L40">
+        <v>1.45</v>
+      </c>
+      <c r="M40">
+        <v>1.6</v>
+      </c>
+      <c r="N40">
+        <v>2.66</v>
+      </c>
+      <c r="O40">
+        <v>3.25</v>
+      </c>
+      <c r="P40">
+        <v>2.2</v>
+      </c>
+      <c r="Q40">
+        <v>2.46</v>
+      </c>
+      <c r="R40">
+        <v>1.69</v>
+      </c>
+      <c r="S40">
+        <v>1.84</v>
+      </c>
+      <c r="T40">
+        <v>6.4</v>
+      </c>
+      <c r="U40">
+        <v>9.4</v>
+      </c>
+      <c r="V40">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W40">
+        <v>12</v>
+      </c>
+      <c r="X40">
+        <v>17.5</v>
+      </c>
+      <c r="Y40">
+        <v>30</v>
+      </c>
+      <c r="Z40">
+        <v>4.3</v>
+      </c>
+      <c r="AA40">
+        <v>110</v>
+      </c>
+      <c r="AB40">
+        <v>6</v>
+      </c>
+      <c r="AC40">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD40">
+        <v>5.9</v>
+      </c>
+      <c r="AE40">
+        <v>8.6</v>
+      </c>
+      <c r="AF40">
+        <v>12.5</v>
+      </c>
+      <c r="AG40">
+        <v>21</v>
+      </c>
+      <c r="AH40">
+        <v>4.2</v>
+      </c>
+      <c r="AI40">
+        <v>80</v>
+      </c>
+      <c r="AJ40">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK40">
+        <v>16.5</v>
+      </c>
+      <c r="AL40">
+        <v>9.4</v>
+      </c>
+      <c r="AM40">
+        <v>15.5</v>
+      </c>
+      <c r="AN40">
+        <v>18.5</v>
+      </c>
+      <c r="AO40">
+        <v>32</v>
+      </c>
+      <c r="AP40">
+        <v>4.3</v>
+      </c>
+      <c r="AQ40">
+        <v>120</v>
+      </c>
+      <c r="AR40">
+        <v>4</v>
+      </c>
+      <c r="AS40">
+        <v>44</v>
+      </c>
+      <c r="AT40">
+        <v>4</v>
+      </c>
+      <c r="AU40">
+        <v>44</v>
+      </c>
+      <c r="AV40">
+        <v>4.2</v>
+      </c>
+      <c r="AW40">
+        <v>90</v>
+      </c>
+      <c r="AX40">
+        <v>4.4</v>
+      </c>
+      <c r="AY40">
+        <v>980</v>
+      </c>
+      <c r="AZ40">
+        <v>4.1</v>
+      </c>
+      <c r="BA40">
+        <v>46</v>
+      </c>
+      <c r="BB40">
+        <v>4.3</v>
+      </c>
+      <c r="BC40">
+        <v>120</v>
+      </c>
+      <c r="BD40">
+        <v>4.4</v>
+      </c>
+      <c r="BE40">
+        <v>1000</v>
+      </c>
+      <c r="BF40">
+        <v>33119897</v>
+      </c>
+      <c r="BG40">
+        <v>897267</v>
+      </c>
+      <c r="BH40">
+        <v>453739</v>
+      </c>
+      <c r="BI40">
+        <v>58805</v>
+      </c>
+      <c r="BJ40">
+        <v>1.226353059</v>
+      </c>
+      <c r="BK40">
+        <v>1.226353069</v>
+      </c>
+      <c r="BL40">
+        <v>1.226353058</v>
+      </c>
+      <c r="BM40">
+        <v>1.226353068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41">
+        <v>1.13</v>
+      </c>
+      <c r="G41">
+        <v>1.51</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>870</v>
+      </c>
+      <c r="J41">
+        <v>5.2</v>
+      </c>
+      <c r="K41">
+        <v>950</v>
+      </c>
+      <c r="L41">
+        <v>1.81</v>
+      </c>
+      <c r="M41">
+        <v>3.9</v>
+      </c>
+      <c r="N41">
+        <v>1.35</v>
+      </c>
+      <c r="O41">
+        <v>2.22</v>
+      </c>
+      <c r="P41">
+        <v>1.12</v>
+      </c>
+      <c r="Q41">
+        <v>1000</v>
+      </c>
+      <c r="R41">
+        <v>1.12</v>
+      </c>
+      <c r="S41">
+        <v>1000</v>
+      </c>
+      <c r="T41">
+        <v>1.49</v>
+      </c>
+      <c r="U41">
+        <v>980</v>
+      </c>
+      <c r="V41">
+        <v>1.1</v>
+      </c>
+      <c r="W41">
+        <v>980</v>
+      </c>
+      <c r="X41">
+        <v>1.1</v>
+      </c>
+      <c r="Y41">
+        <v>1000</v>
+      </c>
+      <c r="Z41">
+        <v>1.1</v>
+      </c>
+      <c r="AA41">
+        <v>1000</v>
+      </c>
+      <c r="AB41">
+        <v>1.1</v>
+      </c>
+      <c r="AC41">
+        <v>980</v>
+      </c>
+      <c r="AD41">
+        <v>1.1</v>
+      </c>
+      <c r="AE41">
+        <v>980</v>
+      </c>
+      <c r="AF41">
+        <v>1.1</v>
+      </c>
+      <c r="AG41">
+        <v>980</v>
+      </c>
+      <c r="AH41">
+        <v>1.1</v>
+      </c>
+      <c r="AI41">
+        <v>1000</v>
+      </c>
+      <c r="AJ41">
+        <v>1.1</v>
+      </c>
+      <c r="AK41">
+        <v>1000</v>
+      </c>
+      <c r="AL41">
+        <v>1.1</v>
+      </c>
+      <c r="AM41">
+        <v>980</v>
+      </c>
+      <c r="AN41">
+        <v>1.1</v>
+      </c>
+      <c r="AO41">
+        <v>980</v>
+      </c>
+      <c r="AP41">
+        <v>1.1</v>
+      </c>
+      <c r="AQ41">
+        <v>1000</v>
+      </c>
+      <c r="AR41">
+        <v>1.1</v>
+      </c>
+      <c r="AS41">
+        <v>1000</v>
+      </c>
+      <c r="AT41">
+        <v>1.1</v>
+      </c>
+      <c r="AU41">
+        <v>1000</v>
+      </c>
+      <c r="AV41">
+        <v>1.1</v>
+      </c>
+      <c r="AW41">
+        <v>1000</v>
+      </c>
+      <c r="AX41">
+        <v>1.1</v>
+      </c>
+      <c r="AY41">
+        <v>1000</v>
+      </c>
+      <c r="AZ41">
+        <v>1.1</v>
+      </c>
+      <c r="BA41">
+        <v>1000</v>
+      </c>
+      <c r="BB41">
+        <v>1.1</v>
+      </c>
+      <c r="BC41">
+        <v>1000</v>
+      </c>
+      <c r="BD41">
+        <v>1.1</v>
+      </c>
+      <c r="BE41">
+        <v>1000</v>
+      </c>
+      <c r="BF41">
+        <v>33123978</v>
+      </c>
+      <c r="BG41">
+        <v>219457</v>
+      </c>
+      <c r="BH41">
+        <v>65437610</v>
+      </c>
+      <c r="BI41">
+        <v>58805</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
         <v>1.226412925</v>
       </c>
-      <c r="BL14">
+      <c r="BL41">
         <v>0</v>
       </c>
-      <c r="BM14">
+      <c r="BM41">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="166">
   <si>
     <t>League</t>
   </si>
@@ -512,402 +512,6 @@
   </si>
   <si>
     <t>CD Los Chankas</t>
-  </si>
-  <si>
-    <t>33143738</t>
-  </si>
-  <si>
-    <t>33143840</t>
-  </si>
-  <si>
-    <t>33143821</t>
-  </si>
-  <si>
-    <t>33143818</t>
-  </si>
-  <si>
-    <t>33143752</t>
-  </si>
-  <si>
-    <t>33143849</t>
-  </si>
-  <si>
-    <t>33143734</t>
-  </si>
-  <si>
-    <t>33143755</t>
-  </si>
-  <si>
-    <t>33143797</t>
-  </si>
-  <si>
-    <t>33143794</t>
-  </si>
-  <si>
-    <t>33143729</t>
-  </si>
-  <si>
-    <t>33143742</t>
-  </si>
-  <si>
-    <t>33143807</t>
-  </si>
-  <si>
-    <t>33143799</t>
-  </si>
-  <si>
-    <t>33143792</t>
-  </si>
-  <si>
-    <t>33143861</t>
-  </si>
-  <si>
-    <t>33143852</t>
-  </si>
-  <si>
-    <t>33143809</t>
-  </si>
-  <si>
-    <t>33143847</t>
-  </si>
-  <si>
-    <t>33143750</t>
-  </si>
-  <si>
-    <t>33143780</t>
-  </si>
-  <si>
-    <t>33143775</t>
-  </si>
-  <si>
-    <t>33144237</t>
-  </si>
-  <si>
-    <t>33143868</t>
-  </si>
-  <si>
-    <t>33138137</t>
-  </si>
-  <si>
-    <t>33143433</t>
-  </si>
-  <si>
-    <t>33144176</t>
-  </si>
-  <si>
-    <t>1.226760220</t>
-  </si>
-  <si>
-    <t>1.226758780</t>
-  </si>
-  <si>
-    <t>1.226758870</t>
-  </si>
-  <si>
-    <t>1.226758960</t>
-  </si>
-  <si>
-    <t>1.226759950</t>
-  </si>
-  <si>
-    <t>1.226758600</t>
-  </si>
-  <si>
-    <t>1.226760310</t>
-  </si>
-  <si>
-    <t>1.226759860</t>
-  </si>
-  <si>
-    <t>1.226759320</t>
-  </si>
-  <si>
-    <t>1.226759410</t>
-  </si>
-  <si>
-    <t>1.226760400</t>
-  </si>
-  <si>
-    <t>1.226760130</t>
-  </si>
-  <si>
-    <t>1.226759140</t>
-  </si>
-  <si>
-    <t>1.226759230</t>
-  </si>
-  <si>
-    <t>1.226759590</t>
-  </si>
-  <si>
-    <t>1.226760623</t>
-  </si>
-  <si>
-    <t>1.226760734</t>
-  </si>
-  <si>
-    <t>1.226759050</t>
-  </si>
-  <si>
-    <t>1.226758690</t>
-  </si>
-  <si>
-    <t>1.226760040</t>
-  </si>
-  <si>
-    <t>1.226759680</t>
-  </si>
-  <si>
-    <t>1.226759770</t>
-  </si>
-  <si>
-    <t>1.226765786</t>
-  </si>
-  <si>
-    <t>1.226760510</t>
-  </si>
-  <si>
-    <t>1.226751219</t>
-  </si>
-  <si>
-    <t>1.226765876</t>
-  </si>
-  <si>
-    <t>1.226760265</t>
-  </si>
-  <si>
-    <t>1.226758825</t>
-  </si>
-  <si>
-    <t>1.226758915</t>
-  </si>
-  <si>
-    <t>1.226759005</t>
-  </si>
-  <si>
-    <t>1.226759995</t>
-  </si>
-  <si>
-    <t>1.226758645</t>
-  </si>
-  <si>
-    <t>1.226760355</t>
-  </si>
-  <si>
-    <t>1.226759905</t>
-  </si>
-  <si>
-    <t>1.226759365</t>
-  </si>
-  <si>
-    <t>1.226759455</t>
-  </si>
-  <si>
-    <t>1.226760445</t>
-  </si>
-  <si>
-    <t>1.226760175</t>
-  </si>
-  <si>
-    <t>1.226759185</t>
-  </si>
-  <si>
-    <t>1.226759275</t>
-  </si>
-  <si>
-    <t>1.226759635</t>
-  </si>
-  <si>
-    <t>1.226760670</t>
-  </si>
-  <si>
-    <t>1.226760781</t>
-  </si>
-  <si>
-    <t>1.226759095</t>
-  </si>
-  <si>
-    <t>1.226758735</t>
-  </si>
-  <si>
-    <t>1.226760085</t>
-  </si>
-  <si>
-    <t>1.226759725</t>
-  </si>
-  <si>
-    <t>1.226759815</t>
-  </si>
-  <si>
-    <t>1.226765831</t>
-  </si>
-  <si>
-    <t>1.226760555</t>
-  </si>
-  <si>
-    <t>1.226667981</t>
-  </si>
-  <si>
-    <t>1.226751264</t>
-  </si>
-  <si>
-    <t>1.226765921</t>
-  </si>
-  <si>
-    <t>1.226760304</t>
-  </si>
-  <si>
-    <t>1.226758864</t>
-  </si>
-  <si>
-    <t>1.226758954</t>
-  </si>
-  <si>
-    <t>1.226759044</t>
-  </si>
-  <si>
-    <t>1.226760034</t>
-  </si>
-  <si>
-    <t>1.226758684</t>
-  </si>
-  <si>
-    <t>1.226760394</t>
-  </si>
-  <si>
-    <t>1.226759944</t>
-  </si>
-  <si>
-    <t>1.226759404</t>
-  </si>
-  <si>
-    <t>1.226759494</t>
-  </si>
-  <si>
-    <t>1.226760484</t>
-  </si>
-  <si>
-    <t>1.226760214</t>
-  </si>
-  <si>
-    <t>1.226759224</t>
-  </si>
-  <si>
-    <t>1.226759314</t>
-  </si>
-  <si>
-    <t>1.226759674</t>
-  </si>
-  <si>
-    <t>1.226760709</t>
-  </si>
-  <si>
-    <t>1.226760820</t>
-  </si>
-  <si>
-    <t>1.226759134</t>
-  </si>
-  <si>
-    <t>1.226758774</t>
-  </si>
-  <si>
-    <t>1.226760124</t>
-  </si>
-  <si>
-    <t>1.226759764</t>
-  </si>
-  <si>
-    <t>1.226759854</t>
-  </si>
-  <si>
-    <t>1.226765870</t>
-  </si>
-  <si>
-    <t>1.226760594</t>
-  </si>
-  <si>
-    <t>1.226751303</t>
-  </si>
-  <si>
-    <t>1.226765960</t>
-  </si>
-  <si>
-    <t>1.226760229</t>
-  </si>
-  <si>
-    <t>1.226758789</t>
-  </si>
-  <si>
-    <t>1.226758879</t>
-  </si>
-  <si>
-    <t>1.226758969</t>
-  </si>
-  <si>
-    <t>1.226759959</t>
-  </si>
-  <si>
-    <t>1.226758609</t>
-  </si>
-  <si>
-    <t>1.226760319</t>
-  </si>
-  <si>
-    <t>1.226759869</t>
-  </si>
-  <si>
-    <t>1.226759329</t>
-  </si>
-  <si>
-    <t>1.226759419</t>
-  </si>
-  <si>
-    <t>1.226760409</t>
-  </si>
-  <si>
-    <t>1.226760139</t>
-  </si>
-  <si>
-    <t>1.226759149</t>
-  </si>
-  <si>
-    <t>1.226759239</t>
-  </si>
-  <si>
-    <t>1.226759599</t>
-  </si>
-  <si>
-    <t>1.226760633</t>
-  </si>
-  <si>
-    <t>1.226760744</t>
-  </si>
-  <si>
-    <t>1.226759059</t>
-  </si>
-  <si>
-    <t>1.226758699</t>
-  </si>
-  <si>
-    <t>1.226760049</t>
-  </si>
-  <si>
-    <t>1.226759689</t>
-  </si>
-  <si>
-    <t>1.226759779</t>
-  </si>
-  <si>
-    <t>1.226765795</t>
-  </si>
-  <si>
-    <t>1.226760519</t>
-  </si>
-  <si>
-    <t>1.226751228</t>
-  </si>
-  <si>
-    <t>1.226765885</t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1244,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>166</v>
+      <c r="BF2">
+        <v>33143738</v>
       </c>
       <c r="BG2">
         <v>62221624</v>
@@ -1652,17 +1256,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>246</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>272</v>
+      <c r="BJ2">
+        <v>1.22676022</v>
+      </c>
+      <c r="BK2">
+        <v>1.226760265</v>
+      </c>
+      <c r="BL2">
+        <v>1.226760304</v>
+      </c>
+      <c r="BM2">
+        <v>1.226760229</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1837,8 +1441,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>167</v>
+      <c r="BF3">
+        <v>33143840</v>
       </c>
       <c r="BG3">
         <v>48673116</v>
@@ -1849,17 +1453,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>273</v>
+      <c r="BJ3">
+        <v>1.22675878</v>
+      </c>
+      <c r="BK3">
+        <v>1.226758825</v>
+      </c>
+      <c r="BL3">
+        <v>1.226758864</v>
+      </c>
+      <c r="BM3">
+        <v>1.226758789</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2034,8 +1638,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>168</v>
+      <c r="BF4">
+        <v>33143821</v>
       </c>
       <c r="BG4">
         <v>49951757</v>
@@ -2046,17 +1650,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>248</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>274</v>
+      <c r="BJ4">
+        <v>1.22675887</v>
+      </c>
+      <c r="BK4">
+        <v>1.226758915</v>
+      </c>
+      <c r="BL4">
+        <v>1.226758954</v>
+      </c>
+      <c r="BM4">
+        <v>1.226758879</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2231,8 +1835,8 @@
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>169</v>
+      <c r="BF5">
+        <v>33143818</v>
       </c>
       <c r="BG5">
         <v>62963899</v>
@@ -2243,17 +1847,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>249</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>275</v>
+      <c r="BJ5">
+        <v>1.22675896</v>
+      </c>
+      <c r="BK5">
+        <v>1.226759005</v>
+      </c>
+      <c r="BL5">
+        <v>1.226759044</v>
+      </c>
+      <c r="BM5">
+        <v>1.226758969</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2428,8 +2032,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>170</v>
+      <c r="BF6">
+        <v>33143752</v>
       </c>
       <c r="BG6">
         <v>17599367</v>
@@ -2440,17 +2044,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>223</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>250</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>276</v>
+      <c r="BJ6">
+        <v>1.22675995</v>
+      </c>
+      <c r="BK6">
+        <v>1.226759995</v>
+      </c>
+      <c r="BL6">
+        <v>1.226760034</v>
+      </c>
+      <c r="BM6">
+        <v>1.226759959</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2625,8 +2229,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>171</v>
+      <c r="BF7">
+        <v>33143849</v>
       </c>
       <c r="BG7">
         <v>10857372</v>
@@ -2637,17 +2241,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>277</v>
+      <c r="BJ7">
+        <v>1.2267586</v>
+      </c>
+      <c r="BK7">
+        <v>1.226758645</v>
+      </c>
+      <c r="BL7">
+        <v>1.226758684</v>
+      </c>
+      <c r="BM7">
+        <v>1.226758609</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2822,8 +2426,8 @@
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8" t="s">
-        <v>172</v>
+      <c r="BF8">
+        <v>33143734</v>
       </c>
       <c r="BG8">
         <v>41267368</v>
@@ -2834,17 +2438,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>252</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>278</v>
+      <c r="BJ8">
+        <v>1.22676031</v>
+      </c>
+      <c r="BK8">
+        <v>1.226760355</v>
+      </c>
+      <c r="BL8">
+        <v>1.226760394</v>
+      </c>
+      <c r="BM8">
+        <v>1.226760319</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3019,8 +2623,8 @@
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>173</v>
+      <c r="BF9">
+        <v>33143755</v>
       </c>
       <c r="BG9">
         <v>25390631</v>
@@ -3031,17 +2635,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>200</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>253</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>279</v>
+      <c r="BJ9">
+        <v>1.22675986</v>
+      </c>
+      <c r="BK9">
+        <v>1.226759905</v>
+      </c>
+      <c r="BL9">
+        <v>1.226759944</v>
+      </c>
+      <c r="BM9">
+        <v>1.226759869</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3216,8 +2820,8 @@
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>174</v>
+      <c r="BF10">
+        <v>33143797</v>
       </c>
       <c r="BG10">
         <v>10286560</v>
@@ -3228,17 +2832,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>227</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>254</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>280</v>
+      <c r="BJ10">
+        <v>1.22675932</v>
+      </c>
+      <c r="BK10">
+        <v>1.226759365</v>
+      </c>
+      <c r="BL10">
+        <v>1.226759404</v>
+      </c>
+      <c r="BM10">
+        <v>1.226759329</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3413,8 +3017,8 @@
       <c r="BE11">
         <v>1000</v>
       </c>
-      <c r="BF11" t="s">
-        <v>175</v>
+      <c r="BF11">
+        <v>33143794</v>
       </c>
       <c r="BG11">
         <v>15792473</v>
@@ -3425,17 +3029,17 @@
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>255</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>281</v>
+      <c r="BJ11">
+        <v>1.22675941</v>
+      </c>
+      <c r="BK11">
+        <v>1.226759455</v>
+      </c>
+      <c r="BL11">
+        <v>1.226759494</v>
+      </c>
+      <c r="BM11">
+        <v>1.226759419</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3610,8 +3214,8 @@
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>176</v>
+      <c r="BF12">
+        <v>33143729</v>
       </c>
       <c r="BG12">
         <v>7583275</v>
@@ -3622,17 +3226,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>203</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>256</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>282</v>
+      <c r="BJ12">
+        <v>1.2267604</v>
+      </c>
+      <c r="BK12">
+        <v>1.226760445</v>
+      </c>
+      <c r="BL12">
+        <v>1.226760484</v>
+      </c>
+      <c r="BM12">
+        <v>1.226760409</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3807,8 +3411,8 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>177</v>
+      <c r="BF13">
+        <v>33143742</v>
       </c>
       <c r="BG13">
         <v>3265373</v>
@@ -3819,17 +3423,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>204</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>283</v>
+      <c r="BJ13">
+        <v>1.22676013</v>
+      </c>
+      <c r="BK13">
+        <v>1.226760175</v>
+      </c>
+      <c r="BL13">
+        <v>1.226760214</v>
+      </c>
+      <c r="BM13">
+        <v>1.226760139</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4004,8 +3608,8 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14" t="s">
-        <v>178</v>
+      <c r="BF14">
+        <v>33143807</v>
       </c>
       <c r="BG14">
         <v>23146035</v>
@@ -4016,17 +3620,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>205</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>258</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>284</v>
+      <c r="BJ14">
+        <v>1.22675914</v>
+      </c>
+      <c r="BK14">
+        <v>1.226759185</v>
+      </c>
+      <c r="BL14">
+        <v>1.226759224</v>
+      </c>
+      <c r="BM14">
+        <v>1.226759149</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4201,8 +3805,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>179</v>
+      <c r="BF15">
+        <v>33143799</v>
       </c>
       <c r="BG15">
         <v>501199</v>
@@ -4213,17 +3817,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>206</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>259</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>285</v>
+      <c r="BJ15">
+        <v>1.22675923</v>
+      </c>
+      <c r="BK15">
+        <v>1.226759275</v>
+      </c>
+      <c r="BL15">
+        <v>1.226759314</v>
+      </c>
+      <c r="BM15">
+        <v>1.226759239</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4398,8 +4002,8 @@
       <c r="BE16">
         <v>1000</v>
       </c>
-      <c r="BF16" t="s">
-        <v>180</v>
+      <c r="BF16">
+        <v>33143792</v>
       </c>
       <c r="BG16">
         <v>5445696</v>
@@ -4410,17 +4014,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>207</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>286</v>
+      <c r="BJ16">
+        <v>1.22675959</v>
+      </c>
+      <c r="BK16">
+        <v>1.226759635</v>
+      </c>
+      <c r="BL16">
+        <v>1.226759674</v>
+      </c>
+      <c r="BM16">
+        <v>1.226759599</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4595,8 +4199,8 @@
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17" t="s">
-        <v>181</v>
+      <c r="BF17">
+        <v>33143861</v>
       </c>
       <c r="BG17">
         <v>64905981</v>
@@ -4607,17 +4211,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>208</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>234</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>287</v>
+      <c r="BJ17">
+        <v>1.226760623</v>
+      </c>
+      <c r="BK17">
+        <v>1.22676067</v>
+      </c>
+      <c r="BL17">
+        <v>1.226760709</v>
+      </c>
+      <c r="BM17">
+        <v>1.226760633</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4792,8 +4396,8 @@
       <c r="BE18">
         <v>1000</v>
       </c>
-      <c r="BF18" t="s">
-        <v>182</v>
+      <c r="BF18">
+        <v>33143852</v>
       </c>
       <c r="BG18">
         <v>36562024</v>
@@ -4804,17 +4408,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>209</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>235</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>262</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>288</v>
+      <c r="BJ18">
+        <v>1.226760734</v>
+      </c>
+      <c r="BK18">
+        <v>1.226760781</v>
+      </c>
+      <c r="BL18">
+        <v>1.22676082</v>
+      </c>
+      <c r="BM18">
+        <v>1.226760744</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4989,8 +4593,8 @@
       <c r="BE19">
         <v>1000</v>
       </c>
-      <c r="BF19" t="s">
-        <v>183</v>
+      <c r="BF19">
+        <v>33143809</v>
       </c>
       <c r="BG19">
         <v>26053018</v>
@@ -5001,17 +4605,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>210</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>236</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>263</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>289</v>
+      <c r="BJ19">
+        <v>1.22675905</v>
+      </c>
+      <c r="BK19">
+        <v>1.226759095</v>
+      </c>
+      <c r="BL19">
+        <v>1.226759134</v>
+      </c>
+      <c r="BM19">
+        <v>1.226759059</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5186,8 +4790,8 @@
       <c r="BE20">
         <v>1000</v>
       </c>
-      <c r="BF20" t="s">
-        <v>184</v>
+      <c r="BF20">
+        <v>33143847</v>
       </c>
       <c r="BG20">
         <v>37156140</v>
@@ -5198,17 +4802,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>211</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>237</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>264</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>290</v>
+      <c r="BJ20">
+        <v>1.22675869</v>
+      </c>
+      <c r="BK20">
+        <v>1.226758735</v>
+      </c>
+      <c r="BL20">
+        <v>1.226758774</v>
+      </c>
+      <c r="BM20">
+        <v>1.226758699</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5383,8 +4987,8 @@
       <c r="BE21">
         <v>1000</v>
       </c>
-      <c r="BF21" t="s">
-        <v>185</v>
+      <c r="BF21">
+        <v>33143750</v>
       </c>
       <c r="BG21">
         <v>20366053</v>
@@ -5395,17 +4999,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>212</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>238</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>265</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>291</v>
+      <c r="BJ21">
+        <v>1.22676004</v>
+      </c>
+      <c r="BK21">
+        <v>1.226760085</v>
+      </c>
+      <c r="BL21">
+        <v>1.226760124</v>
+      </c>
+      <c r="BM21">
+        <v>1.226760049</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5580,8 +5184,8 @@
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>186</v>
+      <c r="BF22">
+        <v>33143780</v>
       </c>
       <c r="BG22">
         <v>14667878</v>
@@ -5592,17 +5196,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>213</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>239</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>266</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>292</v>
+      <c r="BJ22">
+        <v>1.22675968</v>
+      </c>
+      <c r="BK22">
+        <v>1.226759725</v>
+      </c>
+      <c r="BL22">
+        <v>1.226759764</v>
+      </c>
+      <c r="BM22">
+        <v>1.226759689</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -6368,8 +5972,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>187</v>
+      <c r="BF26">
+        <v>33143775</v>
       </c>
       <c r="BG26">
         <v>924270</v>
@@ -6380,17 +5984,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>214</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>240</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>293</v>
+      <c r="BJ26">
+        <v>1.22675977</v>
+      </c>
+      <c r="BK26">
+        <v>1.226759815</v>
+      </c>
+      <c r="BL26">
+        <v>1.226759854</v>
+      </c>
+      <c r="BM26">
+        <v>1.226759779</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6565,8 +6169,8 @@
       <c r="BE27">
         <v>1000</v>
       </c>
-      <c r="BF27" t="s">
-        <v>188</v>
+      <c r="BF27">
+        <v>33144237</v>
       </c>
       <c r="BG27">
         <v>61511713</v>
@@ -6577,17 +6181,17 @@
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>215</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>241</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>268</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>294</v>
+      <c r="BJ27">
+        <v>1.226765786</v>
+      </c>
+      <c r="BK27">
+        <v>1.226765831</v>
+      </c>
+      <c r="BL27">
+        <v>1.22676587</v>
+      </c>
+      <c r="BM27">
+        <v>1.226765795</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6762,8 +6366,8 @@
       <c r="BE28">
         <v>1000</v>
       </c>
-      <c r="BF28" t="s">
-        <v>189</v>
+      <c r="BF28">
+        <v>33143868</v>
       </c>
       <c r="BG28">
         <v>62221459</v>
@@ -6774,17 +6378,17 @@
       <c r="BI28">
         <v>58805</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>216</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>242</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>269</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>295</v>
+      <c r="BJ28">
+        <v>1.22676051</v>
+      </c>
+      <c r="BK28">
+        <v>1.226760555</v>
+      </c>
+      <c r="BL28">
+        <v>1.226760594</v>
+      </c>
+      <c r="BM28">
+        <v>1.226760519</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7944,8 +7548,8 @@
       <c r="BE34">
         <v>0</v>
       </c>
-      <c r="BF34" t="s">
-        <v>190</v>
+      <c r="BF34">
+        <v>33138137</v>
       </c>
       <c r="BG34">
         <v>0</v>
@@ -7959,8 +7563,8 @@
       <c r="BJ34">
         <v>0</v>
       </c>
-      <c r="BK34" t="s">
-        <v>243</v>
+      <c r="BK34">
+        <v>1.226667981</v>
       </c>
       <c r="BL34">
         <v>0</v>
@@ -8183,157 +7787,157 @@
         <v>160</v>
       </c>
       <c r="F36">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="G36">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="H36">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I36">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="J36">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="K36">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L36">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="M36">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="N36">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O36">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="P36">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q36">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="R36">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="T36">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="U36">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="V36">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="W36">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X36">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y36">
         <v>30</v>
       </c>
       <c r="Z36">
-        <v>6.2</v>
+        <v>14.5</v>
       </c>
       <c r="AA36">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AB36">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC36">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD36">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AE36">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF36">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG36">
         <v>18.5</v>
       </c>
       <c r="AH36">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AI36">
         <v>75</v>
       </c>
       <c r="AJ36">
+        <v>10</v>
+      </c>
+      <c r="AK36">
+        <v>11.5</v>
+      </c>
+      <c r="AL36">
         <v>10.5</v>
       </c>
-      <c r="AK36">
-        <v>15.5</v>
-      </c>
-      <c r="AL36">
-        <v>10</v>
-      </c>
       <c r="AM36">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AN36">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO36">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP36">
-        <v>6.2</v>
+        <v>14</v>
       </c>
       <c r="AQ36">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AR36">
+        <v>23</v>
+      </c>
+      <c r="AS36">
+        <v>26</v>
+      </c>
+      <c r="AT36">
+        <v>25</v>
+      </c>
+      <c r="AU36">
+        <v>28</v>
+      </c>
+      <c r="AV36">
+        <v>12.5</v>
+      </c>
+      <c r="AW36">
+        <v>60</v>
+      </c>
+      <c r="AX36">
+        <v>28</v>
+      </c>
+      <c r="AY36">
+        <v>190</v>
+      </c>
+      <c r="AZ36">
         <v>22</v>
       </c>
-      <c r="AS36">
-        <v>38</v>
-      </c>
-      <c r="AT36">
-        <v>5.9</v>
-      </c>
-      <c r="AU36">
-        <v>40</v>
-      </c>
-      <c r="AV36">
-        <v>6</v>
-      </c>
-      <c r="AW36">
-        <v>980</v>
-      </c>
-      <c r="AX36">
-        <v>6.4</v>
-      </c>
-      <c r="AY36">
-        <v>980</v>
-      </c>
-      <c r="AZ36">
-        <v>5.6</v>
-      </c>
       <c r="BA36">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="BB36">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="BC36">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="BD36">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="BE36">
         <v>1000</v>
@@ -8380,163 +7984,163 @@
         <v>161</v>
       </c>
       <c r="F37">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G37">
-        <v>2.6</v>
+        <v>1.93</v>
       </c>
       <c r="H37">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="I37">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
       <c r="J37">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="K37">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="L37">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M37">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="N37">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="P37">
-        <v>1.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q37">
-        <v>970</v>
+        <v>2.56</v>
       </c>
       <c r="R37">
-        <v>1.12</v>
+        <v>1.64</v>
       </c>
       <c r="S37">
-        <v>970</v>
+        <v>1.87</v>
       </c>
       <c r="T37">
-        <v>1.48</v>
+        <v>7.4</v>
       </c>
       <c r="U37">
         <v>980</v>
       </c>
       <c r="V37">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="W37">
         <v>980</v>
       </c>
       <c r="X37">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="Y37">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z37">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="AA37">
         <v>1000</v>
       </c>
       <c r="AB37">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="AC37">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AD37">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="AE37">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF37">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AG37">
         <v>980</v>
       </c>
       <c r="AH37">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="AI37">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ37">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="AK37">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AL37">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="AM37">
         <v>980</v>
       </c>
       <c r="AN37">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="AO37">
         <v>980</v>
       </c>
       <c r="AP37">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="AQ37">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR37">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AS37">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT37">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="AU37">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV37">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="AW37">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX37">
-        <v>1.1</v>
+        <v>140</v>
       </c>
       <c r="AY37">
         <v>1000</v>
       </c>
       <c r="AZ37">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="BA37">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB37">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="BC37">
         <v>1000</v>
       </c>
       <c r="BD37">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="BE37">
         <v>1000</v>
       </c>
-      <c r="BF37" t="s">
-        <v>191</v>
+      <c r="BF37">
+        <v>33143433</v>
       </c>
       <c r="BG37">
         <v>712865</v>
@@ -8547,17 +8151,17 @@
       <c r="BI37">
         <v>58805</v>
       </c>
-      <c r="BJ37" t="s">
-        <v>217</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>244</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>270</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>296</v>
+      <c r="BJ37">
+        <v>1.226751219</v>
+      </c>
+      <c r="BK37">
+        <v>1.226751264</v>
+      </c>
+      <c r="BL37">
+        <v>1.226751303</v>
+      </c>
+      <c r="BM37">
+        <v>1.226751228</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8577,25 +8181,25 @@
         <v>162</v>
       </c>
       <c r="F38">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="G38">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I38">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="J38">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K38">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="L38">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="M38">
         <v>2.42</v>
@@ -8604,130 +8208,130 @@
         <v>1.71</v>
       </c>
       <c r="O38">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="P38">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="Q38">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="R38">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="T38">
-        <v>4.5</v>
+        <v>14.5</v>
       </c>
       <c r="U38">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="V38">
+        <v>30</v>
+      </c>
+      <c r="W38">
+        <v>44</v>
+      </c>
+      <c r="X38">
         <v>5</v>
       </c>
-      <c r="W38">
-        <v>980</v>
-      </c>
-      <c r="X38">
-        <v>3.35</v>
-      </c>
       <c r="Y38">
         <v>980</v>
       </c>
       <c r="Z38">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AA38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB38">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC38">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD38">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
       <c r="AE38">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AF38">
-        <v>5.2</v>
+        <v>32</v>
       </c>
       <c r="AG38">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AH38">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ38">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="AK38">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AL38">
-        <v>3.95</v>
+        <v>9.4</v>
       </c>
       <c r="AM38">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AN38">
+        <v>25</v>
+      </c>
+      <c r="AO38">
+        <v>38</v>
+      </c>
+      <c r="AP38">
+        <v>4.9</v>
+      </c>
+      <c r="AQ38">
+        <v>980</v>
+      </c>
+      <c r="AR38">
+        <v>9.4</v>
+      </c>
+      <c r="AS38">
+        <v>12.5</v>
+      </c>
+      <c r="AT38">
+        <v>13</v>
+      </c>
+      <c r="AU38">
+        <v>17.5</v>
+      </c>
+      <c r="AV38">
+        <v>28</v>
+      </c>
+      <c r="AW38">
+        <v>46</v>
+      </c>
+      <c r="AX38">
         <v>5</v>
       </c>
-      <c r="AO38">
-        <v>980</v>
-      </c>
-      <c r="AP38">
-        <v>5.5</v>
-      </c>
-      <c r="AQ38">
-        <v>1000</v>
-      </c>
-      <c r="AR38">
-        <v>3.75</v>
-      </c>
-      <c r="AS38">
-        <v>11.5</v>
-      </c>
-      <c r="AT38">
-        <v>4.3</v>
-      </c>
-      <c r="AU38">
-        <v>980</v>
-      </c>
-      <c r="AV38">
-        <v>5.1</v>
-      </c>
-      <c r="AW38">
-        <v>980</v>
-      </c>
-      <c r="AX38">
-        <v>5.5</v>
-      </c>
       <c r="AY38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ38">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="BA38">
         <v>6</v>
       </c>
       <c r="BB38">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="BC38">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD38">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="BE38">
         <v>1000</v>
@@ -8774,163 +8378,163 @@
         <v>163</v>
       </c>
       <c r="F39">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="G39">
-        <v>2.46</v>
+        <v>2.02</v>
       </c>
       <c r="H39">
-        <v>1.68</v>
+        <v>4.2</v>
       </c>
       <c r="I39">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J39">
-        <v>1.68</v>
+        <v>3.55</v>
       </c>
       <c r="K39">
-        <v>950</v>
+        <v>3.95</v>
       </c>
       <c r="L39">
-        <v>1.2</v>
+        <v>1.89</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>2.06</v>
       </c>
       <c r="N39">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="O39">
-        <v>6.6</v>
+        <v>2.14</v>
       </c>
       <c r="P39">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="Q39">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="R39">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="S39">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="T39">
-        <v>1.49</v>
+        <v>11.5</v>
       </c>
       <c r="U39">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="V39">
-        <v>1.03</v>
+        <v>13.5</v>
       </c>
       <c r="W39">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="X39">
-        <v>1.03</v>
+        <v>28</v>
       </c>
       <c r="Y39">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z39">
-        <v>1.03</v>
+        <v>11.5</v>
       </c>
       <c r="AA39">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB39">
-        <v>1.03</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC39">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD39">
-        <v>1.03</v>
+        <v>7.6</v>
       </c>
       <c r="AE39">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AF39">
-        <v>1.03</v>
+        <v>15.5</v>
       </c>
       <c r="AG39">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH39">
-        <v>1.03</v>
+        <v>32</v>
       </c>
       <c r="AI39">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ39">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="AK39">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AL39">
-        <v>1.03</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM39">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AN39">
-        <v>1.03</v>
+        <v>16.5</v>
       </c>
       <c r="AO39">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AP39">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="AQ39">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AR39">
-        <v>1.03</v>
+        <v>19.5</v>
       </c>
       <c r="AS39">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AT39">
-        <v>1.03</v>
+        <v>18</v>
       </c>
       <c r="AU39">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AV39">
-        <v>1.03</v>
+        <v>32</v>
       </c>
       <c r="AW39">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AX39">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="AY39">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AZ39">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="BA39">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="BB39">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="BC39">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="BD39">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="BE39">
         <v>1000</v>
       </c>
-      <c r="BF39" t="s">
-        <v>192</v>
+      <c r="BF39">
+        <v>33144176</v>
       </c>
       <c r="BG39">
         <v>10259108</v>
@@ -8941,17 +8545,17 @@
       <c r="BI39">
         <v>58805</v>
       </c>
-      <c r="BJ39" t="s">
-        <v>218</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>297</v>
+      <c r="BJ39">
+        <v>1.226765876</v>
+      </c>
+      <c r="BK39">
+        <v>1.226765921</v>
+      </c>
+      <c r="BL39">
+        <v>1.22676596</v>
+      </c>
+      <c r="BM39">
+        <v>1.226765885</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -8971,157 +8575,157 @@
         <v>164</v>
       </c>
       <c r="F40">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="G40">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="J40">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K40">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L40">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M40">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="N40">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="P40">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q40">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R40">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S40">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="U40">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="V40">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="W40">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X40">
+        <v>20</v>
+      </c>
+      <c r="Y40">
+        <v>23</v>
+      </c>
+      <c r="Z40">
+        <v>16</v>
+      </c>
+      <c r="AA40">
+        <v>75</v>
+      </c>
+      <c r="AB40">
+        <v>6.8</v>
+      </c>
+      <c r="AC40">
+        <v>7.6</v>
+      </c>
+      <c r="AD40">
+        <v>6.6</v>
+      </c>
+      <c r="AE40">
+        <v>7.2</v>
+      </c>
+      <c r="AF40">
+        <v>15</v>
+      </c>
+      <c r="AG40">
+        <v>16</v>
+      </c>
+      <c r="AH40">
+        <v>15.5</v>
+      </c>
+      <c r="AI40">
+        <v>60</v>
+      </c>
+      <c r="AJ40">
         <v>12</v>
       </c>
-      <c r="X40">
+      <c r="AK40">
+        <v>13.5</v>
+      </c>
+      <c r="AL40">
+        <v>11.5</v>
+      </c>
+      <c r="AM40">
+        <v>12.5</v>
+      </c>
+      <c r="AN40">
+        <v>23</v>
+      </c>
+      <c r="AO40">
+        <v>25</v>
+      </c>
+      <c r="AP40">
+        <v>16.5</v>
+      </c>
+      <c r="AQ40">
+        <v>110</v>
+      </c>
+      <c r="AR40">
+        <v>13</v>
+      </c>
+      <c r="AS40">
+        <v>36</v>
+      </c>
+      <c r="AT40">
+        <v>30</v>
+      </c>
+      <c r="AU40">
+        <v>36</v>
+      </c>
+      <c r="AV40">
+        <v>16</v>
+      </c>
+      <c r="AW40">
+        <v>85</v>
+      </c>
+      <c r="AX40">
         <v>17.5</v>
       </c>
-      <c r="Y40">
-        <v>30</v>
-      </c>
-      <c r="Z40">
-        <v>4.3</v>
-      </c>
-      <c r="AA40">
-        <v>110</v>
-      </c>
-      <c r="AB40">
-        <v>6</v>
-      </c>
-      <c r="AC40">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD40">
-        <v>5.9</v>
-      </c>
-      <c r="AE40">
-        <v>8.6</v>
-      </c>
-      <c r="AF40">
-        <v>12.5</v>
-      </c>
-      <c r="AG40">
-        <v>21</v>
-      </c>
-      <c r="AH40">
-        <v>4.2</v>
-      </c>
-      <c r="AI40">
+      <c r="AY40">
+        <v>210</v>
+      </c>
+      <c r="AZ40">
+        <v>13</v>
+      </c>
+      <c r="BA40">
+        <v>38</v>
+      </c>
+      <c r="BB40">
+        <v>15.5</v>
+      </c>
+      <c r="BC40">
         <v>80</v>
       </c>
-      <c r="AJ40">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK40">
+      <c r="BD40">
         <v>16.5</v>
-      </c>
-      <c r="AL40">
-        <v>9.4</v>
-      </c>
-      <c r="AM40">
-        <v>15.5</v>
-      </c>
-      <c r="AN40">
-        <v>18.5</v>
-      </c>
-      <c r="AO40">
-        <v>32</v>
-      </c>
-      <c r="AP40">
-        <v>4.3</v>
-      </c>
-      <c r="AQ40">
-        <v>120</v>
-      </c>
-      <c r="AR40">
-        <v>4</v>
-      </c>
-      <c r="AS40">
-        <v>44</v>
-      </c>
-      <c r="AT40">
-        <v>4</v>
-      </c>
-      <c r="AU40">
-        <v>44</v>
-      </c>
-      <c r="AV40">
-        <v>4.2</v>
-      </c>
-      <c r="AW40">
-        <v>90</v>
-      </c>
-      <c r="AX40">
-        <v>4.4</v>
-      </c>
-      <c r="AY40">
-        <v>980</v>
-      </c>
-      <c r="AZ40">
-        <v>4.1</v>
-      </c>
-      <c r="BA40">
-        <v>46</v>
-      </c>
-      <c r="BB40">
-        <v>4.3</v>
-      </c>
-      <c r="BC40">
-        <v>120</v>
-      </c>
-      <c r="BD40">
-        <v>4.4</v>
       </c>
       <c r="BE40">
         <v>1000</v>
@@ -9168,157 +8772,157 @@
         <v>165</v>
       </c>
       <c r="F41">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="G41">
+        <v>1.28</v>
+      </c>
+      <c r="H41">
+        <v>14.5</v>
+      </c>
+      <c r="I41">
+        <v>18.5</v>
+      </c>
+      <c r="J41">
+        <v>6.6</v>
+      </c>
+      <c r="K41">
+        <v>7.8</v>
+      </c>
+      <c r="L41">
+        <v>2.5</v>
+      </c>
+      <c r="M41">
+        <v>2.98</v>
+      </c>
+      <c r="N41">
         <v>1.51</v>
       </c>
-      <c r="H41">
-        <v>7</v>
-      </c>
-      <c r="I41">
-        <v>870</v>
-      </c>
-      <c r="J41">
+      <c r="O41">
+        <v>1.67</v>
+      </c>
+      <c r="P41">
+        <v>2.16</v>
+      </c>
+      <c r="Q41">
+        <v>2.4</v>
+      </c>
+      <c r="R41">
+        <v>1.71</v>
+      </c>
+      <c r="S41">
+        <v>1.86</v>
+      </c>
+      <c r="T41">
         <v>5.2</v>
       </c>
-      <c r="K41">
-        <v>950</v>
-      </c>
-      <c r="L41">
-        <v>1.81</v>
-      </c>
-      <c r="M41">
-        <v>3.9</v>
-      </c>
-      <c r="N41">
-        <v>1.35</v>
-      </c>
-      <c r="O41">
-        <v>2.22</v>
-      </c>
-      <c r="P41">
-        <v>1.12</v>
-      </c>
-      <c r="Q41">
-        <v>1000</v>
-      </c>
-      <c r="R41">
-        <v>1.12</v>
-      </c>
-      <c r="S41">
-        <v>1000</v>
-      </c>
-      <c r="T41">
-        <v>1.49</v>
-      </c>
       <c r="U41">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="V41">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="W41">
         <v>980</v>
       </c>
       <c r="X41">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="Y41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z41">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="AA41">
         <v>1000</v>
       </c>
       <c r="AB41">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC41">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD41">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AE41">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AF41">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="AG41">
         <v>980</v>
       </c>
       <c r="AH41">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="AI41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ41">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="AK41">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AL41">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="AM41">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AN41">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO41">
         <v>980</v>
       </c>
       <c r="AP41">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="AQ41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR41">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="AS41">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AT41">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AU41">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AV41">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="AW41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX41">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="AY41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ41">
-        <v>1.1</v>
+        <v>2.68</v>
       </c>
       <c r="BA41">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="BB41">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="BC41">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD41">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="BE41">
         <v>1000</v>
